--- a/data/reportes-bimestrales/2026/02/RELACION_2026_02.xlsx
+++ b/data/reportes-bimestrales/2026/02/RELACION_2026_02.xlsx
@@ -1445,34 +1445,34 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B28" t="str">
-        <v>humh4@hotmail.com</v>
+        <v>rmadahuar@cotexsa.com.mx</v>
       </c>
       <c r="C28" t="str">
-        <v>HUGO MARTINEZ HERNANDEZ</v>
+        <v>ROBERTO JOSE MADAHUAR BOEHM</v>
       </c>
       <c r="D28" t="str">
-        <v>9961006288</v>
+        <v>9999473478</v>
       </c>
       <c r="E28" t="str">
         <v>ESCOPETA</v>
       </c>
       <c r="F28" t="str">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G28" t="str">
-        <v>SIN</v>
+        <v>BENELLI</v>
       </c>
       <c r="H28" t="str">
-        <v>SIN</v>
+        <v>VINCI</v>
       </c>
       <c r="I28" t="str">
-        <v>OZdU44</v>
+        <v>BGO45573P</v>
       </c>
       <c r="J28" t="str">
-        <v>A 3202184</v>
+        <v>A 3285623</v>
       </c>
       <c r="K28" t="str">
         <v>tiro</v>
@@ -1483,34 +1483,34 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B29" t="str">
-        <v>humh4@hotmail.com</v>
+        <v>rmadahuar@cotexsa.com.mx</v>
       </c>
       <c r="C29" t="str">
-        <v>HUGO MARTINEZ HERNANDEZ</v>
+        <v>ROBERTO JOSE MADAHUAR BOEHM</v>
       </c>
       <c r="D29" t="str">
-        <v>9961006288</v>
+        <v>9999473478</v>
       </c>
       <c r="E29" t="str">
         <v>ESCOPETA</v>
       </c>
       <c r="F29" t="str">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G29" t="str">
-        <v>PIETRO BERETTA</v>
+        <v>BENELLI</v>
       </c>
       <c r="H29" t="str">
-        <v>S 55</v>
+        <v>M2</v>
       </c>
       <c r="I29" t="str">
-        <v>B 44702</v>
+        <v>N143004W</v>
       </c>
       <c r="J29" t="str">
-        <v>A 3287049</v>
+        <v>A 3285622</v>
       </c>
       <c r="K29" t="str">
         <v>tiro</v>
@@ -1533,22 +1533,22 @@
         <v>9961006288</v>
       </c>
       <c r="E30" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F30" t="str">
-        <v>30 06</v>
+        <v>16</v>
       </c>
       <c r="G30" t="str">
-        <v>F.N. ACTION</v>
+        <v>SIN</v>
       </c>
       <c r="H30" t="str">
-        <v>R01050</v>
+        <v>SIN</v>
       </c>
       <c r="I30" t="str">
-        <v>36681</v>
+        <v>OZdU44</v>
       </c>
       <c r="J30" t="str">
-        <v>B 516103</v>
+        <v>A 3202184</v>
       </c>
       <c r="K30" t="str">
         <v>tiro</v>
@@ -1571,22 +1571,22 @@
         <v>9961006288</v>
       </c>
       <c r="E31" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F31" t="str">
-        <v>.270" WIN</v>
+        <v>12</v>
       </c>
       <c r="G31" t="str">
-        <v>SAKO</v>
+        <v>PIETRO BERETTA</v>
       </c>
       <c r="H31" t="str">
-        <v>85M</v>
+        <v>S 55</v>
       </c>
       <c r="I31" t="str">
-        <v>L89599</v>
+        <v>B 44702</v>
       </c>
       <c r="J31" t="str">
-        <v>F 315411</v>
+        <v>A 3287049</v>
       </c>
       <c r="K31" t="str">
         <v>tiro</v>
@@ -1597,34 +1597,34 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B32" t="str">
-        <v>josebadz@outlook.com</v>
+        <v>humh4@hotmail.com</v>
       </c>
       <c r="C32" t="str">
-        <v>JOSE HIPOLITO BARRERA AKE</v>
+        <v>HUGO MARTINEZ HERNANDEZ</v>
       </c>
       <c r="D32" t="str">
-        <v>9818296516</v>
+        <v>9961006288</v>
       </c>
       <c r="E32" t="str">
         <v>RIFLE</v>
       </c>
       <c r="F32" t="str">
-        <v>308" WIN</v>
+        <v>30 06</v>
       </c>
       <c r="G32" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>F.N. ACTION</v>
       </c>
       <c r="H32" t="str">
-        <v>CZ 550</v>
+        <v>R01050</v>
       </c>
       <c r="I32" t="str">
-        <v>AB05239</v>
+        <v>36681</v>
       </c>
       <c r="J32" t="str">
-        <v>B 519815</v>
+        <v>B 516103</v>
       </c>
       <c r="K32" t="str">
         <v>tiro</v>
@@ -1635,34 +1635,34 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B33" t="str">
-        <v>josebadz@outlook.com</v>
+        <v>humh4@hotmail.com</v>
       </c>
       <c r="C33" t="str">
-        <v>JOSE HIPOLITO BARRERA AKE</v>
+        <v>HUGO MARTINEZ HERNANDEZ</v>
       </c>
       <c r="D33" t="str">
-        <v>9818296516</v>
+        <v>9961006288</v>
       </c>
       <c r="E33" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F33" t="str">
-        <v>12</v>
+        <v>.270" WIN</v>
       </c>
       <c r="G33" t="str">
-        <v>MOSSBERG</v>
+        <v>SAKO</v>
       </c>
       <c r="H33" t="str">
-        <v>500</v>
+        <v>85M</v>
       </c>
       <c r="I33" t="str">
-        <v>T700656</v>
+        <v>L89599</v>
       </c>
       <c r="J33" t="str">
-        <v>A 3378577</v>
+        <v>F 315411</v>
       </c>
       <c r="K33" t="str">
         <v>tiro</v>
@@ -1685,22 +1685,22 @@
         <v>9818296516</v>
       </c>
       <c r="E34" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F34" t="str">
-        <v>20 GA</v>
+        <v>308" WIN</v>
       </c>
       <c r="G34" t="str">
-        <v>MOSSBERG</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H34" t="str">
-        <v>500</v>
+        <v>CZ 550</v>
       </c>
       <c r="I34" t="str">
-        <v>U951313</v>
+        <v>AB05239</v>
       </c>
       <c r="J34" t="str">
-        <v>B 316922</v>
+        <v>B 519815</v>
       </c>
       <c r="K34" t="str">
         <v>tiro</v>
@@ -1726,19 +1726,19 @@
         <v>ESCOPETA</v>
       </c>
       <c r="F35" t="str">
-        <v>12 GA</v>
+        <v>12</v>
       </c>
       <c r="G35" t="str">
         <v>MOSSBERG</v>
       </c>
       <c r="H35" t="str">
-        <v>930</v>
+        <v>500</v>
       </c>
       <c r="I35" t="str">
-        <v>AF145545</v>
+        <v>T700656</v>
       </c>
       <c r="J35" t="str">
-        <v>B 536772</v>
+        <v>A 3378577</v>
       </c>
       <c r="K35" t="str">
         <v>tiro</v>
@@ -1761,22 +1761,22 @@
         <v>9818296516</v>
       </c>
       <c r="E36" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F36" t="str">
-        <v>308 WIN</v>
+        <v>20 GA</v>
       </c>
       <c r="G36" t="str">
         <v>MOSSBERG</v>
       </c>
       <c r="H36" t="str">
-        <v>4X4</v>
+        <v>500</v>
       </c>
       <c r="I36" t="str">
-        <v>BA375043</v>
+        <v>U951313</v>
       </c>
       <c r="J36" t="str">
-        <v>B 316921</v>
+        <v>B 316922</v>
       </c>
       <c r="K36" t="str">
         <v>tiro</v>
@@ -1799,22 +1799,22 @@
         <v>9818296516</v>
       </c>
       <c r="E37" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F37" t="str">
-        <v>0.22" L.R.</v>
+        <v>12 GA</v>
       </c>
       <c r="G37" t="str">
-        <v>MENDOZA</v>
+        <v>MOSSBERG</v>
       </c>
       <c r="H37" t="str">
-        <v>PUMA</v>
+        <v>930</v>
       </c>
       <c r="I37" t="str">
-        <v>7804</v>
+        <v>AF145545</v>
       </c>
       <c r="J37" t="str">
-        <v>B 316923</v>
+        <v>B 536772</v>
       </c>
       <c r="K37" t="str">
         <v>tiro</v>
@@ -1825,34 +1825,34 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B38" t="str">
-        <v>cudaosj@hotmail.com</v>
+        <v>josebadz@outlook.com</v>
       </c>
       <c r="C38" t="str">
-        <v>ALEJANDRO JAVIER GARCÍA GAMBOA</v>
+        <v>JOSE HIPOLITO BARRERA AKE</v>
       </c>
       <c r="D38" t="str">
-        <v>9999001272</v>
+        <v>9818296516</v>
       </c>
       <c r="E38" t="str">
         <v>RIFLE</v>
       </c>
       <c r="F38" t="str">
-        <v>0.22" L.R.</v>
+        <v>308 WIN</v>
       </c>
       <c r="G38" t="str">
-        <v>G.S.G.</v>
+        <v>MOSSBERG</v>
       </c>
       <c r="H38" t="str">
-        <v>GSG-5</v>
+        <v>4X4</v>
       </c>
       <c r="I38" t="str">
-        <v>B027932</v>
+        <v>BA375043</v>
       </c>
       <c r="J38" t="str">
-        <v>A 3286779</v>
+        <v>B 316921</v>
       </c>
       <c r="K38" t="str">
         <v>tiro</v>
@@ -1863,34 +1863,34 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B39" t="str">
-        <v>cudaosj@hotmail.com</v>
+        <v>josebadz@outlook.com</v>
       </c>
       <c r="C39" t="str">
-        <v>ALEJANDRO JAVIER GARCÍA GAMBOA</v>
+        <v>JOSE HIPOLITO BARRERA AKE</v>
       </c>
       <c r="D39" t="str">
-        <v>9999001272</v>
+        <v>9818296516</v>
       </c>
       <c r="E39" t="str">
         <v>RIFLE</v>
       </c>
       <c r="F39" t="str">
-        <v>.300 WIN MAG.</v>
+        <v>0.22" L.R.</v>
       </c>
       <c r="G39" t="str">
-        <v>BROWNING BAR</v>
+        <v>MENDOZA</v>
       </c>
       <c r="H39" t="str">
-        <v>SIN</v>
+        <v>PUMA</v>
       </c>
       <c r="I39" t="str">
-        <v>137 PV 05500</v>
+        <v>7804</v>
       </c>
       <c r="J39" t="str">
-        <v>A 3285516</v>
+        <v>B 316923</v>
       </c>
       <c r="K39" t="str">
         <v>tiro</v>
@@ -1925,10 +1925,10 @@
         <v>GSG-5</v>
       </c>
       <c r="I40" t="str">
-        <v>B029292</v>
+        <v>B027932</v>
       </c>
       <c r="J40" t="str">
-        <v>A 3286780</v>
+        <v>A 3286779</v>
       </c>
       <c r="K40" t="str">
         <v>tiro</v>
@@ -1954,19 +1954,19 @@
         <v>RIFLE</v>
       </c>
       <c r="F41" t="str">
-        <v>0.22" L.R.</v>
+        <v>.300 WIN MAG.</v>
       </c>
       <c r="G41" t="str">
-        <v>G.S.G.</v>
+        <v>BROWNING BAR</v>
       </c>
       <c r="H41" t="str">
-        <v>GSG-5</v>
+        <v>SIN</v>
       </c>
       <c r="I41" t="str">
-        <v>B027933</v>
+        <v>137 PV 05500</v>
       </c>
       <c r="J41" t="str">
-        <v>A 3286778</v>
+        <v>A 3285516</v>
       </c>
       <c r="K41" t="str">
         <v>tiro</v>
@@ -1989,22 +1989,22 @@
         <v>9999001272</v>
       </c>
       <c r="E42" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F42" t="str">
-        <v>12 GA</v>
+        <v>0.22" L.R.</v>
       </c>
       <c r="G42" t="str">
-        <v>P. BERETTA</v>
+        <v>G.S.G.</v>
       </c>
       <c r="H42" t="str">
-        <v>A390ST</v>
+        <v>GSG-5</v>
       </c>
       <c r="I42" t="str">
-        <v>P 43546E</v>
+        <v>B029292</v>
       </c>
       <c r="J42" t="str">
-        <v>A 3285515</v>
+        <v>A 3286780</v>
       </c>
       <c r="K42" t="str">
         <v>tiro</v>
@@ -2015,34 +2015,34 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B43" t="str">
-        <v>smunozam@gmail.com</v>
+        <v>cudaosj@hotmail.com</v>
       </c>
       <c r="C43" t="str">
-        <v>SERGIO MUÑOZ DE ALBA MEDRANO</v>
+        <v>ALEJANDRO JAVIER GARCÍA GAMBOA</v>
       </c>
       <c r="D43" t="str">
-        <v>9992005550</v>
+        <v>9999001272</v>
       </c>
       <c r="E43" t="str">
-        <v>KIT DE CONVERSION</v>
+        <v>RIFLE</v>
       </c>
       <c r="F43" t="str">
-        <v>22 LR</v>
+        <v>0.22" L.R.</v>
       </c>
       <c r="G43" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>G.S.G.</v>
       </c>
       <c r="H43" t="str">
-        <v>CZ SHADOW 2</v>
+        <v>GSG-5</v>
       </c>
       <c r="I43" t="str">
-        <v>EP33586</v>
+        <v>B027933</v>
       </c>
       <c r="J43" t="str">
-        <v>A3892690</v>
+        <v>A 3286778</v>
       </c>
       <c r="K43" t="str">
         <v>tiro</v>
@@ -2053,34 +2053,34 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B44" t="str">
-        <v>smunozam@gmail.com</v>
+        <v>cudaosj@hotmail.com</v>
       </c>
       <c r="C44" t="str">
-        <v>SERGIO MUÑOZ DE ALBA MEDRANO</v>
+        <v>ALEJANDRO JAVIER GARCÍA GAMBOA</v>
       </c>
       <c r="D44" t="str">
-        <v>9992005550</v>
+        <v>9999001272</v>
       </c>
       <c r="E44" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F44" t="str">
-        <v>.223" REM.</v>
+        <v>12 GA</v>
       </c>
       <c r="G44" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>P. BERETTA</v>
       </c>
       <c r="H44" t="str">
-        <v>CZ 600 ALPHA</v>
+        <v>A390ST</v>
       </c>
       <c r="I44" t="str">
-        <v>J032612</v>
+        <v>P 43546E</v>
       </c>
       <c r="J44" t="str">
-        <v>A3892689</v>
+        <v>A 3285515</v>
       </c>
       <c r="K44" t="str">
         <v>tiro</v>
@@ -2103,25 +2103,25 @@
         <v>9992005550</v>
       </c>
       <c r="E45" t="str">
-        <v>ESCOPETA</v>
+        <v>KIT DE CONVERSION</v>
       </c>
       <c r="F45" t="str">
-        <v>12 GA</v>
+        <v>22 LR</v>
       </c>
       <c r="G45" t="str">
-        <v>BROWNING</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H45" t="str">
-        <v>PHOENIX</v>
+        <v>CZ SHADOW 2</v>
       </c>
       <c r="I45" t="str">
-        <v>113MP17119</v>
+        <v>EP33586</v>
       </c>
       <c r="J45" t="str">
-        <v>A 3777701</v>
+        <v>A3892690</v>
       </c>
       <c r="K45" t="str">
-        <v>caza</v>
+        <v>tiro</v>
       </c>
       <c r="L45" t="str">
         <v>REGISTRADA</v>
@@ -2141,22 +2141,22 @@
         <v>9992005550</v>
       </c>
       <c r="E46" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F46" t="str">
-        <v>.380"</v>
+        <v>.223" REM.</v>
       </c>
       <c r="G46" t="str">
         <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H46" t="str">
-        <v>CZ SHADOW 2</v>
+        <v>CZ 600 ALPHA</v>
       </c>
       <c r="I46" t="str">
-        <v>FP38781</v>
+        <v>J032612</v>
       </c>
       <c r="J46" t="str">
-        <v>A3892688</v>
+        <v>A3892689</v>
       </c>
       <c r="K46" t="str">
         <v>tiro</v>
@@ -2185,19 +2185,19 @@
         <v>12 GA</v>
       </c>
       <c r="G47" t="str">
-        <v>P. BERETTA</v>
+        <v>BROWNING</v>
       </c>
       <c r="H47" t="str">
-        <v>682 GOLD E.</v>
+        <v>PHOENIX</v>
       </c>
       <c r="I47" t="str">
-        <v>U 17049 B</v>
+        <v>113MP17119</v>
       </c>
       <c r="J47" t="str">
-        <v>A 3777708</v>
+        <v>A 3777701</v>
       </c>
       <c r="K47" t="str">
-        <v>tiro</v>
+        <v>caza</v>
       </c>
       <c r="L47" t="str">
         <v>REGISTRADA</v>
@@ -2217,25 +2217,25 @@
         <v>9992005550</v>
       </c>
       <c r="E48" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F48" t="str">
-        <v>.22" L.R.</v>
+        <v>.380"</v>
       </c>
       <c r="G48" t="str">
         <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H48" t="str">
-        <v>CZ452-2E ZKM</v>
+        <v>CZ SHADOW 2</v>
       </c>
       <c r="I48" t="str">
-        <v>A800214</v>
+        <v>FP38781</v>
       </c>
       <c r="J48" t="str">
-        <v>A 3777704</v>
+        <v>A3892688</v>
       </c>
       <c r="K48" t="str">
-        <v>caza</v>
+        <v>tiro</v>
       </c>
       <c r="L48" t="str">
         <v>REGISTRADA</v>
@@ -2243,16 +2243,16 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B49" t="str">
-        <v>agm@galletasdonde.com</v>
+        <v>smunozam@gmail.com</v>
       </c>
       <c r="C49" t="str">
-        <v>ALEJANDRO GOMORY MARTINEZ</v>
+        <v>SERGIO MUÑOZ DE ALBA MEDRANO</v>
       </c>
       <c r="D49" t="str">
-        <v>9999490494</v>
+        <v>9992005550</v>
       </c>
       <c r="E49" t="str">
         <v>ESCOPETA</v>
@@ -2261,16 +2261,16 @@
         <v>12 GA</v>
       </c>
       <c r="G49" t="str">
-        <v>REMINGTON</v>
+        <v>P. BERETTA</v>
       </c>
       <c r="H49" t="str">
-        <v>1100</v>
+        <v>682 GOLD E.</v>
       </c>
       <c r="I49" t="str">
-        <v>H623354L</v>
+        <v>U 17049 B</v>
       </c>
       <c r="J49" t="str">
-        <v>A 3286350</v>
+        <v>A 3777708</v>
       </c>
       <c r="K49" t="str">
         <v>tiro</v>
@@ -2281,37 +2281,37 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B50" t="str">
-        <v>agm@galletasdonde.com</v>
+        <v>smunozam@gmail.com</v>
       </c>
       <c r="C50" t="str">
-        <v>ALEJANDRO GOMORY MARTINEZ</v>
+        <v>SERGIO MUÑOZ DE ALBA MEDRANO</v>
       </c>
       <c r="D50" t="str">
-        <v>9999490494</v>
+        <v>9992005550</v>
       </c>
       <c r="E50" t="str">
         <v>RIFLE</v>
       </c>
       <c r="F50" t="str">
-        <v>0.22" L.R.</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G50" t="str">
-        <v>G.S.G.</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H50" t="str">
-        <v>GSG-5</v>
+        <v>CZ452-2E ZKM</v>
       </c>
       <c r="I50" t="str">
-        <v>B027958</v>
+        <v>A800214</v>
       </c>
       <c r="J50" t="str">
-        <v>F 238934</v>
+        <v>A 3777704</v>
       </c>
       <c r="K50" t="str">
-        <v>tiro</v>
+        <v>caza</v>
       </c>
       <c r="L50" t="str">
         <v>REGISTRADA</v>
@@ -2331,22 +2331,22 @@
         <v>9999490494</v>
       </c>
       <c r="E51" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F51" t="str">
-        <v>0.380"</v>
+        <v>12 GA</v>
       </c>
       <c r="G51" t="str">
-        <v>GLOCK</v>
+        <v>REMINGTON</v>
       </c>
       <c r="H51" t="str">
-        <v>25</v>
+        <v>1100</v>
       </c>
       <c r="I51" t="str">
-        <v>BAMD615</v>
+        <v>H623354L</v>
       </c>
       <c r="J51" t="str">
-        <v>F 238933</v>
+        <v>A 3286350</v>
       </c>
       <c r="K51" t="str">
         <v>tiro</v>
@@ -2372,19 +2372,19 @@
         <v>RIFLE</v>
       </c>
       <c r="F52" t="str">
-        <v>0.308" WIN</v>
+        <v>0.22" L.R.</v>
       </c>
       <c r="G52" t="str">
-        <v>SAKO</v>
+        <v>G.S.G.</v>
       </c>
       <c r="H52" t="str">
-        <v>T3</v>
+        <v>GSG-5</v>
       </c>
       <c r="I52" t="str">
-        <v>D05200</v>
+        <v>B027958</v>
       </c>
       <c r="J52" t="str">
-        <v>F 240556</v>
+        <v>F 238934</v>
       </c>
       <c r="K52" t="str">
         <v>tiro</v>
@@ -2407,22 +2407,22 @@
         <v>9999490494</v>
       </c>
       <c r="E53" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F53" t="str">
-        <v>0.223" REM.</v>
+        <v>0.380"</v>
       </c>
       <c r="G53" t="str">
-        <v>BENELLI</v>
+        <v>GLOCK</v>
       </c>
       <c r="H53" t="str">
-        <v>MR1</v>
+        <v>25</v>
       </c>
       <c r="I53" t="str">
-        <v>BC008732G</v>
+        <v>BAMD615</v>
       </c>
       <c r="J53" t="str">
-        <v>F 244773</v>
+        <v>F 238933</v>
       </c>
       <c r="K53" t="str">
         <v>tiro</v>
@@ -2445,22 +2445,22 @@
         <v>9999490494</v>
       </c>
       <c r="E54" t="str">
-        <v>REVOLVER</v>
+        <v>RIFLE</v>
       </c>
       <c r="F54" t="str">
-        <v>0.22" L.R.</v>
+        <v>0.308" WIN</v>
       </c>
       <c r="G54" t="str">
-        <v>COLT</v>
+        <v>SAKO</v>
       </c>
       <c r="H54" t="str">
-        <v>SIN</v>
+        <v>T3</v>
       </c>
       <c r="I54" t="str">
-        <v>92689F</v>
+        <v>D05200</v>
       </c>
       <c r="J54" t="str">
-        <v>A 3419303</v>
+        <v>F 240556</v>
       </c>
       <c r="K54" t="str">
         <v>tiro</v>
@@ -2471,34 +2471,34 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B55" t="str">
-        <v>javier_ruzperaza@hotmail.com</v>
+        <v>agm@galletasdonde.com</v>
       </c>
       <c r="C55" t="str">
-        <v>JAVIER RUZ PERAZA</v>
+        <v>ALEJANDRO GOMORY MARTINEZ</v>
       </c>
       <c r="D55" t="str">
-        <v>9992429052</v>
+        <v>9999490494</v>
       </c>
       <c r="E55" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F55" t="str">
-        <v>.380" AUTO</v>
+        <v>0.223" REM.</v>
       </c>
       <c r="G55" t="str">
-        <v>GLOCK</v>
+        <v>BENELLI</v>
       </c>
       <c r="H55" t="str">
-        <v>25</v>
+        <v>MR1</v>
       </c>
       <c r="I55" t="str">
-        <v>BSUM873</v>
+        <v>BC008732G</v>
       </c>
       <c r="J55" t="str">
-        <v>A 3725149</v>
+        <v>F 244773</v>
       </c>
       <c r="K55" t="str">
         <v>tiro</v>
@@ -2509,34 +2509,34 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B56" t="str">
-        <v>javier_ruzperaza@hotmail.com</v>
+        <v>agm@galletasdonde.com</v>
       </c>
       <c r="C56" t="str">
-        <v>JAVIER RUZ PERAZA</v>
+        <v>ALEJANDRO GOMORY MARTINEZ</v>
       </c>
       <c r="D56" t="str">
-        <v>9992429052</v>
+        <v>9999490494</v>
       </c>
       <c r="E56" t="str">
-        <v>PISTOLA</v>
+        <v>REVOLVER</v>
       </c>
       <c r="F56" t="str">
-        <v>380 AUTO</v>
+        <v>0.22" L.R.</v>
       </c>
       <c r="G56" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>COLT</v>
       </c>
       <c r="H56" t="str">
-        <v>CZ P-10 C</v>
+        <v>SIN</v>
       </c>
       <c r="I56" t="str">
-        <v>CP18165</v>
+        <v>92689F</v>
       </c>
       <c r="J56" t="str">
-        <v>A 3725147</v>
+        <v>A 3419303</v>
       </c>
       <c r="K56" t="str">
         <v>tiro</v>
@@ -2559,22 +2559,22 @@
         <v>9992429052</v>
       </c>
       <c r="E57" t="str">
-        <v>ESCOPETA</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F57" t="str">
-        <v>12 GA</v>
+        <v>.380" AUTO</v>
       </c>
       <c r="G57" t="str">
-        <v>MOSSBERG</v>
+        <v>GLOCK</v>
       </c>
       <c r="H57" t="str">
-        <v>590</v>
+        <v>25</v>
       </c>
       <c r="I57" t="str">
-        <v>L244003</v>
+        <v>BSUM873</v>
       </c>
       <c r="J57" t="str">
-        <v>A 3681396</v>
+        <v>A 3725149</v>
       </c>
       <c r="K57" t="str">
         <v>tiro</v>
@@ -2597,22 +2597,22 @@
         <v>9992429052</v>
       </c>
       <c r="E58" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F58" t="str">
-        <v>0.223"</v>
+        <v>380 AUTO</v>
       </c>
       <c r="G58" t="str">
-        <v>ARIZONA ARMORY PHOENIX AZ</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H58" t="str">
-        <v>M4</v>
+        <v>CZ P-10 C</v>
       </c>
       <c r="I58" t="str">
-        <v>20005</v>
+        <v>CP18165</v>
       </c>
       <c r="J58" t="str">
-        <v>А 3500979</v>
+        <v>A 3725147</v>
       </c>
       <c r="K58" t="str">
         <v>tiro</v>
@@ -2638,19 +2638,19 @@
         <v>ESCOPETA</v>
       </c>
       <c r="F59" t="str">
-        <v>12</v>
+        <v>12 GA</v>
       </c>
       <c r="G59" t="str">
-        <v>BERETTA</v>
+        <v>MOSSBERG</v>
       </c>
       <c r="H59" t="str">
-        <v>SV10 PREVAIL III</v>
+        <v>590</v>
       </c>
       <c r="I59" t="str">
-        <v>N50960S</v>
+        <v>L244003</v>
       </c>
       <c r="J59" t="str">
-        <v>B 570641</v>
+        <v>A 3681396</v>
       </c>
       <c r="K59" t="str">
         <v>tiro</v>
@@ -2673,22 +2673,22 @@
         <v>9992429052</v>
       </c>
       <c r="E60" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F60" t="str">
-        <v>12 GA</v>
+        <v>0.223"</v>
       </c>
       <c r="G60" t="str">
-        <v>ATA ARMS</v>
+        <v>ARIZONA ARMORY PHOENIX AZ</v>
       </c>
       <c r="H60" t="str">
-        <v>CY</v>
+        <v>M4</v>
       </c>
       <c r="I60" t="str">
-        <v>17/D02120</v>
+        <v>20005</v>
       </c>
       <c r="J60" t="str">
-        <v>F 272014</v>
+        <v>А 3500979</v>
       </c>
       <c r="K60" t="str">
         <v>tiro</v>
@@ -2711,22 +2711,22 @@
         <v>9992429052</v>
       </c>
       <c r="E61" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F61" t="str">
-        <v>.22" L.R.</v>
+        <v>12</v>
       </c>
       <c r="G61" t="str">
-        <v>KRISS</v>
+        <v>BERETTA</v>
       </c>
       <c r="H61" t="str">
-        <v>DMK22C</v>
+        <v>SV10 PREVAIL III</v>
       </c>
       <c r="I61" t="str">
-        <v>22C002596</v>
+        <v>N50960S</v>
       </c>
       <c r="J61" t="str">
-        <v>B614374</v>
+        <v>B 570641</v>
       </c>
       <c r="K61" t="str">
         <v>tiro</v>
@@ -2749,22 +2749,22 @@
         <v>9992429052</v>
       </c>
       <c r="E62" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F62" t="str">
-        <v>.22" L.R.</v>
+        <v>12 GA</v>
       </c>
       <c r="G62" t="str">
-        <v>RUGER</v>
+        <v>ATA ARMS</v>
       </c>
       <c r="H62" t="str">
-        <v>10/22..</v>
+        <v>CY</v>
       </c>
       <c r="I62" t="str">
-        <v>0014-07080</v>
+        <v>17/D02120</v>
       </c>
       <c r="J62" t="str">
-        <v>A 3725143</v>
+        <v>F 272014</v>
       </c>
       <c r="K62" t="str">
         <v>tiro</v>
@@ -2790,19 +2790,19 @@
         <v>RIFLE</v>
       </c>
       <c r="F63" t="str">
-        <v>0.223" REM</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G63" t="str">
-        <v>BENELLI</v>
+        <v>KRISS</v>
       </c>
       <c r="H63" t="str">
-        <v>MR1</v>
+        <v>DMK22C</v>
       </c>
       <c r="I63" t="str">
-        <v>BC008015W</v>
+        <v>22C002596</v>
       </c>
       <c r="J63" t="str">
-        <v>A 3419134</v>
+        <v>B614374</v>
       </c>
       <c r="K63" t="str">
         <v>tiro</v>
@@ -2813,34 +2813,34 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B64" t="str">
-        <v>hanstb@gmail.com</v>
+        <v>javier_ruzperaza@hotmail.com</v>
       </c>
       <c r="C64" t="str">
-        <v>HANS JURGEN THIES BARBACHANO</v>
+        <v>JAVIER RUZ PERAZA</v>
       </c>
       <c r="D64" t="str">
-        <v>9999415052</v>
+        <v>9992429052</v>
       </c>
       <c r="E64" t="str">
         <v>RIFLE</v>
       </c>
       <c r="F64" t="str">
-        <v>0.308" WIN</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G64" t="str">
-        <v>TIKKA</v>
+        <v>RUGER</v>
       </c>
       <c r="H64" t="str">
-        <v>T3</v>
+        <v>10/22..</v>
       </c>
       <c r="I64" t="str">
-        <v>753959</v>
+        <v>0014-07080</v>
       </c>
       <c r="J64" t="str">
-        <v>F 241775</v>
+        <v>A 3725143</v>
       </c>
       <c r="K64" t="str">
         <v>tiro</v>
@@ -2851,34 +2851,34 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B65" t="str">
-        <v>hanstb@gmail.com</v>
+        <v>javier_ruzperaza@hotmail.com</v>
       </c>
       <c r="C65" t="str">
-        <v>HANS JURGEN THIES BARBACHANO</v>
+        <v>JAVIER RUZ PERAZA</v>
       </c>
       <c r="D65" t="str">
-        <v>9999415052</v>
+        <v>9992429052</v>
       </c>
       <c r="E65" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F65" t="str">
-        <v>12 GA</v>
+        <v>0.223" REM</v>
       </c>
       <c r="G65" t="str">
-        <v>LANBER</v>
+        <v>BENELLI</v>
       </c>
       <c r="H65" t="str">
-        <v>SIN</v>
+        <v>MR1</v>
       </c>
       <c r="I65" t="str">
-        <v>13-03-00115-06-12-70</v>
+        <v>BC008015W</v>
       </c>
       <c r="J65" t="str">
-        <v>F 241757</v>
+        <v>A 3419134</v>
       </c>
       <c r="K65" t="str">
         <v>tiro</v>
@@ -2901,22 +2901,22 @@
         <v>9999415052</v>
       </c>
       <c r="E66" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F66" t="str">
-        <v>20 GA</v>
+        <v>0.308" WIN</v>
       </c>
       <c r="G66" t="str">
-        <v>BROWNING</v>
+        <v>TIKKA</v>
       </c>
       <c r="H66" t="str">
-        <v>WHITE LIGHTNING</v>
+        <v>T3</v>
       </c>
       <c r="I66" t="str">
-        <v>29868ZX</v>
+        <v>753959</v>
       </c>
       <c r="J66" t="str">
-        <v>F 243127</v>
+        <v>F 241775</v>
       </c>
       <c r="K66" t="str">
         <v>tiro</v>
@@ -2939,22 +2939,22 @@
         <v>9999415052</v>
       </c>
       <c r="E67" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F67" t="str">
-        <v>0.380"</v>
+        <v>12 GA</v>
       </c>
       <c r="G67" t="str">
-        <v>GLOCK</v>
+        <v>LANBER</v>
       </c>
       <c r="H67" t="str">
-        <v>25</v>
+        <v>SIN</v>
       </c>
       <c r="I67" t="str">
-        <v>BAME291</v>
+        <v>13-03-00115-06-12-70</v>
       </c>
       <c r="J67" t="str">
-        <v>F 241756</v>
+        <v>F 241757</v>
       </c>
       <c r="K67" t="str">
         <v>tiro</v>
@@ -2977,22 +2977,22 @@
         <v>9999415052</v>
       </c>
       <c r="E68" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F68" t="str">
-        <v>0.223" REM.</v>
+        <v>20 GA</v>
       </c>
       <c r="G68" t="str">
-        <v>BENELLI</v>
+        <v>BROWNING</v>
       </c>
       <c r="H68" t="str">
-        <v>MR1</v>
+        <v>WHITE LIGHTNING</v>
       </c>
       <c r="I68" t="str">
-        <v>BC008834N (MATRÍCULA DEL CAÑÓN CC008834N)</v>
+        <v>29868ZX</v>
       </c>
       <c r="J68" t="str">
-        <v>F 243125</v>
+        <v>F 243127</v>
       </c>
       <c r="K68" t="str">
         <v>tiro</v>
@@ -3015,22 +3015,22 @@
         <v>9999415052</v>
       </c>
       <c r="E69" t="str">
-        <v>ESCOPETA</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F69" t="str">
-        <v>12 GA</v>
+        <v>0.380"</v>
       </c>
       <c r="G69" t="str">
-        <v>BERETTA</v>
+        <v>GLOCK</v>
       </c>
       <c r="H69" t="str">
-        <v>LITE</v>
+        <v>25</v>
       </c>
       <c r="I69" t="str">
-        <v>XA153102</v>
+        <v>BAME291</v>
       </c>
       <c r="J69" t="str">
-        <v>F 243126</v>
+        <v>F 241756</v>
       </c>
       <c r="K69" t="str">
         <v>tiro</v>
@@ -3041,72 +3041,72 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B70" t="str">
-        <v>david_xolz@hotmail.com</v>
+        <v>hanstb@gmail.com</v>
       </c>
       <c r="C70" t="str">
-        <v>DAVID HOMERO SCHOLZ MORENO</v>
+        <v>HANS JURGEN THIES BARBACHANO</v>
       </c>
       <c r="D70" t="str">
-        <v>9999494819</v>
+        <v>9999415052</v>
       </c>
       <c r="E70" t="str">
+        <v>RIFLE</v>
+      </c>
+      <c r="F70" t="str">
+        <v>0.223" REM.</v>
+      </c>
+      <c r="G70" t="str">
+        <v>BENELLI</v>
+      </c>
+      <c r="H70" t="str">
+        <v>MR1</v>
+      </c>
+      <c r="I70" t="str">
+        <v>BC008834N (MATRÍCULA DEL CAÑÓN CC008834N)</v>
+      </c>
+      <c r="J70" t="str">
+        <v>F 243125</v>
+      </c>
+      <c r="K70" t="str">
+        <v>tiro</v>
+      </c>
+      <c r="L70" t="str">
+        <v>REGISTRADA</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>149</v>
+      </c>
+      <c r="B71" t="str">
+        <v>hanstb@gmail.com</v>
+      </c>
+      <c r="C71" t="str">
+        <v>HANS JURGEN THIES BARBACHANO</v>
+      </c>
+      <c r="D71" t="str">
+        <v>9999415052</v>
+      </c>
+      <c r="E71" t="str">
         <v>ESCOPETA</v>
       </c>
-      <c r="F70" t="str">
-        <v>12</v>
-      </c>
-      <c r="G70" t="str">
-        <v>REMINGTON</v>
-      </c>
-      <c r="H70" t="str">
-        <v>870</v>
-      </c>
-      <c r="I70" t="str">
-        <v>RS07304E</v>
-      </c>
-      <c r="J70" t="str">
-        <v>B 469604</v>
-      </c>
-      <c r="K70" t="str">
-        <v>tiro</v>
-      </c>
-      <c r="L70" t="str">
-        <v>REGISTRADA</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>153</v>
-      </c>
-      <c r="B71" t="str">
-        <v>josegilbertohernandezcarrillo@gmail.com</v>
-      </c>
-      <c r="C71" t="str">
-        <v>JOSE GILBERTO HERNANDEZ CARRILLO</v>
-      </c>
-      <c r="D71" t="str">
-        <v>'9992389961</v>
-      </c>
-      <c r="E71" t="str">
-        <v>PISTOLA</v>
-      </c>
       <c r="F71" t="str">
-        <v>0.380"</v>
+        <v>12 GA</v>
       </c>
       <c r="G71" t="str">
-        <v>TANFOGLIO</v>
+        <v>BERETTA</v>
       </c>
       <c r="H71" t="str">
-        <v>FT 9 FS</v>
+        <v>LITE</v>
       </c>
       <c r="I71" t="str">
-        <v>AA21499</v>
+        <v>XA153102</v>
       </c>
       <c r="J71" t="str">
-        <v>A 3287024</v>
+        <v>F 243126</v>
       </c>
       <c r="K71" t="str">
         <v>tiro</v>
@@ -3117,34 +3117,34 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B72" t="str">
-        <v>galvani@hotmail.com</v>
+        <v>david_xolz@hotmail.com</v>
       </c>
       <c r="C72" t="str">
-        <v>EZEQUIEL GALVAN VAZQUEZ</v>
+        <v>DAVID HOMERO SCHOLZ MORENO</v>
       </c>
       <c r="D72" t="str">
-        <v>9991335899</v>
+        <v>9999494819</v>
       </c>
       <c r="E72" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F72" t="str">
-        <v>.380 ACP</v>
+        <v>12</v>
       </c>
       <c r="G72" t="str">
-        <v>TANFOGLIO</v>
+        <v>REMINGTON</v>
       </c>
       <c r="H72" t="str">
-        <v>FT9FS SPORT</v>
+        <v>870</v>
       </c>
       <c r="I72" t="str">
-        <v>AA23257</v>
+        <v>RS07304E</v>
       </c>
       <c r="J72" t="str">
-        <v>F 263617</v>
+        <v>B 469604</v>
       </c>
       <c r="K72" t="str">
         <v>tiro</v>
@@ -3154,35 +3154,35 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73">
-        <v>161</v>
+      <c r="A73" t="str">
+        <v>153</v>
       </c>
       <c r="B73" t="str">
-        <v>agus_tin1_@hotmail.com</v>
+        <v>josegilbertohernandezcarrillo@gmail.com</v>
       </c>
       <c r="C73" t="str">
-        <v>AGUSTIN MORENO VILLALOBOS</v>
-      </c>
-      <c r="D73">
-        <v>9992780476</v>
+        <v>JOSE GILBERTO HERNANDEZ CARRILLO</v>
+      </c>
+      <c r="D73" t="str">
+        <v>'9992389961</v>
       </c>
       <c r="E73" t="str">
         <v>PISTOLA</v>
       </c>
       <c r="F73" t="str">
-        <v>0.380" AUTO</v>
+        <v>0.380"</v>
       </c>
       <c r="G73" t="str">
-        <v>GLOCK</v>
-      </c>
-      <c r="H73">
-        <v>25</v>
+        <v>TANFOGLIO</v>
+      </c>
+      <c r="H73" t="str">
+        <v>FT 9 FS</v>
       </c>
       <c r="I73" t="str">
-        <v>BFVY996</v>
+        <v>AA21499</v>
       </c>
       <c r="J73" t="str">
-        <v>F 281590</v>
+        <v>A 3287024</v>
       </c>
       <c r="K73" t="str">
         <v>tiro</v>
@@ -3193,37 +3193,37 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B74" t="str">
-        <v>agus_tin1_@hotmail.com</v>
+        <v>galvani@hotmail.com</v>
       </c>
       <c r="C74" t="str">
-        <v>AGUSTIN MORENO VILLALOBOS</v>
-      </c>
-      <c r="D74">
-        <v>9992780476</v>
+        <v>EZEQUIEL GALVAN VAZQUEZ</v>
+      </c>
+      <c r="D74" t="str">
+        <v>9991335899</v>
       </c>
       <c r="E74" t="str">
-        <v>ESCOPETA</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F74" t="str">
-        <v>12 ga</v>
+        <v>.380 ACP</v>
       </c>
       <c r="G74" t="str">
-        <v>FABARM</v>
+        <v>TANFOGLIO</v>
       </c>
       <c r="H74" t="str">
-        <v>ELOS</v>
+        <v>FT9FS SPORT</v>
       </c>
       <c r="I74" t="str">
-        <v>E30257</v>
+        <v>AA23257</v>
       </c>
       <c r="J74" t="str">
-        <v>F 281588</v>
+        <v>F 263617</v>
       </c>
       <c r="K74" t="str">
-        <v>ambas</v>
+        <v>tiro</v>
       </c>
       <c r="L74" t="str">
         <v>REGISTRADA</v>
@@ -3243,25 +3243,25 @@
         <v>9992780476</v>
       </c>
       <c r="E75" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F75" t="str">
-        <v>0.223" REM</v>
+        <v>0.380" AUTO</v>
       </c>
       <c r="G75" t="str">
-        <v>SAKO</v>
-      </c>
-      <c r="H75" t="str">
-        <v>85 XS</v>
+        <v>GLOCK</v>
+      </c>
+      <c r="H75">
+        <v>25</v>
       </c>
       <c r="I75" t="str">
-        <v>L99245</v>
+        <v>BFVY996</v>
       </c>
       <c r="J75" t="str">
-        <v>F 281589</v>
+        <v>F 281590</v>
       </c>
       <c r="K75" t="str">
-        <v>caza</v>
+        <v>tiro</v>
       </c>
       <c r="L75" t="str">
         <v>REGISTRADA</v>
@@ -3284,19 +3284,19 @@
         <v>ESCOPETA</v>
       </c>
       <c r="F76" t="str">
-        <v>12 GA</v>
+        <v>12 ga</v>
       </c>
       <c r="G76" t="str">
-        <v>REMINGTON</v>
-      </c>
-      <c r="H76">
-        <v>1100</v>
+        <v>FABARM</v>
+      </c>
+      <c r="H76" t="str">
+        <v>ELOS</v>
       </c>
       <c r="I76" t="str">
-        <v>M916699V</v>
+        <v>E30257</v>
       </c>
       <c r="J76" t="str">
-        <v>A 3378247</v>
+        <v>F 281588</v>
       </c>
       <c r="K76" t="str">
         <v>ambas</v>
@@ -3307,37 +3307,37 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B77" t="str">
-        <v>rafael-rivas-p@hotmail.com</v>
+        <v>agus_tin1_@hotmail.com</v>
       </c>
       <c r="C77" t="str">
-        <v>RAFAEL RIVAS POLANCO</v>
-      </c>
-      <c r="D77" t="str">
-        <v>9999477501</v>
+        <v>AGUSTIN MORENO VILLALOBOS</v>
+      </c>
+      <c r="D77">
+        <v>9992780476</v>
       </c>
       <c r="E77" t="str">
         <v>RIFLE</v>
       </c>
       <c r="F77" t="str">
-        <v>.223" REM</v>
+        <v>0.223" REM</v>
       </c>
       <c r="G77" t="str">
-        <v>BENELLI</v>
+        <v>SAKO</v>
       </c>
       <c r="H77" t="str">
-        <v>MR1</v>
+        <v>85 XS</v>
       </c>
       <c r="I77" t="str">
-        <v>BC008951L</v>
+        <v>L99245</v>
       </c>
       <c r="J77" t="str">
-        <v>B 519591</v>
+        <v>F 281589</v>
       </c>
       <c r="K77" t="str">
-        <v>tiro</v>
+        <v>caza</v>
       </c>
       <c r="L77" t="str">
         <v>REGISTRADA</v>
@@ -3345,37 +3345,37 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B78" t="str">
-        <v>rafael-rivas-p@hotmail.com</v>
+        <v>agus_tin1_@hotmail.com</v>
       </c>
       <c r="C78" t="str">
-        <v>RAFAEL RIVAS POLANCO</v>
-      </c>
-      <c r="D78" t="str">
-        <v>9999477501</v>
+        <v>AGUSTIN MORENO VILLALOBOS</v>
+      </c>
+      <c r="D78">
+        <v>9992780476</v>
       </c>
       <c r="E78" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F78" t="str">
-        <v>0.22" L.R.</v>
+        <v>12 GA</v>
       </c>
       <c r="G78" t="str">
-        <v>COLT</v>
-      </c>
-      <c r="H78" t="str">
-        <v>M4</v>
+        <v>REMINGTON</v>
+      </c>
+      <c r="H78">
+        <v>1100</v>
       </c>
       <c r="I78" t="str">
-        <v>BP052013</v>
+        <v>M916699V</v>
       </c>
       <c r="J78" t="str">
-        <v>B 519592</v>
+        <v>A 3378247</v>
       </c>
       <c r="K78" t="str">
-        <v>tiro</v>
+        <v>ambas</v>
       </c>
       <c r="L78" t="str">
         <v>REGISTRADA</v>
@@ -3395,22 +3395,22 @@
         <v>9999477501</v>
       </c>
       <c r="E79" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F79" t="str">
-        <v>.380" AUTO</v>
+        <v>.223" REM</v>
       </c>
       <c r="G79" t="str">
-        <v>GLOCK</v>
+        <v>BENELLI</v>
       </c>
       <c r="H79" t="str">
-        <v>42</v>
+        <v>MR1</v>
       </c>
       <c r="I79" t="str">
-        <v>BAYP076</v>
+        <v>BC008951L</v>
       </c>
       <c r="J79" t="str">
-        <v>B 532869</v>
+        <v>B 519591</v>
       </c>
       <c r="K79" t="str">
         <v>tiro</v>
@@ -3433,22 +3433,22 @@
         <v>9999477501</v>
       </c>
       <c r="E80" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F80" t="str">
-        <v>0.380"</v>
+        <v>0.22" L.R.</v>
       </c>
       <c r="G80" t="str">
-        <v>SIG-SAUER</v>
+        <v>COLT</v>
       </c>
       <c r="H80" t="str">
-        <v>P250</v>
+        <v>M4</v>
       </c>
       <c r="I80" t="str">
-        <v>57C011822</v>
+        <v>BP052013</v>
       </c>
       <c r="J80" t="str">
-        <v>A 3421901</v>
+        <v>B 519592</v>
       </c>
       <c r="K80" t="str">
         <v>tiro</v>
@@ -3459,34 +3459,34 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B81" t="str">
-        <v>alejandrapintado@yahoo.com.mx</v>
+        <v>rafael-rivas-p@hotmail.com</v>
       </c>
       <c r="C81" t="str">
-        <v>ALEJANDRA GEORGINA PINTADO VILLAFAÑA</v>
+        <v>RAFAEL RIVAS POLANCO</v>
       </c>
       <c r="D81" t="str">
-        <v>9999479199</v>
+        <v>9999477501</v>
       </c>
       <c r="E81" t="str">
         <v>PISTOLA</v>
       </c>
       <c r="F81" t="str">
-        <v>0.380"</v>
+        <v>.380" AUTO</v>
       </c>
       <c r="G81" t="str">
-        <v>SIG-SAUER</v>
+        <v>GLOCK</v>
       </c>
       <c r="H81" t="str">
-        <v>P250</v>
+        <v>42</v>
       </c>
       <c r="I81" t="str">
-        <v>57C011945</v>
+        <v>BAYP076</v>
       </c>
       <c r="J81" t="str">
-        <v>A 3421902</v>
+        <v>B 532869</v>
       </c>
       <c r="K81" t="str">
         <v>tiro</v>
@@ -3497,34 +3497,34 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B82" t="str">
-        <v>tonysantacruz@hotmail.com</v>
+        <v>rafael-rivas-p@hotmail.com</v>
       </c>
       <c r="C82" t="str">
-        <v>ANTONIO RAMÓN SANTA CRUZ POLANCO CABRALES</v>
+        <v>RAFAEL RIVAS POLANCO</v>
       </c>
       <c r="D82" t="str">
-        <v>9992243874</v>
+        <v>9999477501</v>
       </c>
       <c r="E82" t="str">
-        <v>ESCOPETA</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F82" t="str">
-        <v>16 GA</v>
+        <v>0.380"</v>
       </c>
       <c r="G82" t="str">
-        <v>WINCHESTER</v>
+        <v>SIG-SAUER</v>
       </c>
       <c r="H82" t="str">
-        <v>12</v>
+        <v>P250</v>
       </c>
       <c r="I82" t="str">
-        <v>458878</v>
+        <v>57C011822</v>
       </c>
       <c r="J82" t="str">
-        <v>A 3607663</v>
+        <v>A 3421901</v>
       </c>
       <c r="K82" t="str">
         <v>tiro</v>
@@ -3535,34 +3535,34 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B83" t="str">
-        <v>marcotonyjr@hotmail.com</v>
+        <v>alejandrapintado@yahoo.com.mx</v>
       </c>
       <c r="C83" t="str">
-        <v>MARCO ANTONIO SANTA CRUZ POLANCO CORDOVA</v>
+        <v>ALEJANDRA GEORGINA PINTADO VILLAFAÑA</v>
       </c>
       <c r="D83" t="str">
-        <v>9992978103</v>
+        <v>9999479199</v>
       </c>
       <c r="E83" t="str">
         <v>PISTOLA</v>
       </c>
       <c r="F83" t="str">
-        <v>.380"</v>
+        <v>0.380"</v>
       </c>
       <c r="G83" t="str">
-        <v>TANFOGLIO</v>
+        <v>SIG-SAUER</v>
       </c>
       <c r="H83" t="str">
-        <v>GT 380</v>
+        <v>P250</v>
       </c>
       <c r="I83" t="str">
-        <v>127112</v>
+        <v>57C011945</v>
       </c>
       <c r="J83" t="str">
-        <v>B 532022</v>
+        <v>A 3421902</v>
       </c>
       <c r="K83" t="str">
         <v>tiro</v>
@@ -3573,34 +3573,34 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B84" t="str">
-        <v>chafi70@hotmail.com</v>
+        <v>tonysantacruz@hotmail.com</v>
       </c>
       <c r="C84" t="str">
-        <v>CHAFI XACUR RIVERA</v>
+        <v>ANTONIO RAMÓN SANTA CRUZ POLANCO CABRALES</v>
       </c>
       <c r="D84" t="str">
-        <v>9999477957</v>
+        <v>9992243874</v>
       </c>
       <c r="E84" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F84" t="str">
-        <v>.380" ACP</v>
+        <v>16 GA</v>
       </c>
       <c r="G84" t="str">
-        <v>GLOCK</v>
+        <v>WINCHESTER</v>
       </c>
       <c r="H84" t="str">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I84" t="str">
-        <v>BAYL030</v>
+        <v>458878</v>
       </c>
       <c r="J84" t="str">
-        <v>F 257308</v>
+        <v>A 3607663</v>
       </c>
       <c r="K84" t="str">
         <v>tiro</v>
@@ -3611,34 +3611,34 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B85" t="str">
-        <v>jcmaneo@hotmail.com</v>
+        <v>marcotonyjr@hotmail.com</v>
       </c>
       <c r="C85" t="str">
-        <v>JUAN CARLOS MAÑE ORTIZ</v>
+        <v>MARCO ANTONIO SANTA CRUZ POLANCO CORDOVA</v>
       </c>
       <c r="D85" t="str">
-        <v>9991229424</v>
+        <v>9992978103</v>
       </c>
       <c r="E85" t="str">
         <v>PISTOLA</v>
       </c>
       <c r="F85" t="str">
-        <v>0.22" L.R.</v>
+        <v>.380"</v>
       </c>
       <c r="G85" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>TANFOGLIO</v>
       </c>
       <c r="H85" t="str">
-        <v>CZ P-09</v>
+        <v>GT 380</v>
       </c>
       <c r="I85" t="str">
-        <v>AD02968</v>
+        <v>127112</v>
       </c>
       <c r="J85" t="str">
-        <v>B570891</v>
+        <v>B 532022</v>
       </c>
       <c r="K85" t="str">
         <v>tiro</v>
@@ -3649,22 +3649,22 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B86" t="str">
-        <v>jcmaneo@hotmail.com</v>
+        <v>chafi70@hotmail.com</v>
       </c>
       <c r="C86" t="str">
-        <v>JUAN CARLOS MAÑE ORTIZ</v>
+        <v>CHAFI XACUR RIVERA</v>
       </c>
       <c r="D86" t="str">
-        <v>9991229424</v>
+        <v>9999477957</v>
       </c>
       <c r="E86" t="str">
         <v>PISTOLA</v>
       </c>
       <c r="F86" t="str">
-        <v>.380"</v>
+        <v>.380" ACP</v>
       </c>
       <c r="G86" t="str">
         <v>GLOCK</v>
@@ -3673,10 +3673,10 @@
         <v>25</v>
       </c>
       <c r="I86" t="str">
-        <v>YAB319</v>
+        <v>BAYL030</v>
       </c>
       <c r="J86" t="str">
-        <v>A 3606624</v>
+        <v>F 257308</v>
       </c>
       <c r="K86" t="str">
         <v>tiro</v>
@@ -3702,19 +3702,19 @@
         <v>PISTOLA</v>
       </c>
       <c r="F87" t="str">
-        <v>.380"</v>
+        <v>0.22" L.R.</v>
       </c>
       <c r="G87" t="str">
-        <v>GLOCK</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H87" t="str">
-        <v>42</v>
+        <v>CZ P-09</v>
       </c>
       <c r="I87" t="str">
-        <v>BAMH608</v>
+        <v>AD02968</v>
       </c>
       <c r="J87" t="str">
-        <v>B 569404</v>
+        <v>B570891</v>
       </c>
       <c r="K87" t="str">
         <v>tiro</v>
@@ -3740,7 +3740,7 @@
         <v>PISTOLA</v>
       </c>
       <c r="F88" t="str">
-        <v>.380" AUTO</v>
+        <v>.380"</v>
       </c>
       <c r="G88" t="str">
         <v>GLOCK</v>
@@ -3749,10 +3749,10 @@
         <v>25</v>
       </c>
       <c r="I88" t="str">
-        <v>BFWB011</v>
+        <v>YAB319</v>
       </c>
       <c r="J88" t="str">
-        <v>A 3606621</v>
+        <v>A 3606624</v>
       </c>
       <c r="K88" t="str">
         <v>tiro</v>
@@ -3778,19 +3778,19 @@
         <v>PISTOLA</v>
       </c>
       <c r="F89" t="str">
-        <v>380 AUTO</v>
+        <v>.380"</v>
       </c>
       <c r="G89" t="str">
-        <v>DIAMONDBACK FIREARMS</v>
+        <v>GLOCK</v>
       </c>
       <c r="H89" t="str">
-        <v>DB380</v>
+        <v>42</v>
       </c>
       <c r="I89" t="str">
-        <v>ZL6575</v>
+        <v>BAMH608</v>
       </c>
       <c r="J89" t="str">
-        <v>A 3569256</v>
+        <v>B 569404</v>
       </c>
       <c r="K89" t="str">
         <v>tiro</v>
@@ -3816,7 +3816,7 @@
         <v>PISTOLA</v>
       </c>
       <c r="F90" t="str">
-        <v>0.380"</v>
+        <v>.380" AUTO</v>
       </c>
       <c r="G90" t="str">
         <v>GLOCK</v>
@@ -3825,10 +3825,10 @@
         <v>25</v>
       </c>
       <c r="I90" t="str">
-        <v>BAME106</v>
+        <v>BFWB011</v>
       </c>
       <c r="J90" t="str">
-        <v>F 240795</v>
+        <v>A 3606621</v>
       </c>
       <c r="K90" t="str">
         <v>tiro</v>
@@ -3851,22 +3851,22 @@
         <v>9991229424</v>
       </c>
       <c r="E91" t="str">
-        <v>ESCOPETA</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F91" t="str">
-        <v>12 ga</v>
+        <v>380 AUTO</v>
       </c>
       <c r="G91" t="str">
-        <v>ATA ARMS</v>
+        <v>DIAMONDBACK FIREARMS</v>
       </c>
       <c r="H91" t="str">
-        <v>CY</v>
+        <v>DB380</v>
       </c>
       <c r="I91" t="str">
-        <v>18/D01314</v>
+        <v>ZL6575</v>
       </c>
       <c r="J91" t="str">
-        <v>F 291368</v>
+        <v>A 3569256</v>
       </c>
       <c r="K91" t="str">
         <v>tiro</v>
@@ -3877,34 +3877,34 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B92" t="str">
-        <v>tinosanchezf@yahoo.com.mx</v>
+        <v>jcmaneo@hotmail.com</v>
       </c>
       <c r="C92" t="str">
-        <v>CELESTINO SÁNCHEZ FERNÁNDEZ</v>
+        <v>JUAN CARLOS MAÑE ORTIZ</v>
       </c>
       <c r="D92" t="str">
-        <v>9992403110</v>
+        <v>9991229424</v>
       </c>
       <c r="E92" t="str">
-        <v>ESCOPETA</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F92" t="str">
-        <v>12 GA</v>
+        <v>0.380"</v>
       </c>
       <c r="G92" t="str">
-        <v>WINCHESTER</v>
+        <v>GLOCK</v>
       </c>
       <c r="H92" t="str">
-        <v>1200</v>
+        <v>25</v>
       </c>
       <c r="I92" t="str">
-        <v>L1282444</v>
+        <v>BAME106</v>
       </c>
       <c r="J92" t="str">
-        <v>A 3609230</v>
+        <v>F 240795</v>
       </c>
       <c r="K92" t="str">
         <v>tiro</v>
@@ -3915,34 +3915,34 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B93" t="str">
-        <v>tinosanchezf@yahoo.com.mx</v>
+        <v>jcmaneo@hotmail.com</v>
       </c>
       <c r="C93" t="str">
-        <v>CELESTINO SÁNCHEZ FERNÁNDEZ</v>
+        <v>JUAN CARLOS MAÑE ORTIZ</v>
       </c>
       <c r="D93" t="str">
-        <v>9992403110</v>
+        <v>9991229424</v>
       </c>
       <c r="E93" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F93" t="str">
-        <v>.380" AUTO</v>
+        <v>12 ga</v>
       </c>
       <c r="G93" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>ATA ARMS</v>
       </c>
       <c r="H93" t="str">
-        <v>CZ P-07</v>
+        <v>CY</v>
       </c>
       <c r="I93" t="str">
-        <v>D207727</v>
+        <v>18/D01314</v>
       </c>
       <c r="J93" t="str">
-        <v>A3747924</v>
+        <v>F 291368</v>
       </c>
       <c r="K93" t="str">
         <v>tiro</v>
@@ -3965,22 +3965,22 @@
         <v>9992403110</v>
       </c>
       <c r="E94" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F94" t="str">
-        <v>.380" AUTO</v>
+        <v>12 GA</v>
       </c>
       <c r="G94" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>WINCHESTER</v>
       </c>
       <c r="H94" t="str">
-        <v>CZ P-10 C</v>
+        <v>1200</v>
       </c>
       <c r="I94" t="str">
-        <v>CP18665</v>
+        <v>L1282444</v>
       </c>
       <c r="J94" t="str">
-        <v>A3747922</v>
+        <v>A 3609230</v>
       </c>
       <c r="K94" t="str">
         <v>tiro</v>
@@ -4009,16 +4009,16 @@
         <v>.380" AUTO</v>
       </c>
       <c r="G95" t="str">
-        <v>SIG SAUER</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H95" t="str">
-        <v>P250</v>
+        <v>CZ P-07</v>
       </c>
       <c r="I95" t="str">
-        <v>57C048858</v>
+        <v>D207727</v>
       </c>
       <c r="J95" t="str">
-        <v>B596607</v>
+        <v>A3747924</v>
       </c>
       <c r="K95" t="str">
         <v>tiro</v>
@@ -4041,22 +4041,22 @@
         <v>9992403110</v>
       </c>
       <c r="E96" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F96" t="str">
-        <v>.22" L.R.</v>
+        <v>.380" AUTO</v>
       </c>
       <c r="G96" t="str">
-        <v>WINCHESTER</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H96" t="str">
-        <v>9422</v>
+        <v>CZ P-10 C</v>
       </c>
       <c r="I96" t="str">
-        <v>F11281</v>
+        <v>CP18665</v>
       </c>
       <c r="J96" t="str">
-        <v>A3917581</v>
+        <v>A3747922</v>
       </c>
       <c r="K96" t="str">
         <v>tiro</v>
@@ -4067,34 +4067,34 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B97" t="str">
-        <v>lalodenis23@hotmail.com</v>
+        <v>tinosanchezf@yahoo.com.mx</v>
       </c>
       <c r="C97" t="str">
-        <v>EDUARDO DENIS HERRERA</v>
+        <v>CELESTINO SÁNCHEZ FERNÁNDEZ</v>
       </c>
       <c r="D97" t="str">
-        <v>5520869685</v>
+        <v>9992403110</v>
       </c>
       <c r="E97" t="str">
-        <v>ESCOPETA</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F97" t="str">
-        <v>12 GA</v>
+        <v>.380" AUTO</v>
       </c>
       <c r="G97" t="str">
-        <v>MOSSBERG</v>
+        <v>SIG SAUER</v>
       </c>
       <c r="H97" t="str">
-        <v>590</v>
+        <v>P250</v>
       </c>
       <c r="I97" t="str">
-        <v>P685176</v>
+        <v>57C048858</v>
       </c>
       <c r="J97" t="str">
-        <v>B587695</v>
+        <v>B596607</v>
       </c>
       <c r="K97" t="str">
         <v>tiro</v>
@@ -4105,34 +4105,34 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B98" t="str">
-        <v>lalodenis23@hotmail.com</v>
+        <v>tinosanchezf@yahoo.com.mx</v>
       </c>
       <c r="C98" t="str">
-        <v>EDUARDO DENIS HERRERA</v>
+        <v>CELESTINO SÁNCHEZ FERNÁNDEZ</v>
       </c>
       <c r="D98" t="str">
-        <v>5520869685</v>
+        <v>9992403110</v>
       </c>
       <c r="E98" t="str">
         <v>RIFLE</v>
       </c>
       <c r="F98" t="str">
-        <v>22/223</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G98" t="str">
-        <v>DIAMONDBACK</v>
+        <v>WINCHESTER</v>
       </c>
       <c r="H98" t="str">
-        <v>DB-15</v>
+        <v>9422</v>
       </c>
       <c r="I98" t="str">
-        <v>DB2198860</v>
+        <v>F11281</v>
       </c>
       <c r="J98" t="str">
-        <v>A3808469</v>
+        <v>A3917581</v>
       </c>
       <c r="K98" t="str">
         <v>tiro</v>
@@ -4155,22 +4155,22 @@
         <v>5520869685</v>
       </c>
       <c r="E99" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F99" t="str">
-        <v>.380"</v>
+        <v>12 GA</v>
       </c>
       <c r="G99" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>MOSSBERG</v>
       </c>
       <c r="H99" t="str">
-        <v>CZ SHADOW 2</v>
+        <v>590</v>
       </c>
       <c r="I99" t="str">
-        <v>DP25088</v>
+        <v>P685176</v>
       </c>
       <c r="J99" t="str">
-        <v>A3782095</v>
+        <v>B587695</v>
       </c>
       <c r="K99" t="str">
         <v>tiro</v>
@@ -4193,22 +4193,22 @@
         <v>5520869685</v>
       </c>
       <c r="E100" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F100" t="str">
-        <v>.380" AUTO</v>
+        <v>22/223</v>
       </c>
       <c r="G100" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>DIAMONDBACK</v>
       </c>
       <c r="H100" t="str">
-        <v>CZ P-10</v>
+        <v>DB-15</v>
       </c>
       <c r="I100" t="str">
-        <v>AP06654</v>
+        <v>DB2198860</v>
       </c>
       <c r="J100" t="str">
-        <v>A3671000</v>
+        <v>A3808469</v>
       </c>
       <c r="K100" t="str">
         <v>tiro</v>
@@ -4234,19 +4234,19 @@
         <v>PISTOLA</v>
       </c>
       <c r="F101" t="str">
-        <v>.22" L.R.</v>
+        <v>.380"</v>
       </c>
       <c r="G101" t="str">
-        <v>SIG SAUER</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H101" t="str">
-        <v>P322</v>
+        <v>CZ SHADOW 2</v>
       </c>
       <c r="I101" t="str">
-        <v>73A056618</v>
+        <v>DP25088</v>
       </c>
       <c r="J101" t="str">
-        <v>A3807823</v>
+        <v>A3782095</v>
       </c>
       <c r="K101" t="str">
         <v>tiro</v>
@@ -4272,19 +4272,19 @@
         <v>PISTOLA</v>
       </c>
       <c r="F102" t="str">
-        <v>.22"</v>
+        <v>.380" AUTO</v>
       </c>
       <c r="G102" t="str">
-        <v>COLT</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H102" t="str">
-        <v>1911</v>
+        <v>CZ P-10</v>
       </c>
       <c r="I102" t="str">
-        <v>08996N70</v>
+        <v>AP06654</v>
       </c>
       <c r="J102" t="str">
-        <v>B570810</v>
+        <v>A3671000</v>
       </c>
       <c r="K102" t="str">
         <v>tiro</v>
@@ -4307,22 +4307,22 @@
         <v>5520869685</v>
       </c>
       <c r="E103" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F103" t="str">
         <v>.22" L.R.</v>
       </c>
       <c r="G103" t="str">
-        <v>MENDOZA</v>
+        <v>SIG SAUER</v>
       </c>
       <c r="H103" t="str">
-        <v>PUMA</v>
+        <v>P322</v>
       </c>
       <c r="I103" t="str">
-        <v>16050</v>
+        <v>73A056618</v>
       </c>
       <c r="J103" t="str">
-        <v>B 570391</v>
+        <v>A3807823</v>
       </c>
       <c r="K103" t="str">
         <v>tiro</v>
@@ -4348,19 +4348,19 @@
         <v>PISTOLA</v>
       </c>
       <c r="F104" t="str">
-        <v>380</v>
+        <v>.22"</v>
       </c>
       <c r="G104" t="str">
-        <v>GLOCK</v>
+        <v>COLT</v>
       </c>
       <c r="H104" t="str">
-        <v>34</v>
+        <v>1911</v>
       </c>
       <c r="I104" t="str">
-        <v>JW2964</v>
+        <v>08996N70</v>
       </c>
       <c r="J104" t="str">
-        <v>A3758555</v>
+        <v>B570810</v>
       </c>
       <c r="K104" t="str">
         <v>tiro</v>
@@ -4371,34 +4371,34 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B105" t="str">
-        <v>mayayuc3006@gmail.com</v>
+        <v>lalodenis23@hotmail.com</v>
       </c>
       <c r="C105" t="str">
-        <v>EDUARDO JOSE ARZAMENDI MONTEJO</v>
+        <v>EDUARDO DENIS HERRERA</v>
       </c>
       <c r="D105" t="str">
-        <v>9991276042</v>
+        <v>5520869685</v>
       </c>
       <c r="E105" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F105" t="str">
-        <v>12 GA</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G105" t="str">
-        <v>MOSSBERG</v>
+        <v>MENDOZA</v>
       </c>
       <c r="H105" t="str">
-        <v>500A</v>
+        <v>PUMA</v>
       </c>
       <c r="I105" t="str">
-        <v>J970360</v>
+        <v>16050</v>
       </c>
       <c r="J105" t="str">
-        <v>A 3644458</v>
+        <v>B 570391</v>
       </c>
       <c r="K105" t="str">
         <v>tiro</v>
@@ -4409,34 +4409,34 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B106" t="str">
-        <v>rodrigo.garcia.e@live.com.mx</v>
+        <v>lalodenis23@hotmail.com</v>
       </c>
       <c r="C106" t="str">
-        <v>RODRIGO GARCÍA ESCALANTE</v>
+        <v>EDUARDO DENIS HERRERA</v>
       </c>
       <c r="D106" t="str">
-        <v>9991375427</v>
+        <v>5520869685</v>
       </c>
       <c r="E106" t="str">
-        <v>ESCOPETA</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F106" t="str">
-        <v>12 GA</v>
+        <v>380</v>
       </c>
       <c r="G106" t="str">
-        <v>REMINGTON</v>
+        <v>GLOCK</v>
       </c>
       <c r="H106" t="str">
-        <v>1100</v>
+        <v>34</v>
       </c>
       <c r="I106" t="str">
-        <v>M920313R</v>
+        <v>JW2964</v>
       </c>
       <c r="J106" t="str">
-        <v>A 3667869</v>
+        <v>A3758555</v>
       </c>
       <c r="K106" t="str">
         <v>tiro</v>
@@ -4447,16 +4447,16 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B107" t="str">
-        <v>rodrigo.garcia.e@live.com.mx</v>
+        <v>mayayuc3006@gmail.com</v>
       </c>
       <c r="C107" t="str">
-        <v>RODRIGO GARCÍA ESCALANTE</v>
+        <v>EDUARDO JOSE ARZAMENDI MONTEJO</v>
       </c>
       <c r="D107" t="str">
-        <v>9991375427</v>
+        <v>9991276042</v>
       </c>
       <c r="E107" t="str">
         <v>ESCOPETA</v>
@@ -4465,16 +4465,16 @@
         <v>12 GA</v>
       </c>
       <c r="G107" t="str">
-        <v>LUIGI FRANCHI</v>
+        <v>MOSSBERG</v>
       </c>
       <c r="H107" t="str">
-        <v>BRESCIA</v>
+        <v>500A</v>
       </c>
       <c r="I107" t="str">
-        <v>35170</v>
+        <v>J970360</v>
       </c>
       <c r="J107" t="str">
-        <v>A 377073</v>
+        <v>A 3644458</v>
       </c>
       <c r="K107" t="str">
         <v>tiro</v>
@@ -4485,34 +4485,34 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B108" t="str">
-        <v>jretana@live.com.mx</v>
+        <v>rodrigo.garcia.e@live.com.mx</v>
       </c>
       <c r="C108" t="str">
-        <v>JULIO RETANA VILLARREAL</v>
+        <v>RODRIGO GARCÍA ESCALANTE</v>
       </c>
       <c r="D108" t="str">
-        <v>9993356071</v>
+        <v>9991375427</v>
       </c>
       <c r="E108" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F108" t="str">
-        <v>.22"</v>
+        <v>12 GA</v>
       </c>
       <c r="G108" t="str">
-        <v>STEVENS</v>
+        <v>REMINGTON</v>
       </c>
       <c r="H108" t="str">
-        <v>887</v>
+        <v>1100</v>
       </c>
       <c r="I108" t="str">
-        <v>D547532</v>
+        <v>M920313R</v>
       </c>
       <c r="J108" t="str">
-        <v>A 3670631</v>
+        <v>A 3667869</v>
       </c>
       <c r="K108" t="str">
         <v>tiro</v>
@@ -4523,34 +4523,34 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B109" t="str">
-        <v>jretana@live.com.mx</v>
+        <v>rodrigo.garcia.e@live.com.mx</v>
       </c>
       <c r="C109" t="str">
-        <v>JULIO RETANA VILLARREAL</v>
+        <v>RODRIGO GARCÍA ESCALANTE</v>
       </c>
       <c r="D109" t="str">
-        <v>9993356071</v>
+        <v>9991375427</v>
       </c>
       <c r="E109" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F109" t="str">
-        <v>.22"</v>
+        <v>12 GA</v>
       </c>
       <c r="G109" t="str">
-        <v>STAR</v>
+        <v>LUIGI FRANCHI</v>
       </c>
       <c r="H109" t="str">
-        <v>SIN</v>
+        <v>BRESCIA</v>
       </c>
       <c r="I109" t="str">
-        <v>647345</v>
+        <v>35170</v>
       </c>
       <c r="J109" t="str">
-        <v>A 3670629</v>
+        <v>A 377073</v>
       </c>
       <c r="K109" t="str">
         <v>tiro</v>
@@ -4573,22 +4573,22 @@
         <v>9993356071</v>
       </c>
       <c r="E110" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F110" t="str">
-        <v>12</v>
+        <v>.22"</v>
       </c>
       <c r="G110" t="str">
-        <v>GLENFIELD</v>
+        <v>STEVENS</v>
       </c>
       <c r="H110" t="str">
-        <v>778</v>
+        <v>887</v>
       </c>
       <c r="I110" t="str">
-        <v>20816383</v>
+        <v>D547532</v>
       </c>
       <c r="J110" t="str">
-        <v>A 3670632</v>
+        <v>A 3670631</v>
       </c>
       <c r="K110" t="str">
         <v>tiro</v>
@@ -4599,34 +4599,34 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B111" t="str">
-        <v>d@azarcorp.mx</v>
+        <v>jretana@live.com.mx</v>
       </c>
       <c r="C111" t="str">
-        <v>DAVID AZAR CÁMARA</v>
+        <v>JULIO RETANA VILLARREAL</v>
       </c>
       <c r="D111" t="str">
-        <v>9991369874</v>
+        <v>9993356071</v>
       </c>
       <c r="E111" t="str">
         <v>PISTOLA</v>
       </c>
       <c r="F111" t="str">
-        <v>.380"</v>
+        <v>.22"</v>
       </c>
       <c r="G111" t="str">
-        <v>BROWNING</v>
+        <v>STAR</v>
       </c>
       <c r="H111" t="str">
-        <v>425 PN</v>
+        <v>SIN</v>
       </c>
       <c r="I111" t="str">
-        <v>7130</v>
+        <v>647345</v>
       </c>
       <c r="J111" t="str">
-        <v>A 3694181</v>
+        <v>A 3670629</v>
       </c>
       <c r="K111" t="str">
         <v>tiro</v>
@@ -4637,34 +4637,34 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B112" t="str">
-        <v>quiquis77@hotmail.com</v>
+        <v>jretana@live.com.mx</v>
       </c>
       <c r="C112" t="str">
-        <v>ENRIQUE GAONA CASTAÑEDA</v>
+        <v>JULIO RETANA VILLARREAL</v>
       </c>
       <c r="D112" t="str">
-        <v>5520985073</v>
+        <v>9993356071</v>
       </c>
       <c r="E112" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F112" t="str">
-        <v>.380"</v>
+        <v>12</v>
       </c>
       <c r="G112" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>GLENFIELD</v>
       </c>
       <c r="H112" t="str">
-        <v>CZ-P-07</v>
+        <v>778</v>
       </c>
       <c r="I112" t="str">
-        <v>F186568</v>
+        <v>20816383</v>
       </c>
       <c r="J112" t="str">
-        <v>A 3718153</v>
+        <v>A 3670632</v>
       </c>
       <c r="K112" t="str">
         <v>tiro</v>
@@ -4675,16 +4675,16 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B113" t="str">
-        <v>armando.pard@gmail.com</v>
+        <v>d@azarcorp.mx</v>
       </c>
       <c r="C113" t="str">
-        <v>ARMANDO PARDIÑAZ ALCANTARA</v>
+        <v>DAVID AZAR CÁMARA</v>
       </c>
       <c r="D113" t="str">
-        <v>9994992099</v>
+        <v>9991369874</v>
       </c>
       <c r="E113" t="str">
         <v>PISTOLA</v>
@@ -4696,13 +4696,13 @@
         <v>BROWNING</v>
       </c>
       <c r="H113" t="str">
-        <v>BDA-380</v>
+        <v>425 PN</v>
       </c>
       <c r="I113" t="str">
-        <v>425PZ06059</v>
+        <v>7130</v>
       </c>
       <c r="J113" t="str">
-        <v>B 564622</v>
+        <v>A 3694181</v>
       </c>
       <c r="K113" t="str">
         <v>tiro</v>
@@ -4713,16 +4713,16 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B114" t="str">
-        <v>jrgardoni@gmail.com</v>
+        <v>quiquis77@hotmail.com</v>
       </c>
       <c r="C114" t="str">
-        <v>JOAQUIN RODOLFO GARDONI NUÑEZ</v>
+        <v>ENRIQUE GAONA CASTAÑEDA</v>
       </c>
       <c r="D114" t="str">
-        <v>5530565722</v>
+        <v>5520985073</v>
       </c>
       <c r="E114" t="str">
         <v>PISTOLA</v>
@@ -4734,13 +4734,13 @@
         <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H114" t="str">
-        <v>CZ SHADOW 2</v>
+        <v>CZ-P-07</v>
       </c>
       <c r="I114" t="str">
-        <v>DP25086</v>
+        <v>F186568</v>
       </c>
       <c r="J114" t="str">
-        <v>A 3782099</v>
+        <v>A 3718153</v>
       </c>
       <c r="K114" t="str">
         <v>tiro</v>
@@ -4751,16 +4751,16 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B115" t="str">
-        <v>jrgardoni@gmail.com</v>
+        <v>armando.pard@gmail.com</v>
       </c>
       <c r="C115" t="str">
-        <v>JOAQUIN RODOLFO GARDONI NUÑEZ</v>
+        <v>ARMANDO PARDIÑAZ ALCANTARA</v>
       </c>
       <c r="D115" t="str">
-        <v>5530565722</v>
+        <v>9994992099</v>
       </c>
       <c r="E115" t="str">
         <v>PISTOLA</v>
@@ -4769,16 +4769,16 @@
         <v>.380"</v>
       </c>
       <c r="G115" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>BROWNING</v>
       </c>
       <c r="H115" t="str">
-        <v>CZ SHADOW 2</v>
+        <v>BDA-380</v>
       </c>
       <c r="I115" t="str">
-        <v>DP25087</v>
+        <v>425PZ06059</v>
       </c>
       <c r="J115" t="str">
-        <v>A 3782098</v>
+        <v>B 564622</v>
       </c>
       <c r="K115" t="str">
         <v>tiro</v>
@@ -4813,10 +4813,10 @@
         <v>CZ SHADOW 2</v>
       </c>
       <c r="I116" t="str">
-        <v>DP25246</v>
+        <v>DP25086</v>
       </c>
       <c r="J116" t="str">
-        <v>A 3792515</v>
+        <v>A 3782099</v>
       </c>
       <c r="K116" t="str">
         <v>tiro</v>
@@ -4842,19 +4842,19 @@
         <v>PISTOLA</v>
       </c>
       <c r="F117" t="str">
-        <v>.22" L.R.</v>
+        <v>.380"</v>
       </c>
       <c r="G117" t="str">
-        <v>GRAND POWER</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H117" t="str">
-        <v>K22 X-TRIM</v>
+        <v>CZ SHADOW 2</v>
       </c>
       <c r="I117" t="str">
-        <v>K078928</v>
+        <v>DP25087</v>
       </c>
       <c r="J117" t="str">
-        <v>A 3601944</v>
+        <v>A 3782098</v>
       </c>
       <c r="K117" t="str">
         <v>tiro</v>
@@ -4877,22 +4877,22 @@
         <v>5530565722</v>
       </c>
       <c r="E118" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F118" t="str">
-        <v>.22" L.R.</v>
+        <v>.380"</v>
       </c>
       <c r="G118" t="str">
-        <v>KRISS</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H118" t="str">
-        <v>DMK22C</v>
+        <v>CZ SHADOW 2</v>
       </c>
       <c r="I118" t="str">
-        <v>22C002369</v>
+        <v>DP25246</v>
       </c>
       <c r="J118" t="str">
-        <v>3722287</v>
+        <v>A 3792515</v>
       </c>
       <c r="K118" t="str">
         <v>tiro</v>
@@ -4915,22 +4915,22 @@
         <v>5530565722</v>
       </c>
       <c r="E119" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F119" t="str">
         <v>.22" L.R.</v>
       </c>
       <c r="G119" t="str">
-        <v>RUGER</v>
+        <v>GRAND POWER</v>
       </c>
       <c r="H119" t="str">
-        <v>10/22</v>
+        <v>K22 X-TRIM</v>
       </c>
       <c r="I119" t="str">
-        <v>0008-32069</v>
+        <v>K078928</v>
       </c>
       <c r="J119" t="str">
-        <v>A 3722288</v>
+        <v>A 3601944</v>
       </c>
       <c r="K119" t="str">
         <v>tiro</v>
@@ -4959,16 +4959,16 @@
         <v>.22" L.R.</v>
       </c>
       <c r="G120" t="str">
-        <v>RUGER</v>
+        <v>KRISS</v>
       </c>
       <c r="H120" t="str">
-        <v>10/22</v>
+        <v>DMK22C</v>
       </c>
       <c r="I120" t="str">
-        <v>0013-82505</v>
+        <v>22C002369</v>
       </c>
       <c r="J120" t="str">
-        <v>A 3605099</v>
+        <v>3722287</v>
       </c>
       <c r="K120" t="str">
         <v>tiro</v>
@@ -4979,34 +4979,34 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B121" t="str">
-        <v>valenciarojasjjesus@gmail.com</v>
+        <v>jrgardoni@gmail.com</v>
       </c>
       <c r="C121" t="str">
-        <v>J. JESÚS VALENCIA ROJAS</v>
+        <v>JOAQUIN RODOLFO GARDONI NUÑEZ</v>
       </c>
       <c r="D121" t="str">
-        <v>9971248940</v>
+        <v>5530565722</v>
       </c>
       <c r="E121" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F121" t="str">
         <v>.22" L.R.</v>
       </c>
       <c r="G121" t="str">
-        <v>BROWNING</v>
+        <v>RUGER</v>
       </c>
       <c r="H121" t="str">
-        <v>BUCK MARK</v>
+        <v>10/22</v>
       </c>
       <c r="I121" t="str">
-        <v>655RR11851</v>
+        <v>0008-32069</v>
       </c>
       <c r="J121" t="str">
-        <v>A 3758539</v>
+        <v>A 3722288</v>
       </c>
       <c r="K121" t="str">
         <v>tiro</v>
@@ -5017,34 +5017,34 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B122" t="str">
-        <v>valenciarojasjjesus@gmail.com</v>
+        <v>jrgardoni@gmail.com</v>
       </c>
       <c r="C122" t="str">
-        <v>J. JESÚS VALENCIA ROJAS</v>
+        <v>JOAQUIN RODOLFO GARDONI NUÑEZ</v>
       </c>
       <c r="D122" t="str">
-        <v>9971248940</v>
+        <v>5530565722</v>
       </c>
       <c r="E122" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F122" t="str">
-        <v>.380"</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G122" t="str">
-        <v>LLAMA</v>
+        <v>RUGER</v>
       </c>
       <c r="H122" t="str">
-        <v>SIN</v>
+        <v>10/22</v>
       </c>
       <c r="I122" t="str">
-        <v>A88396</v>
+        <v>0013-82505</v>
       </c>
       <c r="J122" t="str">
-        <v>A 3758538</v>
+        <v>A 3605099</v>
       </c>
       <c r="K122" t="str">
         <v>tiro</v>
@@ -5067,22 +5067,22 @@
         <v>9971248940</v>
       </c>
       <c r="E123" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F123" t="str">
-        <v>.223" REM.</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G123" t="str">
-        <v>BENELLI</v>
+        <v>BROWNING</v>
       </c>
       <c r="H123" t="str">
-        <v>MR1</v>
+        <v>BUCK MARK</v>
       </c>
       <c r="I123" t="str">
-        <v>BC003839</v>
+        <v>655RR11851</v>
       </c>
       <c r="J123" t="str">
-        <v>A 3761192</v>
+        <v>A 3758539</v>
       </c>
       <c r="K123" t="str">
         <v>tiro</v>
@@ -5093,34 +5093,34 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B124" t="str">
-        <v>brayerbyv@gmail.com</v>
+        <v>valenciarojasjjesus@gmail.com</v>
       </c>
       <c r="C124" t="str">
-        <v>BRAYER KERMITH VERDE CHIN</v>
+        <v>J. JESÚS VALENCIA ROJAS</v>
       </c>
       <c r="D124" t="str">
-        <v>9992247551</v>
+        <v>9971248940</v>
       </c>
       <c r="E124" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F124" t="str">
-        <v>0.22" HORNET</v>
+        <v>.380"</v>
       </c>
       <c r="G124" t="str">
-        <v>ZBROJOVKA BRNO</v>
+        <v>LLAMA</v>
       </c>
       <c r="H124" t="str">
-        <v>AZKW</v>
+        <v>SIN</v>
       </c>
       <c r="I124" t="str">
-        <v>21669</v>
+        <v>A88396</v>
       </c>
       <c r="J124" t="str">
-        <v>B 404869</v>
+        <v>A 3758538</v>
       </c>
       <c r="K124" t="str">
         <v>tiro</v>
@@ -5131,34 +5131,34 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B125" t="str">
-        <v>brayerbyv@gmail.com</v>
+        <v>valenciarojasjjesus@gmail.com</v>
       </c>
       <c r="C125" t="str">
-        <v>BRAYER KERMITH VERDE CHIN</v>
+        <v>J. JESÚS VALENCIA ROJAS</v>
       </c>
       <c r="D125" t="str">
-        <v>9992247551</v>
+        <v>9971248940</v>
       </c>
       <c r="E125" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F125" t="str">
-        <v>20 GA</v>
+        <v>.223" REM.</v>
       </c>
       <c r="G125" t="str">
-        <v>REMINGTON</v>
+        <v>BENELLI</v>
       </c>
       <c r="H125" t="str">
-        <v>11-87 SPORTSMAN</v>
+        <v>MR1</v>
       </c>
       <c r="I125" t="str">
-        <v>RS93764K</v>
+        <v>BC003839</v>
       </c>
       <c r="J125" t="str">
-        <v>B 347235</v>
+        <v>A 3761192</v>
       </c>
       <c r="K125" t="str">
         <v>tiro</v>
@@ -5181,22 +5181,22 @@
         <v>9992247551</v>
       </c>
       <c r="E126" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F126" t="str">
-        <v>0.410"</v>
+        <v>0.22" HORNET</v>
       </c>
       <c r="G126" t="str">
-        <v>STEVENS</v>
+        <v>ZBROJOVKA BRNO</v>
       </c>
       <c r="H126" t="str">
-        <v>SIN</v>
+        <v>AZKW</v>
       </c>
       <c r="I126" t="str">
-        <v>775ND</v>
+        <v>21669</v>
       </c>
       <c r="J126" t="str">
-        <v>A 3420280</v>
+        <v>B 404869</v>
       </c>
       <c r="K126" t="str">
         <v>tiro</v>
@@ -5219,22 +5219,22 @@
         <v>9992247551</v>
       </c>
       <c r="E127" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F127" t="str">
-        <v>.270" WIN</v>
+        <v>20 GA</v>
       </c>
       <c r="G127" t="str">
-        <v>WEATHERBY</v>
+        <v>REMINGTON</v>
       </c>
       <c r="H127" t="str">
-        <v>VANGUARD</v>
+        <v>11-87 SPORTSMAN</v>
       </c>
       <c r="I127" t="str">
-        <v>VB181028</v>
+        <v>RS93764K</v>
       </c>
       <c r="J127" t="str">
-        <v>B 539965</v>
+        <v>B 347235</v>
       </c>
       <c r="K127" t="str">
         <v>tiro</v>
@@ -5245,34 +5245,34 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B128" t="str">
-        <v>rafle_30@hotmail.com</v>
+        <v>brayerbyv@gmail.com</v>
       </c>
       <c r="C128" t="str">
-        <v>ROGER IRÁN MÉNDEZ CARRILLO</v>
+        <v>BRAYER KERMITH VERDE CHIN</v>
       </c>
       <c r="D128" t="str">
-        <v>9991356502</v>
+        <v>9992247551</v>
       </c>
       <c r="E128" t="str">
         <v>ESCOPETA</v>
       </c>
       <c r="F128" t="str">
-        <v>12 GA</v>
+        <v>0.410"</v>
       </c>
       <c r="G128" t="str">
         <v>STEVENS</v>
       </c>
       <c r="H128" t="str">
-        <v>79</v>
+        <v>SIN</v>
       </c>
       <c r="I128" t="str">
-        <v>D040153</v>
+        <v>775ND</v>
       </c>
       <c r="J128" t="str">
-        <v>A3557896</v>
+        <v>A 3420280</v>
       </c>
       <c r="K128" t="str">
         <v>tiro</v>
@@ -5283,34 +5283,34 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B129" t="str">
-        <v>rafle_30@hotmail.com</v>
+        <v>brayerbyv@gmail.com</v>
       </c>
       <c r="C129" t="str">
-        <v>ROGER IRÁN MÉNDEZ CARRILLO</v>
+        <v>BRAYER KERMITH VERDE CHIN</v>
       </c>
       <c r="D129" t="str">
-        <v>9991356502</v>
+        <v>9992247551</v>
       </c>
       <c r="E129" t="str">
         <v>RIFLE</v>
       </c>
       <c r="F129" t="str">
-        <v>.22" L.R.</v>
+        <v>.270" WIN</v>
       </c>
       <c r="G129" t="str">
-        <v>SEARS</v>
+        <v>WEATHERBY</v>
       </c>
       <c r="H129" t="str">
-        <v>3T</v>
+        <v>VANGUARD</v>
       </c>
       <c r="I129" t="str">
-        <v>H347416</v>
+        <v>VB181028</v>
       </c>
       <c r="J129" t="str">
-        <v>A3557894</v>
+        <v>B 539965</v>
       </c>
       <c r="K129" t="str">
         <v>tiro</v>
@@ -5333,22 +5333,22 @@
         <v>9991356502</v>
       </c>
       <c r="E130" t="str">
-        <v>REVOLVER</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F130" t="str">
-        <v>.38" SPL.</v>
+        <v>12 GA</v>
       </c>
       <c r="G130" t="str">
-        <v>SMITH &amp; WESSON</v>
+        <v>STEVENS</v>
       </c>
       <c r="H130" t="str">
-        <v>SPRINGFIELD</v>
+        <v>79</v>
       </c>
       <c r="I130" t="str">
-        <v>6K66706</v>
+        <v>D040153</v>
       </c>
       <c r="J130" t="str">
-        <v>A3658419</v>
+        <v>A3557896</v>
       </c>
       <c r="K130" t="str">
         <v>tiro</v>
@@ -5371,22 +5371,22 @@
         <v>9991356502</v>
       </c>
       <c r="E131" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F131" t="str">
-        <v>12 GA</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G131" t="str">
-        <v>STEVENS</v>
+        <v>SEARS</v>
       </c>
       <c r="H131" t="str">
-        <v>311</v>
+        <v>3T</v>
       </c>
       <c r="I131" t="str">
-        <v>C284992</v>
+        <v>H347416</v>
       </c>
       <c r="J131" t="str">
-        <v>A3555955</v>
+        <v>A3557894</v>
       </c>
       <c r="K131" t="str">
         <v>tiro</v>
@@ -5409,22 +5409,22 @@
         <v>9991356502</v>
       </c>
       <c r="E132" t="str">
-        <v>ESCOPETA</v>
+        <v>REVOLVER</v>
       </c>
       <c r="F132" t="str">
-        <v>12</v>
+        <v>.38" SPL.</v>
       </c>
       <c r="G132" t="str">
-        <v>WINCHESTER</v>
+        <v>SMITH &amp; WESSON</v>
       </c>
       <c r="H132" t="str">
-        <v>70</v>
+        <v>SPRINGFIELD</v>
       </c>
       <c r="I132" t="str">
-        <v>W061106</v>
+        <v>6K66706</v>
       </c>
       <c r="J132" t="str">
-        <v>B546460</v>
+        <v>A3658419</v>
       </c>
       <c r="K132" t="str">
         <v>tiro</v>
@@ -5435,16 +5435,16 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B133" t="str">
-        <v>mjtzab@yahoo.com</v>
+        <v>rafle_30@hotmail.com</v>
       </c>
       <c r="C133" t="str">
-        <v>MANUEL JESÚS TZAB CHUC</v>
+        <v>ROGER IRÁN MÉNDEZ CARRILLO</v>
       </c>
       <c r="D133" t="str">
-        <v>9991518266</v>
+        <v>9991356502</v>
       </c>
       <c r="E133" t="str">
         <v>ESCOPETA</v>
@@ -5453,16 +5453,16 @@
         <v>12 GA</v>
       </c>
       <c r="G133" t="str">
-        <v>MOSSBERG</v>
+        <v>STEVENS</v>
       </c>
       <c r="H133" t="str">
-        <v>930</v>
+        <v>311</v>
       </c>
       <c r="I133" t="str">
-        <v>AF0056147</v>
+        <v>C284992</v>
       </c>
       <c r="J133" t="str">
-        <v>A3771503</v>
+        <v>A3555955</v>
       </c>
       <c r="K133" t="str">
         <v>tiro</v>
@@ -5473,34 +5473,34 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B134" t="str">
-        <v>mjtzab@yahoo.com</v>
+        <v>rafle_30@hotmail.com</v>
       </c>
       <c r="C134" t="str">
-        <v>MANUEL JESÚS TZAB CHUC</v>
+        <v>ROGER IRÁN MÉNDEZ CARRILLO</v>
       </c>
       <c r="D134" t="str">
-        <v>9991518266</v>
+        <v>9991356502</v>
       </c>
       <c r="E134" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F134" t="str">
-        <v>.22"</v>
+        <v>12</v>
       </c>
       <c r="G134" t="str">
-        <v>SIG SAUER</v>
+        <v>WINCHESTER</v>
       </c>
       <c r="H134" t="str">
-        <v>SIN</v>
+        <v>70</v>
       </c>
       <c r="I134" t="str">
-        <v>73A076600</v>
+        <v>W061106</v>
       </c>
       <c r="J134" t="str">
-        <v>A3788078</v>
+        <v>B546460</v>
       </c>
       <c r="K134" t="str">
         <v>tiro</v>
@@ -5526,19 +5526,19 @@
         <v>ESCOPETA</v>
       </c>
       <c r="F135" t="str">
-        <v>20 GA</v>
+        <v>12 GA</v>
       </c>
       <c r="G135" t="str">
         <v>MOSSBERG</v>
       </c>
       <c r="H135" t="str">
-        <v>SA-20</v>
+        <v>930</v>
       </c>
       <c r="I135" t="str">
-        <v>KA39879</v>
+        <v>AF0056147</v>
       </c>
       <c r="J135" t="str">
-        <v>A3771504</v>
+        <v>A3771503</v>
       </c>
       <c r="K135" t="str">
         <v>tiro</v>
@@ -5549,34 +5549,34 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B136" t="str">
-        <v>lic.arielparedescetina@hotmail.com</v>
+        <v>mjtzab@yahoo.com</v>
       </c>
       <c r="C136" t="str">
-        <v>ARIEL ANTONIO PAREDES CETINA</v>
+        <v>MANUEL JESÚS TZAB CHUC</v>
       </c>
       <c r="D136" t="str">
-        <v>9994912883</v>
+        <v>9991518266</v>
       </c>
       <c r="E136" t="str">
         <v>PISTOLA</v>
       </c>
       <c r="F136" t="str">
-        <v>.380"</v>
+        <v>.22"</v>
       </c>
       <c r="G136" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>SIG SAUER</v>
       </c>
       <c r="H136" t="str">
-        <v>CZ SHADOW 2</v>
+        <v>SIN</v>
       </c>
       <c r="I136" t="str">
-        <v>FP39973</v>
+        <v>73A076600</v>
       </c>
       <c r="J136" t="str">
-        <v>A3897243</v>
+        <v>A3788078</v>
       </c>
       <c r="K136" t="str">
         <v>tiro</v>
@@ -5587,34 +5587,34 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B137" t="str">
-        <v>lic.arielparedescetina@hotmail.com</v>
+        <v>mjtzab@yahoo.com</v>
       </c>
       <c r="C137" t="str">
-        <v>ARIEL ANTONIO PAREDES CETINA</v>
+        <v>MANUEL JESÚS TZAB CHUC</v>
       </c>
       <c r="D137" t="str">
-        <v>9994912883</v>
+        <v>9991518266</v>
       </c>
       <c r="E137" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F137" t="str">
-        <v>.380"</v>
+        <v>20 GA</v>
       </c>
       <c r="G137" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>MOSSBERG</v>
       </c>
       <c r="H137" t="str">
-        <v>CZ SHADOW 2</v>
+        <v>SA-20</v>
       </c>
       <c r="I137" t="str">
-        <v>FP39978</v>
+        <v>KA39879</v>
       </c>
       <c r="J137" t="str">
-        <v>A3897242</v>
+        <v>A3771504</v>
       </c>
       <c r="K137" t="str">
         <v>tiro</v>
@@ -5646,13 +5646,13 @@
         <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H138" t="str">
-        <v>CZ P-10 C</v>
+        <v>CZ SHADOW 2</v>
       </c>
       <c r="I138" t="str">
-        <v>EP29318</v>
+        <v>FP39973</v>
       </c>
       <c r="J138" t="str">
-        <v>A3897245</v>
+        <v>A3897243</v>
       </c>
       <c r="K138" t="str">
         <v>tiro</v>
@@ -5663,34 +5663,34 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B139" t="str">
-        <v>dr.ricardocastillo@me.com</v>
+        <v>lic.arielparedescetina@hotmail.com</v>
       </c>
       <c r="C139" t="str">
-        <v>RICARDO ERNESTO CASTILLO MANCERA</v>
+        <v>ARIEL ANTONIO PAREDES CETINA</v>
       </c>
       <c r="D139" t="str">
-        <v>9901011913</v>
+        <v>9994912883</v>
       </c>
       <c r="E139" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F139" t="str">
-        <v>.22"</v>
+        <v>.380"</v>
       </c>
       <c r="G139" t="str">
-        <v>CZ</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H139" t="str">
-        <v>CZ 457</v>
+        <v>CZ SHADOW 2</v>
       </c>
       <c r="I139" t="str">
-        <v>H228675</v>
+        <v>FP39978</v>
       </c>
       <c r="J139" t="str">
-        <v>A3880038</v>
+        <v>A3897242</v>
       </c>
       <c r="K139" t="str">
         <v>tiro</v>
@@ -5701,16 +5701,16 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B140" t="str">
-        <v>dr.ricardocastillo@me.com</v>
+        <v>lic.arielparedescetina@hotmail.com</v>
       </c>
       <c r="C140" t="str">
-        <v>RICARDO ERNESTO CASTILLO MANCERA</v>
+        <v>ARIEL ANTONIO PAREDES CETINA</v>
       </c>
       <c r="D140" t="str">
-        <v>9901011913</v>
+        <v>9994912883</v>
       </c>
       <c r="E140" t="str">
         <v>PISTOLA</v>
@@ -5722,13 +5722,13 @@
         <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H140" t="str">
-        <v>CZ SHADOW 2</v>
+        <v>CZ P-10 C</v>
       </c>
       <c r="I140" t="str">
-        <v>EP34718</v>
+        <v>EP29318</v>
       </c>
       <c r="J140" t="str">
-        <v>A3880033</v>
+        <v>A3897245</v>
       </c>
       <c r="K140" t="str">
         <v>tiro</v>
@@ -5739,72 +5739,72 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B141" t="str">
-        <v>cpedgardo_gomez@hotmail.com</v>
+        <v>dr.ricardocastillo@me.com</v>
       </c>
       <c r="C141" t="str">
-        <v>EDGARDO RAUL GÓMEZ ARZAMENDI</v>
+        <v>RICARDO ERNESTO CASTILLO MANCERA</v>
       </c>
       <c r="D141" t="str">
-        <v>9991450399</v>
+        <v>9901011913</v>
       </c>
       <c r="E141" t="str">
-        <v>-</v>
+        <v>RIFLE</v>
       </c>
       <c r="F141" t="str">
-        <v>-</v>
+        <v>.22"</v>
       </c>
       <c r="G141" t="str">
-        <v>-</v>
+        <v>CZ</v>
       </c>
       <c r="H141" t="str">
-        <v>-</v>
+        <v>CZ 457</v>
       </c>
       <c r="I141" t="str">
-        <v>-</v>
+        <v>H228675</v>
       </c>
       <c r="J141" t="str">
-        <v>-</v>
+        <v>A3880038</v>
       </c>
       <c r="K141" t="str">
-        <v>-</v>
+        <v>tiro</v>
       </c>
       <c r="L141" t="str">
-        <v>SIN ARMAS</v>
+        <v>REGISTRADA</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B142" t="str">
-        <v>lolita@concepthaus.mx</v>
+        <v>dr.ricardocastillo@me.com</v>
       </c>
       <c r="C142" t="str">
-        <v>MARIA DOLORES DAVIS BETANZOS</v>
+        <v>RICARDO ERNESTO CASTILLO MANCERA</v>
       </c>
       <c r="D142" t="str">
-        <v>5543900616</v>
+        <v>9901011913</v>
       </c>
       <c r="E142" t="str">
-        <v>RIFLE DE REPETICIÓN</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F142" t="str">
-        <v>25-35</v>
+        <v>.380"</v>
       </c>
       <c r="G142" t="str">
-        <v>WINCHESTER</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H142" t="str">
-        <v>1894</v>
+        <v>CZ SHADOW 2</v>
       </c>
       <c r="I142" t="str">
-        <v>373343</v>
+        <v>EP34718</v>
       </c>
       <c r="J142" t="str">
-        <v>B612055</v>
+        <v>A3880033</v>
       </c>
       <c r="K142" t="str">
         <v>tiro</v>
@@ -5815,40 +5815,40 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B143" t="str">
-        <v>lolita@concepthaus.mx</v>
+        <v>cpedgardo_gomez@hotmail.com</v>
       </c>
       <c r="C143" t="str">
-        <v>MARIA DOLORES DAVIS BETANZOS</v>
+        <v>EDGARDO RAUL GÓMEZ ARZAMENDI</v>
       </c>
       <c r="D143" t="str">
-        <v>5543900616</v>
+        <v>9991450399</v>
       </c>
       <c r="E143" t="str">
-        <v>RIFLE SEMI-AUTOM ÁTICO</v>
+        <v>-</v>
       </c>
       <c r="F143" t="str">
-        <v>.22" L.R.</v>
+        <v>-</v>
       </c>
       <c r="G143" t="str">
-        <v>REMINGTON</v>
+        <v>-</v>
       </c>
       <c r="H143" t="str">
-        <v>552</v>
+        <v>-</v>
       </c>
       <c r="I143" t="str">
-        <v>A1790332</v>
+        <v>-</v>
       </c>
       <c r="J143" t="str">
-        <v>B612057</v>
+        <v>-</v>
       </c>
       <c r="K143" t="str">
-        <v>tiro</v>
+        <v>-</v>
       </c>
       <c r="L143" t="str">
-        <v>REGISTRADA</v>
+        <v>SIN ARMAS</v>
       </c>
     </row>
     <row r="144">
@@ -5865,22 +5865,22 @@
         <v>5543900616</v>
       </c>
       <c r="E144" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE DE REPETICIÓN</v>
       </c>
       <c r="F144" t="str">
-        <v>.22" L.R.</v>
+        <v>25-35</v>
       </c>
       <c r="G144" t="str">
-        <v>COLT</v>
+        <v>WINCHESTER</v>
       </c>
       <c r="H144" t="str">
-        <v>GOVERNMENT</v>
+        <v>1894</v>
       </c>
       <c r="I144" t="str">
-        <v>70S22023</v>
+        <v>373343</v>
       </c>
       <c r="J144" t="str">
-        <v>B612056</v>
+        <v>B612055</v>
       </c>
       <c r="K144" t="str">
         <v>tiro</v>
@@ -5903,22 +5903,22 @@
         <v>5543900616</v>
       </c>
       <c r="E145" t="str">
-        <v>ESCOPETA DOS CAÑONES</v>
+        <v>RIFLE SEMI-AUTOM ÁTICO</v>
       </c>
       <c r="F145" t="str">
-        <v>16 GA</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G145" t="str">
-        <v>BERETTA</v>
+        <v>REMINGTON</v>
       </c>
       <c r="H145" t="str">
-        <v>N/A</v>
+        <v>552</v>
       </c>
       <c r="I145" t="str">
-        <v>92070</v>
+        <v>A1790332</v>
       </c>
       <c r="J145" t="str">
-        <v>B612058</v>
+        <v>B612057</v>
       </c>
       <c r="K145" t="str">
         <v>tiro</v>
@@ -5941,22 +5941,22 @@
         <v>5543900616</v>
       </c>
       <c r="E146" t="str">
-        <v>RIFLE DE REPETICIÓN</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F146" t="str">
-        <v>.243" WIN</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G146" t="str">
-        <v>SAVAGE</v>
+        <v>COLT</v>
       </c>
       <c r="H146" t="str">
-        <v>110</v>
+        <v>GOVERNMENT</v>
       </c>
       <c r="I146" t="str">
-        <v>C347639</v>
+        <v>70S22023</v>
       </c>
       <c r="J146" t="str">
-        <v>B612060</v>
+        <v>B612056</v>
       </c>
       <c r="K146" t="str">
         <v>tiro</v>
@@ -5967,34 +5967,34 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B147" t="str">
-        <v>santiago100100@hotmail.com</v>
+        <v>lolita@concepthaus.mx</v>
       </c>
       <c r="C147" t="str">
-        <v>SANTIAGO LAMAS RINGENBACH</v>
+        <v>MARIA DOLORES DAVIS BETANZOS</v>
       </c>
       <c r="D147" t="str">
-        <v>9993359825</v>
+        <v>5543900616</v>
       </c>
       <c r="E147" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA DOS CAÑONES</v>
       </c>
       <c r="F147" t="str">
-        <v>0.22"</v>
+        <v>16 GA</v>
       </c>
       <c r="G147" t="str">
-        <v>COLT</v>
+        <v>BERETTA</v>
       </c>
       <c r="H147" t="str">
-        <v>WOODSMAN</v>
+        <v>N/A</v>
       </c>
       <c r="I147" t="str">
-        <v>32288-S</v>
+        <v>92070</v>
       </c>
       <c r="J147" t="str">
-        <v>B 612475</v>
+        <v>B612058</v>
       </c>
       <c r="K147" t="str">
         <v>tiro</v>
@@ -6005,34 +6005,34 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B148" t="str">
-        <v>santiago100100@hotmail.com</v>
+        <v>lolita@concepthaus.mx</v>
       </c>
       <c r="C148" t="str">
-        <v>SANTIAGO LAMAS RINGENBACH</v>
+        <v>MARIA DOLORES DAVIS BETANZOS</v>
       </c>
       <c r="D148" t="str">
-        <v>9993359825</v>
+        <v>5543900616</v>
       </c>
       <c r="E148" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE DE REPETICIÓN</v>
       </c>
       <c r="F148" t="str">
-        <v>12 GA</v>
+        <v>.243" WIN</v>
       </c>
       <c r="G148" t="str">
-        <v>BROWNING</v>
+        <v>SAVAGE</v>
       </c>
       <c r="H148" t="str">
-        <v>FUSION EVOLVE</v>
+        <v>110</v>
       </c>
       <c r="I148" t="str">
-        <v>113MP16287</v>
+        <v>C347639</v>
       </c>
       <c r="J148" t="str">
-        <v>B 613227</v>
+        <v>B612060</v>
       </c>
       <c r="K148" t="str">
         <v>tiro</v>
@@ -6055,22 +6055,22 @@
         <v>9993359825</v>
       </c>
       <c r="E149" t="str">
-        <v>ESCOPETA</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F149" t="str">
-        <v>12 GA</v>
+        <v>0.22"</v>
       </c>
       <c r="G149" t="str">
-        <v>BROWNING</v>
+        <v>COLT</v>
       </c>
       <c r="H149" t="str">
-        <v>WHITE LIGHTNING</v>
+        <v>WOODSMAN</v>
       </c>
       <c r="I149" t="str">
-        <v>10847MN</v>
+        <v>32288-S</v>
       </c>
       <c r="J149" t="str">
-        <v>B 613225</v>
+        <v>B 612475</v>
       </c>
       <c r="K149" t="str">
         <v>tiro</v>
@@ -6099,16 +6099,16 @@
         <v>12 GA</v>
       </c>
       <c r="G150" t="str">
-        <v>ATA ARMS</v>
+        <v>BROWNING</v>
       </c>
       <c r="H150" t="str">
-        <v>MAX 5</v>
+        <v>FUSION EVOLVE</v>
       </c>
       <c r="I150" t="str">
-        <v>16/D09919</v>
+        <v>113MP16287</v>
       </c>
       <c r="J150" t="str">
-        <v>B 613229</v>
+        <v>B 613227</v>
       </c>
       <c r="K150" t="str">
         <v>tiro</v>
@@ -6134,19 +6134,19 @@
         <v>ESCOPETA</v>
       </c>
       <c r="F151" t="str">
-        <v>20 GA</v>
+        <v>12 GA</v>
       </c>
       <c r="G151" t="str">
         <v>BROWNING</v>
       </c>
       <c r="H151" t="str">
-        <v>SILVER HUNTER</v>
+        <v>WHITE LIGHTNING</v>
       </c>
       <c r="I151" t="str">
-        <v>114ZM05238</v>
+        <v>10847MN</v>
       </c>
       <c r="J151" t="str">
-        <v>B 613226</v>
+        <v>B 613225</v>
       </c>
       <c r="K151" t="str">
         <v>tiro</v>
@@ -6175,16 +6175,16 @@
         <v>12 GA</v>
       </c>
       <c r="G152" t="str">
-        <v>BROWNING</v>
+        <v>ATA ARMS</v>
       </c>
       <c r="H152" t="str">
-        <v>MAXUS</v>
+        <v>MAX 5</v>
       </c>
       <c r="I152" t="str">
-        <v>115ZM17757</v>
+        <v>16/D09919</v>
       </c>
       <c r="J152" t="str">
-        <v>B 613228</v>
+        <v>B 613229</v>
       </c>
       <c r="K152" t="str">
         <v>tiro</v>
@@ -6195,37 +6195,37 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B153" t="str">
-        <v>egpiccolo@gmail.com</v>
+        <v>santiago100100@hotmail.com</v>
       </c>
       <c r="C153" t="str">
-        <v>ERNESTO GONZALEZ PICCOLO</v>
+        <v>SANTIAGO LAMAS RINGENBACH</v>
       </c>
       <c r="D153" t="str">
-        <v>9995328570</v>
+        <v>9993359825</v>
       </c>
       <c r="E153" t="str">
         <v>ESCOPETA</v>
       </c>
       <c r="F153" t="str">
-        <v>12 GA</v>
+        <v>20 GA</v>
       </c>
       <c r="G153" t="str">
-        <v>REMINGTON</v>
+        <v>BROWNING</v>
       </c>
       <c r="H153" t="str">
-        <v>SPR310</v>
+        <v>SILVER HUNTER</v>
       </c>
       <c r="I153" t="str">
-        <v>06277749 R</v>
+        <v>114ZM05238</v>
       </c>
       <c r="J153" t="str">
-        <v>B 613230</v>
+        <v>B 613226</v>
       </c>
       <c r="K153" t="str">
-        <v>N/A</v>
+        <v>tiro</v>
       </c>
       <c r="L153" t="str">
         <v>REGISTRADA</v>
@@ -6233,19 +6233,19 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B154" t="str">
-        <v>egpiccolo@gmail.com</v>
+        <v>santiago100100@hotmail.com</v>
       </c>
       <c r="C154" t="str">
-        <v>ERNESTO GONZALEZ PICCOLO</v>
+        <v>SANTIAGO LAMAS RINGENBACH</v>
       </c>
       <c r="D154" t="str">
-        <v>9995328570</v>
+        <v>9993359825</v>
       </c>
       <c r="E154" t="str">
-        <v>ESCOPETA DOS CAÑONES</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F154" t="str">
         <v>12 GA</v>
@@ -6254,13 +6254,13 @@
         <v>BROWNING</v>
       </c>
       <c r="H154" t="str">
-        <v>CITORI</v>
+        <v>MAXUS</v>
       </c>
       <c r="I154" t="str">
-        <v>108664PT153</v>
+        <v>115ZM17757</v>
       </c>
       <c r="J154" t="str">
-        <v>B612059</v>
+        <v>B 613228</v>
       </c>
       <c r="K154" t="str">
         <v>tiro</v>
@@ -6283,25 +6283,25 @@
         <v>9995328570</v>
       </c>
       <c r="E155" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F155" t="str">
-        <v>0.22"</v>
+        <v>12 GA</v>
       </c>
       <c r="G155" t="str">
-        <v>STAR</v>
+        <v>REMINGTON</v>
       </c>
       <c r="H155" t="str">
-        <v>SIN</v>
+        <v>SPR310</v>
       </c>
       <c r="I155" t="str">
-        <v>808223</v>
+        <v>06277749 R</v>
       </c>
       <c r="J155" t="str">
-        <v>A 3862440</v>
+        <v>B 613230</v>
       </c>
       <c r="K155" t="str">
-        <v>tiro</v>
+        <v>N/A</v>
       </c>
       <c r="L155" t="str">
         <v>REGISTRADA</v>
@@ -6309,34 +6309,34 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B156" t="str">
-        <v>arechiga@jogarplastics.com</v>
+        <v>egpiccolo@gmail.com</v>
       </c>
       <c r="C156" t="str">
-        <v>MARIA FERNANDA GUADALUPE ARECHIGA RAMOS</v>
+        <v>ERNESTO GONZALEZ PICCOLO</v>
       </c>
       <c r="D156" t="str">
-        <v>5537340096</v>
+        <v>9995328570</v>
       </c>
       <c r="E156" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA DOS CAÑONES</v>
       </c>
       <c r="F156" t="str">
-        <v>.380"</v>
+        <v>12 GA</v>
       </c>
       <c r="G156" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>BROWNING</v>
       </c>
       <c r="H156" t="str">
-        <v>CZ P-07</v>
+        <v>CITORI</v>
       </c>
       <c r="I156" t="str">
-        <v>C647155</v>
+        <v>108664PT153</v>
       </c>
       <c r="J156" t="str">
-        <v>B 611940</v>
+        <v>B612059</v>
       </c>
       <c r="K156" t="str">
         <v>tiro</v>
@@ -6347,34 +6347,34 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B157" t="str">
-        <v>arechiga@jogarplastics.com</v>
+        <v>egpiccolo@gmail.com</v>
       </c>
       <c r="C157" t="str">
-        <v>MARIA FERNANDA GUADALUPE ARECHIGA RAMOS</v>
+        <v>ERNESTO GONZALEZ PICCOLO</v>
       </c>
       <c r="D157" t="str">
-        <v>5537340096</v>
+        <v>9995328570</v>
       </c>
       <c r="E157" t="str">
         <v>PISTOLA</v>
       </c>
       <c r="F157" t="str">
-        <v>.380" AUTO</v>
+        <v>0.22"</v>
       </c>
       <c r="G157" t="str">
-        <v>GRAND POWER</v>
+        <v>STAR</v>
       </c>
       <c r="H157" t="str">
-        <v>LP380</v>
+        <v>SIN</v>
       </c>
       <c r="I157" t="str">
-        <v>K078999</v>
+        <v>808223</v>
       </c>
       <c r="J157" t="str">
-        <v>A 3601943</v>
+        <v>A 3862440</v>
       </c>
       <c r="K157" t="str">
         <v>tiro</v>
@@ -6400,19 +6400,19 @@
         <v>PISTOLA</v>
       </c>
       <c r="F158" t="str">
-        <v>.380" AUTO</v>
+        <v>.380"</v>
       </c>
       <c r="G158" t="str">
-        <v>GRAND POWER</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H158" t="str">
-        <v>LP380</v>
+        <v>CZ P-07</v>
       </c>
       <c r="I158" t="str">
-        <v>K084328</v>
+        <v>C647155</v>
       </c>
       <c r="J158" t="str">
-        <v>A3714371</v>
+        <v>B 611940</v>
       </c>
       <c r="K158" t="str">
         <v>tiro</v>
@@ -6423,34 +6423,34 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B159" t="str">
-        <v>gfernandez63@gmail.com</v>
+        <v>arechiga@jogarplastics.com</v>
       </c>
       <c r="C159" t="str">
-        <v>GERARDO ANTONIO FERNÁNDEZ QUIJANO</v>
+        <v>MARIA FERNANDA GUADALUPE ARECHIGA RAMOS</v>
       </c>
       <c r="D159" t="str">
-        <v>9811204947</v>
+        <v>5537340096</v>
       </c>
       <c r="E159" t="str">
         <v>PISTOLA</v>
       </c>
       <c r="F159" t="str">
-        <v>0.380" ACP.</v>
+        <v>.380" AUTO</v>
       </c>
       <c r="G159" t="str">
         <v>GRAND POWER</v>
       </c>
       <c r="H159" t="str">
-        <v>ROXOR</v>
+        <v>LP380</v>
       </c>
       <c r="I159" t="str">
-        <v>K078901</v>
+        <v>K078999</v>
       </c>
       <c r="J159" t="str">
-        <v>B 612621</v>
+        <v>A 3601943</v>
       </c>
       <c r="K159" t="str">
         <v>tiro</v>
@@ -6461,34 +6461,34 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B160" t="str">
-        <v>ridesquens@yahoo.com.mx</v>
+        <v>arechiga@jogarplastics.com</v>
       </c>
       <c r="C160" t="str">
-        <v>RICARDO ALBERTO DESQUENS BONILLA</v>
+        <v>MARIA FERNANDA GUADALUPE ARECHIGA RAMOS</v>
       </c>
       <c r="D160" t="str">
-        <v>9993940909</v>
+        <v>5537340096</v>
       </c>
       <c r="E160" t="str">
         <v>PISTOLA</v>
       </c>
       <c r="F160" t="str">
-        <v>.22 LR</v>
+        <v>.380" AUTO</v>
       </c>
       <c r="G160" t="str">
-        <v>SIG SAUER</v>
+        <v>GRAND POWER</v>
       </c>
       <c r="H160" t="str">
-        <v>P322</v>
+        <v>LP380</v>
       </c>
       <c r="I160" t="str">
-        <v>73A191658</v>
+        <v>K084328</v>
       </c>
       <c r="J160" t="str">
-        <v>A3928749</v>
+        <v>A3714371</v>
       </c>
       <c r="K160" t="str">
         <v>tiro</v>
@@ -6499,34 +6499,34 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B161" t="str">
-        <v>ridesquens@yahoo.com.mx</v>
+        <v>gfernandez63@gmail.com</v>
       </c>
       <c r="C161" t="str">
-        <v>RICARDO ALBERTO DESQUENS BONILLA</v>
+        <v>GERARDO ANTONIO FERNÁNDEZ QUIJANO</v>
       </c>
       <c r="D161" t="str">
-        <v>9993940909</v>
+        <v>9811204947</v>
       </c>
       <c r="E161" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F161" t="str">
-        <v>.22"</v>
+        <v>0.380" ACP.</v>
       </c>
       <c r="G161" t="str">
-        <v>RUGER</v>
+        <v>GRAND POWER</v>
       </c>
       <c r="H161" t="str">
-        <v>10/22</v>
+        <v>ROXOR</v>
       </c>
       <c r="I161" t="str">
-        <v>‭0027-45533‬</v>
+        <v>K078901</v>
       </c>
       <c r="J161" t="str">
-        <v>A3928750</v>
+        <v>B 612621</v>
       </c>
       <c r="K161" t="str">
         <v>tiro</v>
@@ -6549,22 +6549,22 @@
         <v>9993940909</v>
       </c>
       <c r="E162" t="str">
-        <v>ESCOPETA</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F162" t="str">
-        <v>12 GA</v>
+        <v>.22 LR</v>
       </c>
       <c r="G162" t="str">
-        <v>RETAY</v>
+        <v>SIG SAUER</v>
       </c>
       <c r="H162" t="str">
-        <v>GPSX</v>
+        <v>P322</v>
       </c>
       <c r="I162" t="str">
-        <v>73-H24PT-000150</v>
+        <v>73A191658</v>
       </c>
       <c r="J162" t="str">
-        <v>A3888062</v>
+        <v>A3928749</v>
       </c>
       <c r="K162" t="str">
         <v>tiro</v>
@@ -6587,22 +6587,22 @@
         <v>9993940909</v>
       </c>
       <c r="E163" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F163" t="str">
-        <v>.380"</v>
+        <v>.22"</v>
       </c>
       <c r="G163" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>RUGER</v>
       </c>
       <c r="H163" t="str">
-        <v>C Z P-10 C</v>
+        <v>10/22</v>
       </c>
       <c r="I163" t="str">
-        <v>FP45007</v>
+        <v>‭0027-45533‬</v>
       </c>
       <c r="J163" t="str">
-        <v>A3928748</v>
+        <v>A3928750</v>
       </c>
       <c r="K163" t="str">
         <v>tiro</v>
@@ -6625,22 +6625,22 @@
         <v>9993940909</v>
       </c>
       <c r="E164" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F164" t="str">
-        <v>.22"</v>
+        <v>12 GA</v>
       </c>
       <c r="G164" t="str">
-        <v>MENDOZA</v>
+        <v>RETAY</v>
       </c>
       <c r="H164" t="str">
-        <v>PUMA</v>
+        <v>GPSX</v>
       </c>
       <c r="I164" t="str">
-        <v>RM2403464</v>
+        <v>73-H24PT-000150</v>
       </c>
       <c r="J164" t="str">
-        <v>A3888060</v>
+        <v>A3888062</v>
       </c>
       <c r="K164" t="str">
         <v>tiro</v>
@@ -6672,13 +6672,13 @@
         <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H165" t="str">
-        <v>CZ SHADOW 2</v>
+        <v>C Z P-10 C</v>
       </c>
       <c r="I165" t="str">
-        <v>EP35129</v>
+        <v>FP45007</v>
       </c>
       <c r="J165" t="str">
-        <v>A3888058</v>
+        <v>A3928748</v>
       </c>
       <c r="K165" t="str">
         <v>tiro</v>
@@ -6689,34 +6689,34 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B166" t="str">
-        <v>martinezasergio@hotmail.com</v>
+        <v>ridesquens@yahoo.com.mx</v>
       </c>
       <c r="C166" t="str">
-        <v>SERGIO FERNANDO MARTINEZ AGUILAR</v>
+        <v>RICARDO ALBERTO DESQUENS BONILLA</v>
       </c>
       <c r="D166" t="str">
-        <v>9831549084</v>
+        <v>9993940909</v>
       </c>
       <c r="E166" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F166" t="str">
-        <v>12 GA</v>
+        <v>.22"</v>
       </c>
       <c r="G166" t="str">
-        <v>RETAY</v>
+        <v>MENDOZA</v>
       </c>
       <c r="H166" t="str">
-        <v>GORDION</v>
+        <v>PUMA</v>
       </c>
       <c r="I166" t="str">
-        <v>73-H21YT-002866</v>
+        <v>RM2403464</v>
       </c>
       <c r="J166" t="str">
-        <v>A3928753</v>
+        <v>A3888060</v>
       </c>
       <c r="K166" t="str">
         <v>tiro</v>
@@ -6727,34 +6727,34 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B167" t="str">
-        <v>martinezasergio@hotmail.com</v>
+        <v>ridesquens@yahoo.com.mx</v>
       </c>
       <c r="C167" t="str">
-        <v>SERGIO FERNANDO MARTINEZ AGUILAR</v>
+        <v>RICARDO ALBERTO DESQUENS BONILLA</v>
       </c>
       <c r="D167" t="str">
-        <v>9831549084</v>
+        <v>9993940909</v>
       </c>
       <c r="E167" t="str">
         <v>PISTOLA</v>
       </c>
       <c r="F167" t="str">
-        <v>.22"</v>
+        <v>.380"</v>
       </c>
       <c r="G167" t="str">
-        <v>BROWNING</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H167" t="str">
-        <v>BUCKMARK CONTOUR</v>
+        <v>CZ SHADOW 2</v>
       </c>
       <c r="I167" t="str">
-        <v>US515YV02463</v>
+        <v>EP35129</v>
       </c>
       <c r="J167" t="str">
-        <v>A3928755</v>
+        <v>A3888058</v>
       </c>
       <c r="K167" t="str">
         <v>tiro</v>
@@ -6777,22 +6777,22 @@
         <v>9831549084</v>
       </c>
       <c r="E168" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F168" t="str">
-        <v>.380"</v>
+        <v>12 GA</v>
       </c>
       <c r="G168" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>RETAY</v>
       </c>
       <c r="H168" t="str">
-        <v>C Z P-10 C</v>
+        <v>GORDION</v>
       </c>
       <c r="I168" t="str">
-        <v>FP45008</v>
+        <v>73-H21YT-002866</v>
       </c>
       <c r="J168" t="str">
-        <v>A3928754</v>
+        <v>A3928753</v>
       </c>
       <c r="K168" t="str">
         <v>tiro</v>
@@ -6803,34 +6803,34 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B169" t="str">
-        <v>arobert01@protonmail.com</v>
+        <v>martinezasergio@hotmail.com</v>
       </c>
       <c r="C169" t="str">
-        <v>ALEJANDRO OLIVER ROBERT EASTMOND</v>
+        <v>SERGIO FERNANDO MARTINEZ AGUILAR</v>
       </c>
       <c r="D169" t="str">
-        <v>9999967145</v>
+        <v>9831549084</v>
       </c>
       <c r="E169" t="str">
-        <v>ESCOPETA</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F169" t="str">
-        <v>20 GA</v>
+        <v>.22"</v>
       </c>
       <c r="G169" t="str">
-        <v>WINCHESTER</v>
+        <v>BROWNING</v>
       </c>
       <c r="H169" t="str">
-        <v>NATERAS</v>
+        <v>BUCKMARK CONTOUR</v>
       </c>
       <c r="I169" t="str">
-        <v>L 3026227</v>
+        <v>US515YV02463</v>
       </c>
       <c r="J169" t="str">
-        <v>B575731</v>
+        <v>A3928755</v>
       </c>
       <c r="K169" t="str">
         <v>tiro</v>
@@ -6841,34 +6841,34 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B170" t="str">
-        <v>arobert01@protonmail.com</v>
+        <v>martinezasergio@hotmail.com</v>
       </c>
       <c r="C170" t="str">
-        <v>ALEJANDRO OLIVER ROBERT EASTMOND</v>
+        <v>SERGIO FERNANDO MARTINEZ AGUILAR</v>
       </c>
       <c r="D170" t="str">
-        <v>9999967145</v>
+        <v>9831549084</v>
       </c>
       <c r="E170" t="str">
-        <v>ESCOPETA</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F170" t="str">
-        <v>12 GA</v>
+        <v>.380"</v>
       </c>
       <c r="G170" t="str">
-        <v>FRANCHI</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H170" t="str">
-        <v>BARRAGE SPORTING</v>
+        <v>C Z P-10 C</v>
       </c>
       <c r="I170" t="str">
-        <v>S004083S</v>
+        <v>FP45008</v>
       </c>
       <c r="J170" t="str">
-        <v>B575399</v>
+        <v>A3928754</v>
       </c>
       <c r="K170" t="str">
         <v>tiro</v>
@@ -6891,22 +6891,22 @@
         <v>9999967145</v>
       </c>
       <c r="E171" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F171" t="str">
-        <v>0.380" ACP</v>
+        <v>20 GA</v>
       </c>
       <c r="G171" t="str">
-        <v>GLOCK</v>
+        <v>WINCHESTER</v>
       </c>
       <c r="H171" t="str">
-        <v>25</v>
+        <v>NATERAS</v>
       </c>
       <c r="I171" t="str">
-        <v>BAYK183</v>
+        <v>L 3026227</v>
       </c>
       <c r="J171" t="str">
-        <v>B631118</v>
+        <v>B575731</v>
       </c>
       <c r="K171" t="str">
         <v>tiro</v>
@@ -6917,34 +6917,34 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B172" t="str">
-        <v>olga.garcia@mayaseguridad.mx</v>
+        <v>arobert01@protonmail.com</v>
       </c>
       <c r="C172" t="str">
-        <v>JUAN CARLOS RAMIREZ GOMEZ</v>
+        <v>ALEJANDRO OLIVER ROBERT EASTMOND</v>
       </c>
       <c r="D172" t="str">
-        <v>5543426160</v>
+        <v>9999967145</v>
       </c>
       <c r="E172" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F172" t="str">
-        <v>.380"</v>
+        <v>12 GA</v>
       </c>
       <c r="G172" t="str">
-        <v>GLOCK</v>
+        <v>FRANCHI</v>
       </c>
       <c r="H172" t="str">
-        <v>25</v>
+        <v>BARRAGE SPORTING</v>
       </c>
       <c r="I172" t="str">
-        <v>BAMD268</v>
+        <v>S004083S</v>
       </c>
       <c r="J172" t="str">
-        <v>F 243199</v>
+        <v>B575399</v>
       </c>
       <c r="K172" t="str">
         <v>tiro</v>
@@ -6955,54 +6955,54 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B173" t="str">
-        <v>gocaamal@hotmail.com</v>
+        <v>arobert01@protonmail.com</v>
       </c>
       <c r="C173" t="str">
-        <v>GADDI OTHONIEL CAAMAL PUC</v>
+        <v>ALEJANDRO OLIVER ROBERT EASTMOND</v>
       </c>
       <c r="D173" t="str">
-        <v>4431302953</v>
+        <v>9999967145</v>
       </c>
       <c r="E173" t="str">
-        <v>-</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F173" t="str">
-        <v>-</v>
+        <v>0.380" ACP</v>
       </c>
       <c r="G173" t="str">
-        <v>-</v>
+        <v>GLOCK</v>
       </c>
       <c r="H173" t="str">
-        <v>-</v>
+        <v>25</v>
       </c>
       <c r="I173" t="str">
-        <v>-</v>
+        <v>BAYK183</v>
       </c>
       <c r="J173" t="str">
-        <v>-</v>
+        <v>B631118</v>
       </c>
       <c r="K173" t="str">
-        <v>-</v>
+        <v>tiro</v>
       </c>
       <c r="L173" t="str">
-        <v>SIN ARMAS</v>
+        <v>REGISTRADA</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B174" t="str">
-        <v>guidorcuevasabraham@gmail.com</v>
+        <v>olga.garcia@mayaseguridad.mx</v>
       </c>
       <c r="C174" t="str">
-        <v>GUIDO RENY CUEVAS ABRAHAM</v>
+        <v>JUAN CARLOS RAMIREZ GOMEZ</v>
       </c>
       <c r="D174" t="str">
-        <v>9993354270</v>
+        <v>5543426160</v>
       </c>
       <c r="E174" t="str">
         <v>PISTOLA</v>
@@ -7017,10 +7017,10 @@
         <v>25</v>
       </c>
       <c r="I174" t="str">
-        <v>CCXC253</v>
+        <v>BAMD268</v>
       </c>
       <c r="J174" t="str">
-        <v>A3897404</v>
+        <v>F 243199</v>
       </c>
       <c r="K174" t="str">
         <v>tiro</v>
@@ -7031,92 +7031,92 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B175" t="str">
-        <v>guidorcuevasabraham@gmail.com</v>
+        <v>gocaamal@hotmail.com</v>
       </c>
       <c r="C175" t="str">
-        <v>GUIDO RENY CUEVAS ABRAHAM</v>
+        <v>GADDI OTHONIEL CAAMAL PUC</v>
       </c>
       <c r="D175" t="str">
-        <v>9993354270</v>
+        <v>4431302953</v>
       </c>
       <c r="E175" t="str">
-        <v>PISTOLA</v>
+        <v>-</v>
       </c>
       <c r="F175" t="str">
-        <v>.380"</v>
+        <v>-</v>
       </c>
       <c r="G175" t="str">
-        <v>GLOCK</v>
+        <v>-</v>
       </c>
       <c r="H175" t="str">
-        <v>25</v>
+        <v>-</v>
       </c>
       <c r="I175" t="str">
-        <v>CENT504</v>
+        <v>-</v>
       </c>
       <c r="J175" t="str">
-        <v>A3897403</v>
+        <v>-</v>
       </c>
       <c r="K175" t="str">
-        <v>tiro</v>
+        <v>-</v>
       </c>
       <c r="L175" t="str">
-        <v>REGISTRADA</v>
+        <v>SIN ARMAS</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B176" t="str">
-        <v>santiagorueda2@gmail.com</v>
+        <v>guidorcuevasabraham@gmail.com</v>
       </c>
       <c r="C176" t="str">
-        <v>SANTIAGO RUEDA ESCOBEDO</v>
+        <v>GUIDO RENY CUEVAS ABRAHAM</v>
       </c>
       <c r="D176" t="str">
-        <v>9381526811</v>
+        <v>9993354270</v>
       </c>
       <c r="E176" t="str">
-        <v>-</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F176" t="str">
-        <v>-</v>
+        <v>.380"</v>
       </c>
       <c r="G176" t="str">
-        <v>-</v>
+        <v>GLOCK</v>
       </c>
       <c r="H176" t="str">
-        <v>-</v>
+        <v>25</v>
       </c>
       <c r="I176" t="str">
-        <v>-</v>
+        <v>CCXC253</v>
       </c>
       <c r="J176" t="str">
-        <v>-</v>
+        <v>A3897404</v>
       </c>
       <c r="K176" t="str">
-        <v>-</v>
+        <v>tiro</v>
       </c>
       <c r="L176" t="str">
-        <v>SIN ARMAS</v>
+        <v>REGISTRADA</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B177" t="str">
-        <v>ivancabo@gmail.com</v>
+        <v>guidorcuevasabraham@gmail.com</v>
       </c>
       <c r="C177" t="str">
-        <v>IVAN TSUIS CABO TORRES</v>
+        <v>GUIDO RENY CUEVAS ABRAHAM</v>
       </c>
       <c r="D177" t="str">
-        <v>9992315040</v>
+        <v>9993354270</v>
       </c>
       <c r="E177" t="str">
         <v>PISTOLA</v>
@@ -7125,16 +7125,16 @@
         <v>.380"</v>
       </c>
       <c r="G177" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>GLOCK</v>
       </c>
       <c r="H177" t="str">
-        <v>CZ P-10 C</v>
+        <v>25</v>
       </c>
       <c r="I177" t="str">
-        <v>DP23540</v>
+        <v>CENT504</v>
       </c>
       <c r="J177" t="str">
-        <v>A3779516</v>
+        <v>A3897403</v>
       </c>
       <c r="K177" t="str">
         <v>tiro</v>
@@ -7145,40 +7145,40 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B178" t="str">
-        <v>ivancabo@gmail.com</v>
+        <v>santiagorueda2@gmail.com</v>
       </c>
       <c r="C178" t="str">
-        <v>IVAN TSUIS CABO TORRES</v>
+        <v>SANTIAGO RUEDA ESCOBEDO</v>
       </c>
       <c r="D178" t="str">
-        <v>9992315040</v>
+        <v>9381526811</v>
       </c>
       <c r="E178" t="str">
-        <v>ESCOPETA</v>
+        <v>-</v>
       </c>
       <c r="F178" t="str">
-        <v>12 GA</v>
+        <v>-</v>
       </c>
       <c r="G178" t="str">
-        <v>RETAY</v>
+        <v>-</v>
       </c>
       <c r="H178" t="str">
-        <v>GORDION</v>
+        <v>-</v>
       </c>
       <c r="I178" t="str">
-        <v>73-H21YT-001717</v>
+        <v>-</v>
       </c>
       <c r="J178" t="str">
-        <v>A3905284</v>
+        <v>-</v>
       </c>
       <c r="K178" t="str">
-        <v>caza</v>
+        <v>-</v>
       </c>
       <c r="L178" t="str">
-        <v>REGISTRADA</v>
+        <v>SIN ARMAS</v>
       </c>
     </row>
     <row r="179">
@@ -7198,19 +7198,19 @@
         <v>PISTOLA</v>
       </c>
       <c r="F179" t="str">
-        <v>.22"</v>
+        <v>.380"</v>
       </c>
       <c r="G179" t="str">
-        <v>BROWNING</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H179" t="str">
-        <v>BUCK</v>
+        <v>CZ P-10 C</v>
       </c>
       <c r="I179" t="str">
-        <v>US515YY19935</v>
+        <v>DP23540</v>
       </c>
       <c r="J179" t="str">
-        <v>A3779515</v>
+        <v>A3779516</v>
       </c>
       <c r="K179" t="str">
         <v>tiro</v>
@@ -7233,25 +7233,25 @@
         <v>9992315040</v>
       </c>
       <c r="E180" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F180" t="str">
-        <v>.22" L.R.</v>
+        <v>12 GA</v>
       </c>
       <c r="G180" t="str">
-        <v>MENDOZA</v>
+        <v>RETAY</v>
       </c>
       <c r="H180" t="str">
-        <v>PUMA</v>
+        <v>GORDION</v>
       </c>
       <c r="I180" t="str">
-        <v>27280</v>
+        <v>73-H21YT-001717</v>
       </c>
       <c r="J180" t="str">
-        <v>A3779518</v>
+        <v>A3905284</v>
       </c>
       <c r="K180" t="str">
-        <v>tiro</v>
+        <v>caza</v>
       </c>
       <c r="L180" t="str">
         <v>REGISTRADA</v>
@@ -7274,19 +7274,19 @@
         <v>PISTOLA</v>
       </c>
       <c r="F181" t="str">
-        <v>.380"</v>
+        <v>.22"</v>
       </c>
       <c r="G181" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>BROWNING</v>
       </c>
       <c r="H181" t="str">
-        <v>SHADOW 2</v>
+        <v>BUCK</v>
       </c>
       <c r="I181" t="str">
-        <v>FP40104</v>
+        <v>US515YY19935</v>
       </c>
       <c r="J181" t="str">
-        <v>A3901317</v>
+        <v>A3779515</v>
       </c>
       <c r="K181" t="str">
         <v>tiro</v>
@@ -7297,116 +7297,116 @@
     </row>
     <row r="182">
       <c r="A182">
+        <v>222</v>
+      </c>
+      <c r="B182" t="str">
+        <v>ivancabo@gmail.com</v>
+      </c>
+      <c r="C182" t="str">
+        <v>IVAN TSUIS CABO TORRES</v>
+      </c>
+      <c r="D182" t="str">
+        <v>9992315040</v>
+      </c>
+      <c r="E182" t="str">
+        <v>RIFLE</v>
+      </c>
+      <c r="F182" t="str">
+        <v>.22" L.R.</v>
+      </c>
+      <c r="G182" t="str">
+        <v>MENDOZA</v>
+      </c>
+      <c r="H182" t="str">
+        <v>PUMA</v>
+      </c>
+      <c r="I182" t="str">
+        <v>27280</v>
+      </c>
+      <c r="J182" t="str">
+        <v>A3779518</v>
+      </c>
+      <c r="K182" t="str">
+        <v>tiro</v>
+      </c>
+      <c r="L182" t="str">
+        <v>REGISTRADA</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>222</v>
+      </c>
+      <c r="B183" t="str">
+        <v>ivancabo@gmail.com</v>
+      </c>
+      <c r="C183" t="str">
+        <v>IVAN TSUIS CABO TORRES</v>
+      </c>
+      <c r="D183" t="str">
+        <v>9992315040</v>
+      </c>
+      <c r="E183" t="str">
+        <v>PISTOLA</v>
+      </c>
+      <c r="F183" t="str">
+        <v>.380"</v>
+      </c>
+      <c r="G183" t="str">
+        <v>CESKA ZBROJOVKA</v>
+      </c>
+      <c r="H183" t="str">
+        <v>SHADOW 2</v>
+      </c>
+      <c r="I183" t="str">
+        <v>FP40104</v>
+      </c>
+      <c r="J183" t="str">
+        <v>A3901317</v>
+      </c>
+      <c r="K183" t="str">
+        <v>tiro</v>
+      </c>
+      <c r="L183" t="str">
+        <v>REGISTRADA</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
         <v>223</v>
       </c>
-      <c r="B182" t="str">
+      <c r="B184" t="str">
         <v>alejandro18sosa@gmail.com</v>
       </c>
-      <c r="C182" t="str">
+      <c r="C184" t="str">
         <v>JESUS ALEJANDRO PUC SOSA</v>
       </c>
-      <c r="D182" t="str">
+      <c r="D184" t="str">
         <v>9993778311</v>
       </c>
-      <c r="E182" t="str">
+      <c r="E184" t="str">
         <v>-</v>
       </c>
-      <c r="F182" t="str">
+      <c r="F184" t="str">
         <v>-</v>
       </c>
-      <c r="G182" t="str">
+      <c r="G184" t="str">
         <v>-</v>
       </c>
-      <c r="H182" t="str">
+      <c r="H184" t="str">
         <v>-</v>
       </c>
-      <c r="I182" t="str">
+      <c r="I184" t="str">
         <v>-</v>
       </c>
-      <c r="J182" t="str">
+      <c r="J184" t="str">
         <v>-</v>
       </c>
-      <c r="K182" t="str">
+      <c r="K184" t="str">
         <v>-</v>
       </c>
-      <c r="L182" t="str">
+      <c r="L184" t="str">
         <v>SIN ARMAS</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="str">
-        <v>224</v>
-      </c>
-      <c r="B183" t="str">
-        <v>jgheredia@hotmail.com</v>
-      </c>
-      <c r="C183" t="str">
-        <v>JOSE GIL HEREDIA HAGAR</v>
-      </c>
-      <c r="D183" t="str">
-        <v>'9999001366</v>
-      </c>
-      <c r="E183" t="str">
-        <v>RIFLE</v>
-      </c>
-      <c r="F183" t="str">
-        <v>.22" L.R.</v>
-      </c>
-      <c r="G183" t="str">
-        <v>CHIAPPA FIREARMS</v>
-      </c>
-      <c r="H183" t="str">
-        <v>MFOUR-22</v>
-      </c>
-      <c r="I183" t="str">
-        <v>19A00758</v>
-      </c>
-      <c r="J183" t="str">
-        <v>A3586246</v>
-      </c>
-      <c r="K183" t="str">
-        <v>tiro</v>
-      </c>
-      <c r="L183" t="str">
-        <v>REGISTRADA</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="str">
-        <v>224</v>
-      </c>
-      <c r="B184" t="str">
-        <v>jgheredia@hotmail.com</v>
-      </c>
-      <c r="C184" t="str">
-        <v>JOSE GIL HEREDIA HAGAR</v>
-      </c>
-      <c r="D184" t="str">
-        <v>'9999001366</v>
-      </c>
-      <c r="E184" t="str">
-        <v>PISTOLA</v>
-      </c>
-      <c r="F184" t="str">
-        <v>.380"</v>
-      </c>
-      <c r="G184" t="str">
-        <v>CESKA ZBROJOVKA</v>
-      </c>
-      <c r="H184" t="str">
-        <v>CZ SHADOW 2</v>
-      </c>
-      <c r="I184" t="str">
-        <v>DP25317</v>
-      </c>
-      <c r="J184" t="str">
-        <v>A3793355</v>
-      </c>
-      <c r="K184" t="str">
-        <v>tiro</v>
-      </c>
-      <c r="L184" t="str">
-        <v>REGISTRADA</v>
       </c>
     </row>
     <row r="185">
@@ -7423,22 +7423,22 @@
         <v>'9999001366</v>
       </c>
       <c r="E185" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F185" t="str">
-        <v>.380"</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G185" t="str">
-        <v>GLOCK</v>
+        <v>CHIAPPA FIREARMS</v>
       </c>
       <c r="H185" t="str">
-        <v>25</v>
+        <v>MFOUR-22</v>
       </c>
       <c r="I185" t="str">
-        <v>BLCC322</v>
+        <v>19A00758</v>
       </c>
       <c r="J185" t="str">
-        <v>A3586249</v>
+        <v>A3586246</v>
       </c>
       <c r="K185" t="str">
         <v>tiro</v>
@@ -7467,16 +7467,16 @@
         <v>.380"</v>
       </c>
       <c r="G186" t="str">
-        <v>SIG SAUER</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H186" t="str">
-        <v>P365</v>
+        <v>CZ SHADOW 2</v>
       </c>
       <c r="I186" t="str">
-        <v>66F398918</v>
+        <v>DP25317</v>
       </c>
       <c r="J186" t="str">
-        <v>A3793356</v>
+        <v>A3793355</v>
       </c>
       <c r="K186" t="str">
         <v>tiro</v>
@@ -7502,19 +7502,19 @@
         <v>PISTOLA</v>
       </c>
       <c r="F187" t="str">
-        <v>.22"</v>
+        <v>.380"</v>
       </c>
       <c r="G187" t="str">
-        <v>GRAND POWER</v>
+        <v>GLOCK</v>
       </c>
       <c r="H187" t="str">
-        <v>K22</v>
+        <v>25</v>
       </c>
       <c r="I187" t="str">
-        <v>K084513</v>
+        <v>BLCC322</v>
       </c>
       <c r="J187" t="str">
-        <v>A3725153</v>
+        <v>A3586249</v>
       </c>
       <c r="K187" t="str">
         <v>tiro</v>
@@ -7537,22 +7537,22 @@
         <v>'9999001366</v>
       </c>
       <c r="E188" t="str">
-        <v>REVOLVER</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F188" t="str">
-        <v>0.22" L.R.</v>
+        <v>.380"</v>
       </c>
       <c r="G188" t="str">
-        <v>H&amp;R</v>
+        <v>SIG SAUER</v>
       </c>
       <c r="H188" t="str">
-        <v>929</v>
+        <v>P365</v>
       </c>
       <c r="I188" t="str">
-        <v>AG11090</v>
+        <v>66F398918</v>
       </c>
       <c r="J188" t="str">
-        <v>A3422000</v>
+        <v>A3793356</v>
       </c>
       <c r="K188" t="str">
         <v>tiro</v>
@@ -7578,19 +7578,19 @@
         <v>PISTOLA</v>
       </c>
       <c r="F189" t="str">
-        <v>.380"</v>
+        <v>.22"</v>
       </c>
       <c r="G189" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>GRAND POWER</v>
       </c>
       <c r="H189" t="str">
-        <v>CZ SHADOW 2</v>
+        <v>K22</v>
       </c>
       <c r="I189" t="str">
-        <v>DP25316</v>
+        <v>K084513</v>
       </c>
       <c r="J189" t="str">
-        <v>A3793354</v>
+        <v>A3725153</v>
       </c>
       <c r="K189" t="str">
         <v>tiro</v>
@@ -7600,35 +7600,35 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190">
-        <v>225</v>
+      <c r="A190" t="str">
+        <v>224</v>
       </c>
       <c r="B190" t="str">
-        <v>squintal158@gmail.com</v>
+        <v>jgheredia@hotmail.com</v>
       </c>
       <c r="C190" t="str">
-        <v>SANTIAGO ALEJANDRO QUINTAL PAREDES</v>
+        <v>JOSE GIL HEREDIA HAGAR</v>
       </c>
       <c r="D190" t="str">
-        <v>9995759542</v>
+        <v>'9999001366</v>
       </c>
       <c r="E190" t="str">
-        <v>ESCOPETA SEMIAUTOMATICA</v>
+        <v>REVOLVER</v>
       </c>
       <c r="F190" t="str">
-        <v>12 GA</v>
+        <v>0.22" L.R.</v>
       </c>
       <c r="G190" t="str">
-        <v>BREDA</v>
+        <v>H&amp;R</v>
       </c>
       <c r="H190" t="str">
-        <v>TITANIO</v>
+        <v>929</v>
       </c>
       <c r="I190" t="str">
-        <v>BA 12657</v>
+        <v>AG11090</v>
       </c>
       <c r="J190" t="str">
-        <v>A3916935</v>
+        <v>A3422000</v>
       </c>
       <c r="K190" t="str">
         <v>tiro</v>
@@ -7638,17 +7638,17 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191">
-        <v>225</v>
+      <c r="A191" t="str">
+        <v>224</v>
       </c>
       <c r="B191" t="str">
-        <v>squintal158@gmail.com</v>
+        <v>jgheredia@hotmail.com</v>
       </c>
       <c r="C191" t="str">
-        <v>SANTIAGO ALEJANDRO QUINTAL PAREDES</v>
+        <v>JOSE GIL HEREDIA HAGAR</v>
       </c>
       <c r="D191" t="str">
-        <v>9995759542</v>
+        <v>'9999001366</v>
       </c>
       <c r="E191" t="str">
         <v>PISTOLA</v>
@@ -7663,10 +7663,10 @@
         <v>CZ SHADOW 2</v>
       </c>
       <c r="I191" t="str">
-        <v>FP41102</v>
+        <v>DP25316</v>
       </c>
       <c r="J191" t="str">
-        <v>A3916933</v>
+        <v>A3793354</v>
       </c>
       <c r="K191" t="str">
         <v>tiro</v>
@@ -7689,22 +7689,22 @@
         <v>9995759542</v>
       </c>
       <c r="E192" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA SEMIAUTOMATICA</v>
       </c>
       <c r="F192" t="str">
-        <v>.22" L.R.</v>
+        <v>12 GA</v>
       </c>
       <c r="G192" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>BREDA</v>
       </c>
       <c r="H192" t="str">
-        <v>CZ 457 MTR</v>
+        <v>TITANIO</v>
       </c>
       <c r="I192" t="str">
-        <v>J002602</v>
+        <v>BA 12657</v>
       </c>
       <c r="J192" t="str">
-        <v>A3916936</v>
+        <v>A3916935</v>
       </c>
       <c r="K192" t="str">
         <v>tiro</v>
@@ -7715,34 +7715,34 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B193" t="str">
-        <v>atietzbabam@gmail.com</v>
+        <v>squintal158@gmail.com</v>
       </c>
       <c r="C193" t="str">
-        <v>ARIEL BALTAZAR CÓRDOBA WILSON</v>
+        <v>SANTIAGO ALEJANDRO QUINTAL PAREDES</v>
       </c>
       <c r="D193" t="str">
-        <v>9992003314</v>
+        <v>9995759542</v>
       </c>
       <c r="E193" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F193" t="str">
-        <v>.22" L.R.</v>
+        <v>.380"</v>
       </c>
       <c r="G193" t="str">
-        <v>MENDOZA</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H193" t="str">
-        <v>PUMA</v>
+        <v>CZ SHADOW 2</v>
       </c>
       <c r="I193" t="str">
-        <v>42722</v>
+        <v>FP41102</v>
       </c>
       <c r="J193" t="str">
-        <v>A3848750</v>
+        <v>A3916933</v>
       </c>
       <c r="K193" t="str">
         <v>tiro</v>
@@ -7753,34 +7753,34 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B194" t="str">
-        <v>atietzbabam@gmail.com</v>
+        <v>squintal158@gmail.com</v>
       </c>
       <c r="C194" t="str">
-        <v>ARIEL BALTAZAR CÓRDOBA WILSON</v>
+        <v>SANTIAGO ALEJANDRO QUINTAL PAREDES</v>
       </c>
       <c r="D194" t="str">
-        <v>9992003314</v>
+        <v>9995759542</v>
       </c>
       <c r="E194" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F194" t="str">
-        <v>12 GA</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G194" t="str">
-        <v>RETAY</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H194" t="str">
-        <v>MASAY MARA</v>
+        <v>CZ 457 MTR</v>
       </c>
       <c r="I194" t="str">
-        <v>73-H23YT-005654</v>
+        <v>J002602</v>
       </c>
       <c r="J194" t="str">
-        <v>A3888062</v>
+        <v>A3916936</v>
       </c>
       <c r="K194" t="str">
         <v>tiro</v>
@@ -7803,22 +7803,22 @@
         <v>9992003314</v>
       </c>
       <c r="E195" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F195" t="str">
-        <v>.380" AUTO</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G195" t="str">
-        <v>GRAND POWER</v>
+        <v>MENDOZA</v>
       </c>
       <c r="H195" t="str">
-        <v>LP380</v>
+        <v>PUMA</v>
       </c>
       <c r="I195" t="str">
-        <v>K102854</v>
+        <v>42722</v>
       </c>
       <c r="J195" t="str">
-        <v>A385379</v>
+        <v>A3848750</v>
       </c>
       <c r="K195" t="str">
         <v>tiro</v>
@@ -7841,22 +7841,22 @@
         <v>9992003314</v>
       </c>
       <c r="E196" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F196" t="str">
-        <v>0.223" REM.</v>
+        <v>12 GA</v>
       </c>
       <c r="G196" t="str">
-        <v>BENELLI</v>
+        <v>RETAY</v>
       </c>
       <c r="H196" t="str">
-        <v>MR1</v>
+        <v>MASAY MARA</v>
       </c>
       <c r="I196" t="str">
-        <v>BC013587R</v>
+        <v>73-H23YT-005654</v>
       </c>
       <c r="J196" t="str">
-        <v>A3853877</v>
+        <v>A3888062</v>
       </c>
       <c r="K196" t="str">
         <v>tiro</v>
@@ -7882,19 +7882,19 @@
         <v>PISTOLA</v>
       </c>
       <c r="F197" t="str">
-        <v>0.380"</v>
+        <v>.380" AUTO</v>
       </c>
       <c r="G197" t="str">
-        <v>GLOCK</v>
+        <v>GRAND POWER</v>
       </c>
       <c r="H197" t="str">
-        <v>25</v>
+        <v>LP380</v>
       </c>
       <c r="I197" t="str">
-        <v>UGL153</v>
+        <v>K102854</v>
       </c>
       <c r="J197" t="str">
-        <v>A3267256</v>
+        <v>A385379</v>
       </c>
       <c r="K197" t="str">
         <v>tiro</v>
@@ -7929,10 +7929,10 @@
         <v>MR1</v>
       </c>
       <c r="I198" t="str">
-        <v>BC013586P</v>
+        <v>BC013587R</v>
       </c>
       <c r="J198" t="str">
-        <v>A3853878</v>
+        <v>A3853877</v>
       </c>
       <c r="K198" t="str">
         <v>tiro</v>
@@ -7958,19 +7958,19 @@
         <v>PISTOLA</v>
       </c>
       <c r="F199" t="str">
-        <v>.380"</v>
+        <v>0.380"</v>
       </c>
       <c r="G199" t="str">
-        <v>BERSA</v>
+        <v>GLOCK</v>
       </c>
       <c r="H199" t="str">
-        <v>THUNDER 380 COMBAT</v>
+        <v>25</v>
       </c>
       <c r="I199" t="str">
-        <v>M58492</v>
+        <v>UGL153</v>
       </c>
       <c r="J199" t="str">
-        <v>A3832011</v>
+        <v>A3267256</v>
       </c>
       <c r="K199" t="str">
         <v>tiro</v>
@@ -7981,72 +7981,72 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B200" t="str">
-        <v>ttok09136@gmail.com</v>
+        <v>atietzbabam@gmail.com</v>
       </c>
       <c r="C200" t="str">
-        <v>KRISZTIAN GOR</v>
+        <v>ARIEL BALTAZAR CÓRDOBA WILSON</v>
       </c>
       <c r="D200" t="str">
-        <v>+13213470270</v>
+        <v>9992003314</v>
       </c>
       <c r="E200" t="str">
-        <v>-</v>
+        <v>RIFLE</v>
       </c>
       <c r="F200" t="str">
-        <v>-</v>
+        <v>0.223" REM.</v>
       </c>
       <c r="G200" t="str">
-        <v>-</v>
+        <v>BENELLI</v>
       </c>
       <c r="H200" t="str">
-        <v>-</v>
+        <v>MR1</v>
       </c>
       <c r="I200" t="str">
-        <v>-</v>
+        <v>BC013586P</v>
       </c>
       <c r="J200" t="str">
-        <v>-</v>
+        <v>A3853878</v>
       </c>
       <c r="K200" t="str">
-        <v>-</v>
+        <v>tiro</v>
       </c>
       <c r="L200" t="str">
-        <v>SIN ARMAS</v>
+        <v>REGISTRADA</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B201" t="str">
-        <v>fabian.sievers3548@gmail.com</v>
+        <v>atietzbabam@gmail.com</v>
       </c>
       <c r="C201" t="str">
-        <v>FABIAN MARQUEZ ORTEGA</v>
+        <v>ARIEL BALTAZAR CÓRDOBA WILSON</v>
       </c>
       <c r="D201" t="str">
-        <v>9993772793</v>
+        <v>9992003314</v>
       </c>
       <c r="E201" t="str">
         <v>PISTOLA</v>
       </c>
       <c r="F201" t="str">
-        <v>.22" L.R.</v>
+        <v>.380"</v>
       </c>
       <c r="G201" t="str">
-        <v>BROWNING</v>
+        <v>BERSA</v>
       </c>
       <c r="H201" t="str">
-        <v>BUCKMARK CONTOUR</v>
+        <v>THUNDER 380 COMBAT</v>
       </c>
       <c r="I201" t="str">
-        <v>US515YW33488</v>
+        <v>M58492</v>
       </c>
       <c r="J201" t="str">
-        <v>A3916213</v>
+        <v>A3832011</v>
       </c>
       <c r="K201" t="str">
         <v>tiro</v>
@@ -8057,40 +8057,40 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B202" t="str">
-        <v>fabian.sievers3548@gmail.com</v>
+        <v>ttok09136@gmail.com</v>
       </c>
       <c r="C202" t="str">
-        <v>FABIAN MARQUEZ ORTEGA</v>
+        <v>KRISZTIAN GOR</v>
       </c>
       <c r="D202" t="str">
-        <v>9993772793</v>
+        <v>+13213470270</v>
       </c>
       <c r="E202" t="str">
-        <v>RIFLE</v>
+        <v>-</v>
       </c>
       <c r="F202" t="str">
-        <v>.22" L.R.</v>
+        <v>-</v>
       </c>
       <c r="G202" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>-</v>
       </c>
       <c r="H202" t="str">
-        <v>457 PREMIUM</v>
+        <v>-</v>
       </c>
       <c r="I202" t="str">
-        <v>J011779</v>
+        <v>-</v>
       </c>
       <c r="J202" t="str">
-        <v>A3916216</v>
+        <v>-</v>
       </c>
       <c r="K202" t="str">
-        <v>tiro</v>
+        <v>-</v>
       </c>
       <c r="L202" t="str">
-        <v>REGISTRADA</v>
+        <v>SIN ARMAS</v>
       </c>
     </row>
     <row r="203">
@@ -8110,19 +8110,19 @@
         <v>PISTOLA</v>
       </c>
       <c r="F203" t="str">
-        <v>.380" AUTO</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G203" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>BROWNING</v>
       </c>
       <c r="H203" t="str">
-        <v>CZ P-10 C</v>
+        <v>BUCKMARK CONTOUR</v>
       </c>
       <c r="I203" t="str">
-        <v>EP29797</v>
+        <v>US515YW33488</v>
       </c>
       <c r="J203" t="str">
-        <v>A3916211</v>
+        <v>A3916213</v>
       </c>
       <c r="K203" t="str">
         <v>tiro</v>
@@ -8133,34 +8133,34 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B204" t="str">
-        <v>padilla_079@hotmail.com</v>
+        <v>fabian.sievers3548@gmail.com</v>
       </c>
       <c r="C204" t="str">
-        <v>DANIEL DE JESUS PADILLA ROBLES</v>
+        <v>FABIAN MARQUEZ ORTEGA</v>
       </c>
       <c r="D204" t="str">
-        <v>9991650849</v>
+        <v>9993772793</v>
       </c>
       <c r="E204" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F204" t="str">
-        <v>.380" AUTO</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G204" t="str">
         <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H204" t="str">
-        <v>CZ P-07</v>
+        <v>457 PREMIUM</v>
       </c>
       <c r="I204" t="str">
-        <v>F187917</v>
+        <v>J011779</v>
       </c>
       <c r="J204" t="str">
-        <v>B625008</v>
+        <v>A3916216</v>
       </c>
       <c r="K204" t="str">
         <v>tiro</v>
@@ -8171,34 +8171,34 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B205" t="str">
-        <v>padilla_079@hotmail.com</v>
+        <v>fabian.sievers3548@gmail.com</v>
       </c>
       <c r="C205" t="str">
-        <v>DANIEL DE JESUS PADILLA ROBLES</v>
+        <v>FABIAN MARQUEZ ORTEGA</v>
       </c>
       <c r="D205" t="str">
-        <v>9991650849</v>
+        <v>9993772793</v>
       </c>
       <c r="E205" t="str">
-        <v>REVOLVER</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F205" t="str">
-        <v>.38" SPL.</v>
+        <v>.380" AUTO</v>
       </c>
       <c r="G205" t="str">
-        <v>COLT</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H205" t="str">
-        <v>DETECTIVE</v>
+        <v>CZ P-10 C</v>
       </c>
       <c r="I205" t="str">
-        <v>C02127</v>
+        <v>EP29797</v>
       </c>
       <c r="J205" t="str">
-        <v>B624330</v>
+        <v>A3916211</v>
       </c>
       <c r="K205" t="str">
         <v>tiro</v>
@@ -8221,22 +8221,22 @@
         <v>9991650849</v>
       </c>
       <c r="E206" t="str">
-        <v>ESCOPETA</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F206" t="str">
-        <v>12 GA</v>
+        <v>.380" AUTO</v>
       </c>
       <c r="G206" t="str">
-        <v>ARMSAN</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H206" t="str">
-        <v>P612</v>
+        <v>CZ P-07</v>
       </c>
       <c r="I206" t="str">
-        <v>59-H25PT-000026</v>
+        <v>F187917</v>
       </c>
       <c r="J206" t="str">
-        <v>A3912450</v>
+        <v>B625008</v>
       </c>
       <c r="K206" t="str">
         <v>tiro</v>
@@ -8259,22 +8259,22 @@
         <v>9991650849</v>
       </c>
       <c r="E207" t="str">
-        <v>PISTOLA</v>
+        <v>REVOLVER</v>
       </c>
       <c r="F207" t="str">
-        <v>.22" L.R.</v>
+        <v>.38" SPL.</v>
       </c>
       <c r="G207" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>COLT</v>
       </c>
       <c r="H207" t="str">
-        <v>CZ P-09</v>
+        <v>DETECTIVE</v>
       </c>
       <c r="I207" t="str">
-        <v>AP08758</v>
+        <v>C02127</v>
       </c>
       <c r="J207" t="str">
-        <v>B587694</v>
+        <v>B624330</v>
       </c>
       <c r="K207" t="str">
         <v>tiro</v>
@@ -8297,22 +8297,22 @@
         <v>9991650849</v>
       </c>
       <c r="E208" t="str">
-        <v>PISTOLA</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F208" t="str">
-        <v>.380" AUTO</v>
+        <v>12 GA</v>
       </c>
       <c r="G208" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>ARMSAN</v>
       </c>
       <c r="H208" t="str">
-        <v>CZ P-10 C</v>
+        <v>P612</v>
       </c>
       <c r="I208" t="str">
-        <v>EP29734</v>
+        <v>59-H25PT-000026</v>
       </c>
       <c r="J208" t="str">
-        <v>A3912448</v>
+        <v>A3912450</v>
       </c>
       <c r="K208" t="str">
         <v>tiro</v>
@@ -8335,22 +8335,22 @@
         <v>9991650849</v>
       </c>
       <c r="E209" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F209" t="str">
         <v>.22" L.R.</v>
       </c>
       <c r="G209" t="str">
-        <v>MENDOZA</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H209" t="str">
-        <v>RM22-1000 CENTENARIO</v>
+        <v>CZ P-09</v>
       </c>
       <c r="I209" t="str">
-        <v>RM2515680</v>
+        <v>AP08758</v>
       </c>
       <c r="J209" t="str">
-        <v>A3912449</v>
+        <v>B587694</v>
       </c>
       <c r="K209" t="str">
         <v>tiro</v>
@@ -8361,34 +8361,34 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B210" t="str">
-        <v>rsoberanis11@hotmail.com</v>
+        <v>padilla_079@hotmail.com</v>
       </c>
       <c r="C210" t="str">
-        <v>RICARDO ANTONIO SOBERANIS GAMBOA</v>
+        <v>DANIEL DE JESUS PADILLA ROBLES</v>
       </c>
       <c r="D210" t="str">
-        <v>9993437376</v>
+        <v>9991650849</v>
       </c>
       <c r="E210" t="str">
         <v>PISTOLA</v>
       </c>
       <c r="F210" t="str">
-        <v>22" L.R.</v>
+        <v>.380" AUTO</v>
       </c>
       <c r="G210" t="str">
-        <v>SIG SAUER</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H210" t="str">
-        <v>P322</v>
+        <v>CZ P-10 C</v>
       </c>
       <c r="I210" t="str">
-        <v>73A05683</v>
+        <v>EP29734</v>
       </c>
       <c r="J210" t="str">
-        <v>A3845138</v>
+        <v>A3912448</v>
       </c>
       <c r="K210" t="str">
         <v>tiro</v>
@@ -8399,34 +8399,34 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B211" t="str">
-        <v>rsoberanis11@hotmail.com</v>
+        <v>padilla_079@hotmail.com</v>
       </c>
       <c r="C211" t="str">
-        <v>RICARDO ANTONIO SOBERANIS GAMBOA</v>
+        <v>DANIEL DE JESUS PADILLA ROBLES</v>
       </c>
       <c r="D211" t="str">
-        <v>9993437376</v>
+        <v>9991650849</v>
       </c>
       <c r="E211" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F211" t="str">
-        <v>.380"</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G211" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>MENDOZA</v>
       </c>
       <c r="H211" t="str">
-        <v>P-10 C</v>
+        <v>RM22-1000 CENTENARIO</v>
       </c>
       <c r="I211" t="str">
-        <v>EP29710</v>
+        <v>RM2515680</v>
       </c>
       <c r="J211" t="str">
-        <v>A3912487</v>
+        <v>A3912449</v>
       </c>
       <c r="K211" t="str">
         <v>tiro</v>
@@ -8449,22 +8449,22 @@
         <v>9993437376</v>
       </c>
       <c r="E212" t="str">
-        <v>RIFLE SEMI-AUTOMATICO</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F212" t="str">
         <v>22" L.R.</v>
       </c>
       <c r="G212" t="str">
-        <v>RUGER</v>
+        <v>SIG SAUER</v>
       </c>
       <c r="H212" t="str">
-        <v>10/22</v>
+        <v>P322</v>
       </c>
       <c r="I212" t="str">
-        <v>0014-07080</v>
+        <v>73A05683</v>
       </c>
       <c r="J212" t="str">
-        <v>B624593</v>
+        <v>A3845138</v>
       </c>
       <c r="K212" t="str">
         <v>tiro</v>
@@ -8487,22 +8487,22 @@
         <v>9993437376</v>
       </c>
       <c r="E213" t="str">
-        <v>ESCOPETA DOS CAÑONES</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F213" t="str">
-        <v>20</v>
+        <v>.380"</v>
       </c>
       <c r="G213" t="str">
-        <v>J.B. RONGE FILF A LIEGE</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H213" t="str">
-        <v>SIN</v>
+        <v>P-10 C</v>
       </c>
       <c r="I213" t="str">
-        <v>65937</v>
+        <v>EP29710</v>
       </c>
       <c r="J213" t="str">
-        <v>B624607</v>
+        <v>A3912487</v>
       </c>
       <c r="K213" t="str">
         <v>tiro</v>
@@ -8513,130 +8513,130 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B214" t="str">
-        <v>rcervantes@live.com.mx</v>
+        <v>rsoberanis11@hotmail.com</v>
       </c>
       <c r="C214" t="str">
-        <v>RAÚL CERVANTES CEBALLOS</v>
+        <v>RICARDO ANTONIO SOBERANIS GAMBOA</v>
       </c>
       <c r="D214" t="str">
-        <v>9993382222</v>
+        <v>9993437376</v>
       </c>
       <c r="E214" t="str">
-        <v>-</v>
+        <v>RIFLE SEMI-AUTOMATICO</v>
       </c>
       <c r="F214" t="str">
-        <v>-</v>
+        <v>22" L.R.</v>
       </c>
       <c r="G214" t="str">
-        <v>-</v>
+        <v>RUGER</v>
       </c>
       <c r="H214" t="str">
-        <v>-</v>
+        <v>10/22</v>
       </c>
       <c r="I214" t="str">
-        <v>-</v>
+        <v>0014-07080</v>
       </c>
       <c r="J214" t="str">
-        <v>-</v>
+        <v>B624593</v>
       </c>
       <c r="K214" t="str">
-        <v>-</v>
+        <v>tiro</v>
       </c>
       <c r="L214" t="str">
-        <v>SIN ARMAS</v>
+        <v>REGISTRADA</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B215" t="str">
-        <v>richfer0304@gmail.com</v>
+        <v>rsoberanis11@hotmail.com</v>
       </c>
       <c r="C215" t="str">
-        <v>RICARDO DANIEL FERNÁNDEZ PÉREZ</v>
+        <v>RICARDO ANTONIO SOBERANIS GAMBOA</v>
       </c>
       <c r="D215" t="str">
-        <v>999 163 9981</v>
+        <v>9993437376</v>
       </c>
       <c r="E215" t="str">
-        <v>-</v>
+        <v>ESCOPETA DOS CAÑONES</v>
       </c>
       <c r="F215" t="str">
-        <v>-</v>
+        <v>20</v>
       </c>
       <c r="G215" t="str">
-        <v>-</v>
+        <v>J.B. RONGE FILF A LIEGE</v>
       </c>
       <c r="H215" t="str">
-        <v>-</v>
+        <v>SIN</v>
       </c>
       <c r="I215" t="str">
-        <v>-</v>
+        <v>65937</v>
       </c>
       <c r="J215" t="str">
-        <v>-</v>
+        <v>B624607</v>
       </c>
       <c r="K215" t="str">
-        <v>-</v>
+        <v>tiro</v>
       </c>
       <c r="L215" t="str">
-        <v>SIN ARMAS</v>
+        <v>REGISTRADA</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B216" t="str">
-        <v>richfer1020@gmail.com</v>
+        <v>rcervantes@live.com.mx</v>
       </c>
       <c r="C216" t="str">
-        <v>RICARDO MANUEL FERNÁNDEZ QUIJANO</v>
+        <v>RAÚL CERVANTES CEBALLOS</v>
       </c>
       <c r="D216" t="str">
-        <v>999 947 3043</v>
+        <v>9993382222</v>
       </c>
       <c r="E216" t="str">
-        <v>PISTOLA</v>
+        <v>-</v>
       </c>
       <c r="F216" t="str">
-        <v>0.380"</v>
+        <v>-</v>
       </c>
       <c r="G216" t="str">
-        <v>GLOCK</v>
+        <v>-</v>
       </c>
       <c r="H216" t="str">
-        <v>25</v>
+        <v>-</v>
       </c>
       <c r="I216" t="str">
-        <v>UDV639</v>
+        <v>-</v>
       </c>
       <c r="J216" t="str">
-        <v>B347208</v>
+        <v>-</v>
       </c>
       <c r="K216" t="str">
-        <v>tiro</v>
+        <v>-</v>
       </c>
       <c r="L216" t="str">
-        <v>REGISTRADA</v>
+        <v>SIN ARMAS</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B217" t="str">
-        <v>licyaelromero@gmail.com</v>
+        <v>richfer0304@gmail.com</v>
       </c>
       <c r="C217" t="str">
-        <v>YAEL ROMERO DE DIOS</v>
+        <v>RICARDO DANIEL FERNÁNDEZ PÉREZ</v>
       </c>
       <c r="D217" t="str">
-        <v>999 528 7779</v>
+        <v>999 163 9981</v>
       </c>
       <c r="E217" t="str">
         <v>-</v>
@@ -8665,54 +8665,54 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B218" t="str">
-        <v>aimeegomez615@gmail.com</v>
+        <v>richfer1020@gmail.com</v>
       </c>
       <c r="C218" t="str">
-        <v>AIMEE GOMEZ MENDOZA</v>
+        <v>RICARDO MANUEL FERNÁNDEZ QUIJANO</v>
       </c>
       <c r="D218" t="str">
-        <v>999 730 0081</v>
+        <v>999 947 3043</v>
       </c>
       <c r="E218" t="str">
-        <v>-</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F218" t="str">
-        <v>-</v>
+        <v>0.380"</v>
       </c>
       <c r="G218" t="str">
-        <v>-</v>
+        <v>GLOCK</v>
       </c>
       <c r="H218" t="str">
-        <v>-</v>
+        <v>25</v>
       </c>
       <c r="I218" t="str">
-        <v>-</v>
+        <v>UDV639</v>
       </c>
       <c r="J218" t="str">
-        <v>-</v>
+        <v>B347208</v>
       </c>
       <c r="K218" t="str">
-        <v>-</v>
+        <v>tiro</v>
       </c>
       <c r="L218" t="str">
-        <v>SIN ARMAS</v>
+        <v>REGISTRADA</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B219" t="str">
-        <v>oso.guigam@gmail.com</v>
+        <v>licyaelromero@gmail.com</v>
       </c>
       <c r="C219" t="str">
-        <v>LUIS FERNANDO GUILLERMO GAMBOA</v>
+        <v>YAEL ROMERO DE DIOS</v>
       </c>
       <c r="D219" t="str">
-        <v>9992420621</v>
+        <v>999 528 7779</v>
       </c>
       <c r="E219" t="str">
         <v>-</v>
@@ -8741,78 +8741,78 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="B220" t="str">
-        <v>jacintolizarraga@hotmail.com</v>
+        <v>aimeegomez615@gmail.com</v>
       </c>
       <c r="C220" t="str">
-        <v>JOSE JACINTO LIZARRAGA AVILA</v>
+        <v>AIMEE GOMEZ MENDOZA</v>
       </c>
       <c r="D220" t="str">
-        <v>9991336764</v>
+        <v>999 730 0081</v>
       </c>
       <c r="E220" t="str">
-        <v>RIFLE</v>
+        <v>-</v>
       </c>
       <c r="F220" t="str">
-        <v>0.22" L.R.</v>
+        <v>-</v>
       </c>
       <c r="G220" t="str">
-        <v>WALTHER</v>
+        <v>-</v>
       </c>
       <c r="H220" t="str">
-        <v>G22</v>
+        <v>-</v>
       </c>
       <c r="I220" t="str">
-        <v>WP016316</v>
+        <v>-</v>
       </c>
       <c r="J220" t="str">
-        <v>B 405098</v>
+        <v>-</v>
       </c>
       <c r="K220" t="str">
-        <v>tiro</v>
+        <v>-</v>
       </c>
       <c r="L220" t="str">
-        <v>REGISTRADA</v>
+        <v>SIN ARMAS</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="B221" t="str">
-        <v>jacintolizarraga@hotmail.com</v>
+        <v>oso.guigam@gmail.com</v>
       </c>
       <c r="C221" t="str">
-        <v>JOSE JACINTO LIZARRAGA AVILA</v>
+        <v>LUIS FERNANDO GUILLERMO GAMBOA</v>
       </c>
       <c r="D221" t="str">
-        <v>9991336764</v>
+        <v>9992420621</v>
       </c>
       <c r="E221" t="str">
-        <v>PISTOLA</v>
+        <v>-</v>
       </c>
       <c r="F221" t="str">
-        <v>0.22"</v>
+        <v>-</v>
       </c>
       <c r="G221" t="str">
-        <v>SMITH &amp; WESSON</v>
+        <v>-</v>
       </c>
       <c r="H221" t="str">
-        <v>41</v>
+        <v>-</v>
       </c>
       <c r="I221" t="str">
-        <v>41605</v>
+        <v>-</v>
       </c>
       <c r="J221" t="str">
-        <v>A 3061195</v>
+        <v>-</v>
       </c>
       <c r="K221" t="str">
-        <v>tiro</v>
+        <v>-</v>
       </c>
       <c r="L221" t="str">
-        <v>REGISTRADA</v>
+        <v>SIN ARMAS</v>
       </c>
     </row>
     <row r="222">
@@ -8832,19 +8832,19 @@
         <v>RIFLE</v>
       </c>
       <c r="F222" t="str">
-        <v>0.22"</v>
+        <v>0.22" L.R.</v>
       </c>
       <c r="G222" t="str">
-        <v>SPRINGFIELD</v>
+        <v>WALTHER</v>
       </c>
       <c r="H222" t="str">
-        <v>OF 1922</v>
+        <v>G22</v>
       </c>
       <c r="I222" t="str">
-        <v>2683B</v>
+        <v>WP016316</v>
       </c>
       <c r="J222" t="str">
-        <v>A 3061197</v>
+        <v>B 405098</v>
       </c>
       <c r="K222" t="str">
         <v>tiro</v>
@@ -8870,19 +8870,19 @@
         <v>PISTOLA</v>
       </c>
       <c r="F223" t="str">
-        <v>0.380"</v>
+        <v>0.22"</v>
       </c>
       <c r="G223" t="str">
-        <v>WALTHER</v>
+        <v>SMITH &amp; WESSON</v>
       </c>
       <c r="H223" t="str">
-        <v>PPKS</v>
+        <v>41</v>
       </c>
       <c r="I223" t="str">
-        <v>238677</v>
+        <v>41605</v>
       </c>
       <c r="J223" t="str">
-        <v>A 3061194</v>
+        <v>A 3061195</v>
       </c>
       <c r="K223" t="str">
         <v>tiro</v>
@@ -8905,22 +8905,22 @@
         <v>9991336764</v>
       </c>
       <c r="E224" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F224" t="str">
-        <v>0-380"</v>
+        <v>0.22"</v>
       </c>
       <c r="G224" t="str">
-        <v>GLOCK</v>
+        <v>SPRINGFIELD</v>
       </c>
       <c r="H224" t="str">
-        <v>25</v>
+        <v>OF 1922</v>
       </c>
       <c r="I224" t="str">
-        <v>MXF795</v>
+        <v>2683B</v>
       </c>
       <c r="J224" t="str">
-        <v>B 404935</v>
+        <v>A 3061197</v>
       </c>
       <c r="K224" t="str">
         <v>tiro</v>
@@ -8931,34 +8931,34 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B225" t="str">
-        <v>fit.x66@hotmail.com</v>
+        <v>jacintolizarraga@hotmail.com</v>
       </c>
       <c r="C225" t="str">
-        <v>ADOLFO XACUR RIVERA</v>
+        <v>JOSE JACINTO LIZARRAGA AVILA</v>
       </c>
       <c r="D225" t="str">
-        <v>9992442613</v>
+        <v>9991336764</v>
       </c>
       <c r="E225" t="str">
-        <v>ESCOPETA</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F225" t="str">
-        <v>12</v>
+        <v>0.380"</v>
       </c>
       <c r="G225" t="str">
-        <v>MOSSBERG</v>
+        <v>WALTHER</v>
       </c>
       <c r="H225" t="str">
-        <v>500</v>
+        <v>PPKS</v>
       </c>
       <c r="I225" t="str">
-        <v>T581059</v>
+        <v>238677</v>
       </c>
       <c r="J225" t="str">
-        <v>B 307607</v>
+        <v>A 3061194</v>
       </c>
       <c r="K225" t="str">
         <v>tiro</v>
@@ -8969,34 +8969,34 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B226" t="str">
-        <v>fit.x66@hotmail.com</v>
+        <v>jacintolizarraga@hotmail.com</v>
       </c>
       <c r="C226" t="str">
-        <v>ADOLFO XACUR RIVERA</v>
+        <v>JOSE JACINTO LIZARRAGA AVILA</v>
       </c>
       <c r="D226" t="str">
-        <v>9992442613</v>
+        <v>9991336764</v>
       </c>
       <c r="E226" t="str">
         <v>PISTOLA</v>
       </c>
       <c r="F226" t="str">
-        <v>0.380"</v>
+        <v>0-380"</v>
       </c>
       <c r="G226" t="str">
-        <v>TAURUS</v>
+        <v>GLOCK</v>
       </c>
       <c r="H226" t="str">
-        <v>PT 58 HC PLUS</v>
+        <v>25</v>
       </c>
       <c r="I226" t="str">
-        <v>KDS62481</v>
+        <v>MXF795</v>
       </c>
       <c r="J226" t="str">
-        <v>F 198309</v>
+        <v>B 404935</v>
       </c>
       <c r="K226" t="str">
         <v>tiro</v>
@@ -9019,22 +9019,22 @@
         <v>9992442613</v>
       </c>
       <c r="E227" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F227" t="str">
-        <v>0.22"</v>
+        <v>12</v>
       </c>
       <c r="G227" t="str">
-        <v>JC HIGGINS</v>
+        <v>MOSSBERG</v>
       </c>
       <c r="H227" t="str">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="I227" t="str">
-        <v>2552429</v>
+        <v>T581059</v>
       </c>
       <c r="J227" t="str">
-        <v>B 307650</v>
+        <v>B 307607</v>
       </c>
       <c r="K227" t="str">
         <v>tiro</v>
@@ -9063,16 +9063,16 @@
         <v>0.380"</v>
       </c>
       <c r="G228" t="str">
-        <v>GLOCK</v>
+        <v>TAURUS</v>
       </c>
       <c r="H228" t="str">
-        <v>25</v>
+        <v>PT 58 HC PLUS</v>
       </c>
       <c r="I228" t="str">
-        <v>LME199</v>
+        <v>KDS62481</v>
       </c>
       <c r="J228" t="str">
-        <v>A 2673841</v>
+        <v>F 198309</v>
       </c>
       <c r="K228" t="str">
         <v>tiro</v>
@@ -9098,19 +9098,19 @@
         <v>RIFLE</v>
       </c>
       <c r="F229" t="str">
-        <v>0.22" L.R.</v>
+        <v>0.22"</v>
       </c>
       <c r="G229" t="str">
-        <v>HECKLER &amp; KOCH</v>
+        <v>JC HIGGINS</v>
       </c>
       <c r="H229" t="str">
-        <v>HK 416 D</v>
+        <v>30</v>
       </c>
       <c r="I229" t="str">
-        <v>HK006418</v>
+        <v>2552429</v>
       </c>
       <c r="J229" t="str">
-        <v>F 198308</v>
+        <v>B 307650</v>
       </c>
       <c r="K229" t="str">
         <v>tiro</v>
@@ -9133,22 +9133,22 @@
         <v>9992442613</v>
       </c>
       <c r="E230" t="str">
-        <v>REVOLVER</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F230" t="str">
-        <v>0.22"</v>
+        <v>0.380"</v>
       </c>
       <c r="G230" t="str">
-        <v>COLT'S</v>
+        <v>GLOCK</v>
       </c>
       <c r="H230" t="str">
-        <v>SIN</v>
+        <v>25</v>
       </c>
       <c r="I230" t="str">
-        <v>23953K</v>
+        <v>LME199</v>
       </c>
       <c r="J230" t="str">
-        <v>A 3420104</v>
+        <v>A 2673841</v>
       </c>
       <c r="K230" t="str">
         <v>tiro</v>
@@ -9174,19 +9174,19 @@
         <v>RIFLE</v>
       </c>
       <c r="F231" t="str">
-        <v>30 06</v>
+        <v>0.22" L.R.</v>
       </c>
       <c r="G231" t="str">
-        <v>WINCHESTER</v>
+        <v>HECKLER &amp; KOCH</v>
       </c>
       <c r="H231" t="str">
-        <v>SAKO</v>
+        <v>HK 416 D</v>
       </c>
       <c r="I231" t="str">
-        <v>AV597290</v>
+        <v>HK006418</v>
       </c>
       <c r="J231" t="str">
-        <v>B 371435</v>
+        <v>F 198308</v>
       </c>
       <c r="K231" t="str">
         <v>tiro</v>
@@ -9212,19 +9212,19 @@
         <v>REVOLVER</v>
       </c>
       <c r="F232" t="str">
-        <v>38 SPL</v>
+        <v>0.22"</v>
       </c>
       <c r="G232" t="str">
-        <v>SMITH &amp; WESSON</v>
+        <v>COLT'S</v>
       </c>
       <c r="H232" t="str">
-        <v>19-3</v>
+        <v>SIN</v>
       </c>
       <c r="I232" t="str">
-        <v>7 K39813</v>
+        <v>23953K</v>
       </c>
       <c r="J232" t="str">
-        <v>A 2673978</v>
+        <v>A 3420104</v>
       </c>
       <c r="K232" t="str">
         <v>tiro</v>
@@ -9233,113 +9233,113 @@
         <v>REGISTRADA</v>
       </c>
     </row>
-    <row r="233" xml:space="preserve">
-      <c r="A233" t="str">
-        <v>46</v>
+    <row r="233">
+      <c r="A233">
+        <v>31</v>
       </c>
       <c r="B233" t="str">
-        <v>sysaventas@hotmail.com</v>
+        <v>fit.x66@hotmail.com</v>
       </c>
       <c r="C233" t="str">
-        <v>REMIGIO BEETHOVEN AGUILAR CANTO</v>
+        <v>ADOLFO XACUR RIVERA</v>
       </c>
       <c r="D233" t="str">
-        <v>'9999238686</v>
+        <v>9992442613</v>
       </c>
       <c r="E233" t="str">
         <v>RIFLE</v>
       </c>
-      <c r="F233" t="str" xml:space="preserve">
+      <c r="F233" t="str">
+        <v>30 06</v>
+      </c>
+      <c r="G233" t="str">
+        <v>WINCHESTER</v>
+      </c>
+      <c r="H233" t="str">
+        <v>SAKO</v>
+      </c>
+      <c r="I233" t="str">
+        <v>AV597290</v>
+      </c>
+      <c r="J233" t="str">
+        <v>B 371435</v>
+      </c>
+      <c r="K233" t="str">
+        <v>tiro</v>
+      </c>
+      <c r="L233" t="str">
+        <v>REGISTRADA</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>31</v>
+      </c>
+      <c r="B234" t="str">
+        <v>fit.x66@hotmail.com</v>
+      </c>
+      <c r="C234" t="str">
+        <v>ADOLFO XACUR RIVERA</v>
+      </c>
+      <c r="D234" t="str">
+        <v>9992442613</v>
+      </c>
+      <c r="E234" t="str">
+        <v>REVOLVER</v>
+      </c>
+      <c r="F234" t="str">
+        <v>38 SPL</v>
+      </c>
+      <c r="G234" t="str">
+        <v>SMITH &amp; WESSON</v>
+      </c>
+      <c r="H234" t="str">
+        <v>19-3</v>
+      </c>
+      <c r="I234" t="str">
+        <v>7 K39813</v>
+      </c>
+      <c r="J234" t="str">
+        <v>A 2673978</v>
+      </c>
+      <c r="K234" t="str">
+        <v>tiro</v>
+      </c>
+      <c r="L234" t="str">
+        <v>REGISTRADA</v>
+      </c>
+    </row>
+    <row r="235" xml:space="preserve">
+      <c r="A235" t="str">
+        <v>46</v>
+      </c>
+      <c r="B235" t="str">
+        <v>sysaventas@hotmail.com</v>
+      </c>
+      <c r="C235" t="str">
+        <v>REMIGIO BEETHOVEN AGUILAR CANTO</v>
+      </c>
+      <c r="D235" t="str">
+        <v>'9999238686</v>
+      </c>
+      <c r="E235" t="str">
+        <v>RIFLE</v>
+      </c>
+      <c r="F235" t="str" xml:space="preserve">
         <v xml:space="preserve">0.300" REM. ULTRA. MAG./  CUENTA CON CAÑÓN ADIC. 
 CREEDMOOR  CAL. 6.5 mm  MAT. R/163932</v>
       </c>
-      <c r="G233" t="str">
+      <c r="G235" t="str">
         <v>BLASER</v>
       </c>
-      <c r="H233" t="str">
+      <c r="H235" t="str">
         <v>R8</v>
       </c>
-      <c r="I233" t="str">
+      <c r="I235" t="str">
         <v>R/125521</v>
       </c>
-      <c r="J233" t="str">
+      <c r="J235" t="str">
         <v>A 3421384</v>
-      </c>
-      <c r="K233" t="str">
-        <v>tiro</v>
-      </c>
-      <c r="L233" t="str">
-        <v>REGISTRADA</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="str">
-        <v>46</v>
-      </c>
-      <c r="B234" t="str">
-        <v>sysaventas@hotmail.com</v>
-      </c>
-      <c r="C234" t="str">
-        <v>REMIGIO BEETHOVEN AGUILAR CANTO</v>
-      </c>
-      <c r="D234" t="str">
-        <v>'9999238686</v>
-      </c>
-      <c r="E234" t="str">
-        <v>RIFLE</v>
-      </c>
-      <c r="F234" t="str">
-        <v>.257" ROBERTS</v>
-      </c>
-      <c r="G234" t="str">
-        <v>STEYRS</v>
-      </c>
-      <c r="H234" t="str">
-        <v>1950</v>
-      </c>
-      <c r="I234" t="str">
-        <v>6274</v>
-      </c>
-      <c r="J234" t="str">
-        <v>B 462699</v>
-      </c>
-      <c r="K234" t="str">
-        <v>tiro</v>
-      </c>
-      <c r="L234" t="str">
-        <v>REGISTRADA</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="str">
-        <v>46</v>
-      </c>
-      <c r="B235" t="str">
-        <v>sysaventas@hotmail.com</v>
-      </c>
-      <c r="C235" t="str">
-        <v>REMIGIO BEETHOVEN AGUILAR CANTO</v>
-      </c>
-      <c r="D235" t="str">
-        <v>'9999238686</v>
-      </c>
-      <c r="E235" t="str">
-        <v>RIFLE</v>
-      </c>
-      <c r="F235" t="str">
-        <v>0.22" L.R.</v>
-      </c>
-      <c r="G235" t="str">
-        <v>RUGER</v>
-      </c>
-      <c r="H235" t="str">
-        <v>19/22</v>
-      </c>
-      <c r="I235" t="str">
-        <v>C63-1970</v>
-      </c>
-      <c r="J235" t="str">
-        <v>A 3420314</v>
       </c>
       <c r="K235" t="str">
         <v>tiro</v>
@@ -9362,22 +9362,22 @@
         <v>'9999238686</v>
       </c>
       <c r="E236" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F236" t="str">
-        <v>12</v>
+        <v>.257" ROBERTS</v>
       </c>
       <c r="G236" t="str">
-        <v>BROWNING</v>
+        <v>STEYRS</v>
       </c>
       <c r="H236" t="str">
-        <v>DUCKS UNLIMITED</v>
+        <v>1950</v>
       </c>
       <c r="I236" t="str">
-        <v>89 DU 002435</v>
+        <v>6274</v>
       </c>
       <c r="J236" t="str">
-        <v>A 2673993</v>
+        <v>B 462699</v>
       </c>
       <c r="K236" t="str">
         <v>tiro</v>
@@ -9403,19 +9403,19 @@
         <v>RIFLE</v>
       </c>
       <c r="F237" t="str">
-        <v>0.220" SWIFT</v>
+        <v>0.22" L.R.</v>
       </c>
       <c r="G237" t="str">
-        <v>WINCHESTER</v>
+        <v>RUGER</v>
       </c>
       <c r="H237" t="str">
-        <v>70</v>
+        <v>19/22</v>
       </c>
       <c r="I237" t="str">
-        <v>138092</v>
+        <v>C63-1970</v>
       </c>
       <c r="J237" t="str">
-        <v>A 3502535</v>
+        <v>A 3420314</v>
       </c>
       <c r="K237" t="str">
         <v>tiro</v>
@@ -9438,22 +9438,22 @@
         <v>'9999238686</v>
       </c>
       <c r="E238" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F238" t="str">
-        <v>0.300" WBY. MAG</v>
+        <v>12</v>
       </c>
       <c r="G238" t="str">
-        <v>BANSNERs</v>
+        <v>BROWNING</v>
       </c>
       <c r="H238" t="str">
-        <v>X-TREME SHEEP HUNTER</v>
+        <v>DUCKS UNLIMITED</v>
       </c>
       <c r="I238" t="str">
-        <v>S6514282</v>
+        <v>89 DU 002435</v>
       </c>
       <c r="J238" t="str">
-        <v>B 405163</v>
+        <v>A 2673993</v>
       </c>
       <c r="K238" t="str">
         <v>tiro</v>
@@ -9479,19 +9479,19 @@
         <v>RIFLE</v>
       </c>
       <c r="F239" t="str">
-        <v>0.22" HORNET</v>
+        <v>0.220" SWIFT</v>
       </c>
       <c r="G239" t="str">
-        <v>KIMBER</v>
+        <v>WINCHESTER</v>
       </c>
       <c r="H239" t="str">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I239" t="str">
-        <v>H1103</v>
+        <v>138092</v>
       </c>
       <c r="J239" t="str">
-        <v>B 485374</v>
+        <v>A 3502535</v>
       </c>
       <c r="K239" t="str">
         <v>tiro</v>
@@ -9517,19 +9517,19 @@
         <v>RIFLE</v>
       </c>
       <c r="F240" t="str">
-        <v>0.22" L.R.</v>
+        <v>0.300" WBY. MAG</v>
       </c>
       <c r="G240" t="str">
-        <v>CZ</v>
+        <v>BANSNERs</v>
       </c>
       <c r="H240" t="str">
-        <v>452 ZKM</v>
+        <v>X-TREME SHEEP HUNTER</v>
       </c>
       <c r="I240" t="str">
-        <v>A357238</v>
+        <v>S6514282</v>
       </c>
       <c r="J240" t="str">
-        <v>A 3420757</v>
+        <v>B 405163</v>
       </c>
       <c r="K240" t="str">
         <v>tiro</v>
@@ -9552,22 +9552,22 @@
         <v>'9999238686</v>
       </c>
       <c r="E241" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F241" t="str">
-        <v>20 GA</v>
+        <v>0.22" HORNET</v>
       </c>
       <c r="G241" t="str">
-        <v>BROWNING</v>
+        <v>KIMBER</v>
       </c>
       <c r="H241" t="str">
-        <v>B-80</v>
+        <v>82</v>
       </c>
       <c r="I241" t="str">
-        <v>471NZ11158</v>
+        <v>H1103</v>
       </c>
       <c r="J241" t="str">
-        <v>B 488347</v>
+        <v>B 485374</v>
       </c>
       <c r="K241" t="str">
         <v>tiro</v>
@@ -9590,22 +9590,22 @@
         <v>'9999238686</v>
       </c>
       <c r="E242" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F242" t="str">
-        <v>12</v>
+        <v>0.22" L.R.</v>
       </c>
       <c r="G242" t="str">
-        <v>BROWNING</v>
+        <v>CZ</v>
       </c>
       <c r="H242" t="str">
-        <v>CITORI</v>
+        <v>452 ZKM</v>
       </c>
       <c r="I242" t="str">
-        <v>02886 NX1B3</v>
+        <v>A357238</v>
       </c>
       <c r="J242" t="str">
-        <v>A 2673992</v>
+        <v>A 3420757</v>
       </c>
       <c r="K242" t="str">
         <v>tiro</v>
@@ -9615,35 +9615,35 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243">
-        <v>51</v>
+      <c r="A243" t="str">
+        <v>46</v>
       </c>
       <c r="B243" t="str">
-        <v>manuel.chaidez@valledelsur.com.mx</v>
+        <v>sysaventas@hotmail.com</v>
       </c>
       <c r="C243" t="str">
-        <v>MANUEL JESÚS CHAIDEZ PALACIOS</v>
+        <v>REMIGIO BEETHOVEN AGUILAR CANTO</v>
       </c>
       <c r="D243" t="str">
-        <v>9992771732</v>
+        <v>'9999238686</v>
       </c>
       <c r="E243" t="str">
         <v>ESCOPETA</v>
       </c>
       <c r="F243" t="str">
-        <v>12 GA</v>
+        <v>20 GA</v>
       </c>
       <c r="G243" t="str">
-        <v>STOEGER</v>
+        <v>BROWNING</v>
       </c>
       <c r="H243" t="str">
-        <v>2000</v>
+        <v>B-80</v>
       </c>
       <c r="I243" t="str">
-        <v>627884</v>
+        <v>471NZ11158</v>
       </c>
       <c r="J243" t="str">
-        <v>A 3061141</v>
+        <v>B 488347</v>
       </c>
       <c r="K243" t="str">
         <v>tiro</v>
@@ -9653,35 +9653,35 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244">
-        <v>51</v>
+      <c r="A244" t="str">
+        <v>46</v>
       </c>
       <c r="B244" t="str">
-        <v>manuel.chaidez@valledelsur.com.mx</v>
+        <v>sysaventas@hotmail.com</v>
       </c>
       <c r="C244" t="str">
-        <v>MANUEL JESÚS CHAIDEZ PALACIOS</v>
+        <v>REMIGIO BEETHOVEN AGUILAR CANTO</v>
       </c>
       <c r="D244" t="str">
-        <v>9992771732</v>
+        <v>'9999238686</v>
       </c>
       <c r="E244" t="str">
         <v>ESCOPETA</v>
       </c>
       <c r="F244" t="str">
-        <v>12 GA</v>
+        <v>12</v>
       </c>
       <c r="G244" t="str">
-        <v>STOEGER</v>
+        <v>BROWNING</v>
       </c>
       <c r="H244" t="str">
-        <v>2000</v>
+        <v>CITORI</v>
       </c>
       <c r="I244" t="str">
-        <v>629767</v>
+        <v>02886 NX1B3</v>
       </c>
       <c r="J244" t="str">
-        <v>A 3061140</v>
+        <v>A 2673992</v>
       </c>
       <c r="K244" t="str">
         <v>tiro</v>
@@ -9707,19 +9707,19 @@
         <v>ESCOPETA</v>
       </c>
       <c r="F245" t="str">
-        <v>20 GA</v>
+        <v>12 GA</v>
       </c>
       <c r="G245" t="str">
-        <v>BENELLI</v>
+        <v>STOEGER</v>
       </c>
       <c r="H245" t="str">
-        <v>M2</v>
+        <v>2000</v>
       </c>
       <c r="I245" t="str">
-        <v>N131954S</v>
+        <v>627884</v>
       </c>
       <c r="J245" t="str">
-        <v>A 3061160</v>
+        <v>A 3061141</v>
       </c>
       <c r="K245" t="str">
         <v>tiro</v>
@@ -9748,16 +9748,16 @@
         <v>12 GA</v>
       </c>
       <c r="G246" t="str">
-        <v>REMINGTON</v>
+        <v>STOEGER</v>
       </c>
       <c r="H246" t="str">
-        <v>870</v>
+        <v>2000</v>
       </c>
       <c r="I246" t="str">
-        <v>D 062012 M</v>
+        <v>629767</v>
       </c>
       <c r="J246" t="str">
-        <v>A 3061142</v>
+        <v>A 3061140</v>
       </c>
       <c r="K246" t="str">
         <v>tiro</v>
@@ -9792,10 +9792,10 @@
         <v>M2</v>
       </c>
       <c r="I247" t="str">
-        <v>N131929A</v>
+        <v>N131954S</v>
       </c>
       <c r="J247" t="str">
-        <v>A 3421580</v>
+        <v>A 3061160</v>
       </c>
       <c r="K247" t="str">
         <v>tiro</v>
@@ -9806,34 +9806,34 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B248" t="str">
-        <v>talleresmonforte@hotmail.com</v>
+        <v>manuel.chaidez@valledelsur.com.mx</v>
       </c>
       <c r="C248" t="str">
-        <v>PAULINO EDILBERTO MONFORTE TRAVA</v>
+        <v>MANUEL JESÚS CHAIDEZ PALACIOS</v>
       </c>
       <c r="D248" t="str">
-        <v>9999810995</v>
+        <v>9992771732</v>
       </c>
       <c r="E248" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F248" t="str">
-        <v>0.243" WIN</v>
+        <v>12 GA</v>
       </c>
       <c r="G248" t="str">
-        <v>SAVAGE</v>
+        <v>REMINGTON</v>
       </c>
       <c r="H248" t="str">
-        <v>AXIS</v>
+        <v>870</v>
       </c>
       <c r="I248" t="str">
-        <v>K839383</v>
+        <v>D 062012 M</v>
       </c>
       <c r="J248" t="str">
-        <v>F 296282</v>
+        <v>A 3061142</v>
       </c>
       <c r="K248" t="str">
         <v>tiro</v>
@@ -9844,34 +9844,34 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B249" t="str">
-        <v>talleresmonforte@hotmail.com</v>
+        <v>manuel.chaidez@valledelsur.com.mx</v>
       </c>
       <c r="C249" t="str">
-        <v>PAULINO EDILBERTO MONFORTE TRAVA</v>
+        <v>MANUEL JESÚS CHAIDEZ PALACIOS</v>
       </c>
       <c r="D249" t="str">
-        <v>9999810995</v>
+        <v>9992771732</v>
       </c>
       <c r="E249" t="str">
         <v>ESCOPETA</v>
       </c>
       <c r="F249" t="str">
-        <v>12 GA</v>
+        <v>20 GA</v>
       </c>
       <c r="G249" t="str">
-        <v>BROWNING</v>
+        <v>BENELLI</v>
       </c>
       <c r="H249" t="str">
-        <v>XS SPECIAL</v>
+        <v>M2</v>
       </c>
       <c r="I249" t="str">
-        <v>06649ZZ</v>
+        <v>N131929A</v>
       </c>
       <c r="J249" t="str">
-        <v>B 295396</v>
+        <v>A 3421580</v>
       </c>
       <c r="K249" t="str">
         <v>tiro</v>
@@ -9894,22 +9894,22 @@
         <v>9999810995</v>
       </c>
       <c r="E250" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F250" t="str">
-        <v>20</v>
+        <v>0.243" WIN</v>
       </c>
       <c r="G250" t="str">
-        <v>REMINGTON</v>
+        <v>SAVAGE</v>
       </c>
       <c r="H250" t="str">
-        <v>870-LW</v>
+        <v>AXIS</v>
       </c>
       <c r="I250" t="str">
-        <v>T-903674-K</v>
+        <v>K839383</v>
       </c>
       <c r="J250" t="str">
-        <v>B 171337</v>
+        <v>F 296282</v>
       </c>
       <c r="K250" t="str">
         <v>tiro</v>
@@ -9935,19 +9935,19 @@
         <v>ESCOPETA</v>
       </c>
       <c r="F251" t="str">
-        <v>12</v>
+        <v>12 GA</v>
       </c>
       <c r="G251" t="str">
-        <v>REMINGTON</v>
+        <v>BROWNING</v>
       </c>
       <c r="H251" t="str">
-        <v>1100</v>
+        <v>XS SPECIAL</v>
       </c>
       <c r="I251" t="str">
-        <v>N 369521 V</v>
+        <v>06649ZZ</v>
       </c>
       <c r="J251" t="str">
-        <v>A 1955811</v>
+        <v>B 295396</v>
       </c>
       <c r="K251" t="str">
         <v>tiro</v>
@@ -9970,22 +9970,22 @@
         <v>9999810995</v>
       </c>
       <c r="E252" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F252" t="str">
-        <v>0.243" WIN</v>
+        <v>20</v>
       </c>
       <c r="G252" t="str">
         <v>REMINGTON</v>
       </c>
       <c r="H252" t="str">
-        <v>700</v>
+        <v>870-LW</v>
       </c>
       <c r="I252" t="str">
-        <v>G7138010</v>
+        <v>T-903674-K</v>
       </c>
       <c r="J252" t="str">
-        <v>A 3420203</v>
+        <v>B 171337</v>
       </c>
       <c r="K252" t="str">
         <v>tiro</v>
@@ -10011,19 +10011,19 @@
         <v>ESCOPETA</v>
       </c>
       <c r="F253" t="str">
-        <v>12 GA</v>
+        <v>12</v>
       </c>
       <c r="G253" t="str">
-        <v>FABARM</v>
+        <v>REMINGTON</v>
       </c>
       <c r="H253" t="str">
-        <v>LION H368</v>
+        <v>1100</v>
       </c>
       <c r="I253" t="str">
-        <v>FA036796</v>
+        <v>N 369521 V</v>
       </c>
       <c r="J253" t="str">
-        <v>A 3287014</v>
+        <v>A 1955811</v>
       </c>
       <c r="K253" t="str">
         <v>tiro</v>
@@ -10049,19 +10049,19 @@
         <v>RIFLE</v>
       </c>
       <c r="F254" t="str">
-        <v>0.22" L.R.</v>
+        <v>0.243" WIN</v>
       </c>
       <c r="G254" t="str">
-        <v>GLENFIELD</v>
+        <v>REMINGTON</v>
       </c>
       <c r="H254" t="str">
-        <v>60</v>
+        <v>700</v>
       </c>
       <c r="I254" t="str">
-        <v>25345906</v>
+        <v>G7138010</v>
       </c>
       <c r="J254" t="str">
-        <v>A 3287016</v>
+        <v>A 3420203</v>
       </c>
       <c r="K254" t="str">
         <v>tiro</v>
@@ -10072,34 +10072,34 @@
     </row>
     <row r="255">
       <c r="A255">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B255" t="str">
-        <v>recosadecv@prodigy.net.mx</v>
+        <v>talleresmonforte@hotmail.com</v>
       </c>
       <c r="C255" t="str">
-        <v>RIGOMAR HINOJOSA SHIELDS</v>
+        <v>PAULINO EDILBERTO MONFORTE TRAVA</v>
       </c>
       <c r="D255" t="str">
-        <v>9381200721</v>
+        <v>9999810995</v>
       </c>
       <c r="E255" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F255" t="str">
-        <v>.22" L.R.</v>
+        <v>12 GA</v>
       </c>
       <c r="G255" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>FABARM</v>
       </c>
       <c r="H255" t="str">
-        <v>CZ452-2E ZKM</v>
+        <v>LION H368</v>
       </c>
       <c r="I255" t="str">
-        <v>A680692</v>
+        <v>FA036796</v>
       </c>
       <c r="J255" t="str">
-        <v>A 3632985</v>
+        <v>A 3287014</v>
       </c>
       <c r="K255" t="str">
         <v>tiro</v>
@@ -10110,34 +10110,34 @@
     </row>
     <row r="256">
       <c r="A256">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B256" t="str">
-        <v>recosadecv@prodigy.net.mx</v>
+        <v>talleresmonforte@hotmail.com</v>
       </c>
       <c r="C256" t="str">
-        <v>RIGOMAR HINOJOSA SHIELDS</v>
+        <v>PAULINO EDILBERTO MONFORTE TRAVA</v>
       </c>
       <c r="D256" t="str">
-        <v>9381200721</v>
+        <v>9999810995</v>
       </c>
       <c r="E256" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F256" t="str">
-        <v>.22 L.R.</v>
+        <v>0.22" L.R.</v>
       </c>
       <c r="G256" t="str">
-        <v>BERETTA</v>
+        <v>GLENFIELD</v>
       </c>
       <c r="H256" t="str">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="I256" t="str">
-        <v>L121148Z</v>
+        <v>25345906</v>
       </c>
       <c r="J256" t="str">
-        <v>A 3615165</v>
+        <v>A 3287016</v>
       </c>
       <c r="K256" t="str">
         <v>tiro</v>
@@ -10160,22 +10160,22 @@
         <v>9381200721</v>
       </c>
       <c r="E257" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F257" t="str">
-        <v>.22" MAG.</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G257" t="str">
-        <v>KEL-TEC</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H257" t="str">
-        <v>PMR-30</v>
+        <v>CZ452-2E ZKM</v>
       </c>
       <c r="I257" t="str">
-        <v>WYHA35</v>
+        <v>A680692</v>
       </c>
       <c r="J257" t="str">
-        <v>A3816658</v>
+        <v>A 3632985</v>
       </c>
       <c r="K257" t="str">
         <v>tiro</v>
@@ -10198,22 +10198,22 @@
         <v>9381200721</v>
       </c>
       <c r="E258" t="str">
-        <v>ESCOPETA</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F258" t="str">
-        <v>12 GA</v>
+        <v>.22 L.R.</v>
       </c>
       <c r="G258" t="str">
-        <v>WINCHESTER</v>
+        <v>BERETTA</v>
       </c>
       <c r="H258" t="str">
-        <v>SX3</v>
+        <v>92</v>
       </c>
       <c r="I258" t="str">
-        <v>11HZX03035</v>
+        <v>L121148Z</v>
       </c>
       <c r="J258" t="str">
-        <v>A 3632954</v>
+        <v>A 3615165</v>
       </c>
       <c r="K258" t="str">
         <v>tiro</v>
@@ -10236,22 +10236,22 @@
         <v>9381200721</v>
       </c>
       <c r="E259" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F259" t="str">
-        <v>.22" L.R.</v>
+        <v>.22" MAG.</v>
       </c>
       <c r="G259" t="str">
-        <v>REMINGTON</v>
+        <v>KEL-TEC</v>
       </c>
       <c r="H259" t="str">
-        <v>597</v>
+        <v>PMR-30</v>
       </c>
       <c r="I259" t="str">
-        <v>A2628160</v>
+        <v>WYHA35</v>
       </c>
       <c r="J259" t="str">
-        <v>A 3770352</v>
+        <v>A3816658</v>
       </c>
       <c r="K259" t="str">
         <v>tiro</v>
@@ -10274,22 +10274,22 @@
         <v>9381200721</v>
       </c>
       <c r="E260" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F260" t="str">
-        <v>.22" L.R.</v>
+        <v>12 GA</v>
       </c>
       <c r="G260" t="str">
-        <v>COLT</v>
+        <v>WINCHESTER</v>
       </c>
       <c r="H260" t="str">
-        <v>M4</v>
+        <v>SX3</v>
       </c>
       <c r="I260" t="str">
-        <v>BP053312</v>
+        <v>11HZX03035</v>
       </c>
       <c r="J260" t="str">
-        <v>A 3633237</v>
+        <v>A 3632954</v>
       </c>
       <c r="K260" t="str">
         <v>tiro</v>
@@ -10312,22 +10312,22 @@
         <v>9381200721</v>
       </c>
       <c r="E261" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F261" t="str">
         <v>.22" L.R.</v>
       </c>
       <c r="G261" t="str">
-        <v>WALTHER</v>
+        <v>REMINGTON</v>
       </c>
       <c r="H261" t="str">
-        <v>GSP EXPERT</v>
+        <v>597</v>
       </c>
       <c r="I261" t="str">
-        <v>247015</v>
+        <v>A2628160</v>
       </c>
       <c r="J261" t="str">
-        <v>A 3632980</v>
+        <v>A 3770352</v>
       </c>
       <c r="K261" t="str">
         <v>tiro</v>
@@ -10350,22 +10350,22 @@
         <v>9381200721</v>
       </c>
       <c r="E262" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F262" t="str">
-        <v>.380"</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G262" t="str">
-        <v>GLOCK</v>
+        <v>COLT</v>
       </c>
       <c r="H262" t="str">
-        <v>25</v>
+        <v>M4</v>
       </c>
       <c r="I262" t="str">
-        <v>NRY223</v>
+        <v>BP053312</v>
       </c>
       <c r="J262" t="str">
-        <v>A 3632959</v>
+        <v>A 3633237</v>
       </c>
       <c r="K262" t="str">
         <v>tiro</v>
@@ -10391,19 +10391,19 @@
         <v>PISTOLA</v>
       </c>
       <c r="F263" t="str">
-        <v>0.380" AUTO</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G263" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>WALTHER</v>
       </c>
       <c r="H263" t="str">
-        <v>CZ P 07</v>
+        <v>GSP EXPERT</v>
       </c>
       <c r="I263" t="str">
-        <v>C343174</v>
+        <v>247015</v>
       </c>
       <c r="J263" t="str">
-        <v>A 3634306</v>
+        <v>A 3632980</v>
       </c>
       <c r="K263" t="str">
         <v>tiro</v>
@@ -10426,22 +10426,22 @@
         <v>9381200721</v>
       </c>
       <c r="E264" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F264" t="str">
-        <v>223" REM</v>
+        <v>.380"</v>
       </c>
       <c r="G264" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>GLOCK</v>
       </c>
       <c r="H264" t="str">
-        <v>CZ 527 VARMINT</v>
+        <v>25</v>
       </c>
       <c r="I264" t="str">
-        <v>A804451</v>
+        <v>NRY223</v>
       </c>
       <c r="J264" t="str">
-        <v>A 3632972</v>
+        <v>A 3632959</v>
       </c>
       <c r="K264" t="str">
         <v>tiro</v>
@@ -10452,34 +10452,34 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B265" t="str">
-        <v>jordan910@hotmail.com</v>
+        <v>recosadecv@prodigy.net.mx</v>
       </c>
       <c r="C265" t="str">
-        <v>JUAN CARLOS JORDAN LOPEZ</v>
+        <v>RIGOMAR HINOJOSA SHIELDS</v>
       </c>
       <c r="D265" t="str">
-        <v>9999258499</v>
+        <v>9381200721</v>
       </c>
       <c r="E265" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F265" t="str">
-        <v>0.223" REM.</v>
+        <v>0.380" AUTO</v>
       </c>
       <c r="G265" t="str">
-        <v>BENELLI</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H265" t="str">
-        <v>MR1</v>
+        <v>CZ P 07</v>
       </c>
       <c r="I265" t="str">
-        <v>BC008469T</v>
+        <v>C343174</v>
       </c>
       <c r="J265" t="str">
-        <v>B 405083</v>
+        <v>A 3634306</v>
       </c>
       <c r="K265" t="str">
         <v>tiro</v>
@@ -10490,34 +10490,34 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B266" t="str">
-        <v>jordan910@hotmail.com</v>
+        <v>recosadecv@prodigy.net.mx</v>
       </c>
       <c r="C266" t="str">
-        <v>JUAN CARLOS JORDAN LOPEZ</v>
+        <v>RIGOMAR HINOJOSA SHIELDS</v>
       </c>
       <c r="D266" t="str">
-        <v>9999258499</v>
+        <v>9381200721</v>
       </c>
       <c r="E266" t="str">
         <v>RIFLE</v>
       </c>
       <c r="F266" t="str">
-        <v>.243" WIN.</v>
+        <v>223" REM</v>
       </c>
       <c r="G266" t="str">
-        <v>REMINGTON</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H266" t="str">
-        <v>700</v>
+        <v>CZ 527 VARMINT</v>
       </c>
       <c r="I266" t="str">
-        <v>RR22710A</v>
+        <v>A804451</v>
       </c>
       <c r="J266" t="str">
-        <v>A 3421651</v>
+        <v>A 3632972</v>
       </c>
       <c r="K266" t="str">
         <v>tiro</v>
@@ -10543,19 +10543,19 @@
         <v>RIFLE</v>
       </c>
       <c r="F267" t="str">
-        <v>300 WIN. MAG.</v>
+        <v>0.223" REM.</v>
       </c>
       <c r="G267" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>BENELLI</v>
       </c>
       <c r="H267" t="str">
-        <v>CZ 550 MAGNUM</v>
+        <v>MR1</v>
       </c>
       <c r="I267" t="str">
-        <v>K5006</v>
+        <v>BC008469T</v>
       </c>
       <c r="J267" t="str">
-        <v>A 3421657</v>
+        <v>B 405083</v>
       </c>
       <c r="K267" t="str">
         <v>tiro</v>
@@ -10581,19 +10581,19 @@
         <v>RIFLE</v>
       </c>
       <c r="F268" t="str">
-        <v>0.22" L.R.</v>
+        <v>.243" WIN.</v>
       </c>
       <c r="G268" t="str">
-        <v>HK</v>
+        <v>REMINGTON</v>
       </c>
       <c r="H268" t="str">
-        <v>HK416D</v>
+        <v>700</v>
       </c>
       <c r="I268" t="str">
-        <v>HK006250</v>
+        <v>RR22710A</v>
       </c>
       <c r="J268" t="str">
-        <v>A 3421653</v>
+        <v>A 3421651</v>
       </c>
       <c r="K268" t="str">
         <v>tiro</v>
@@ -10604,34 +10604,34 @@
     </row>
     <row r="269">
       <c r="A269">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B269" t="str">
-        <v>jorgedawn@prodigy.net.mx</v>
+        <v>jordan910@hotmail.com</v>
       </c>
       <c r="C269" t="str">
-        <v>JORGE ALFREDO DAWN MEDINA</v>
+        <v>JUAN CARLOS JORDAN LOPEZ</v>
       </c>
       <c r="D269" t="str">
-        <v>9999005153</v>
+        <v>9999258499</v>
       </c>
       <c r="E269" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F269" t="str">
-        <v>12 GA</v>
+        <v>300 WIN. MAG.</v>
       </c>
       <c r="G269" t="str">
-        <v>BROWNING</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H269" t="str">
-        <v>MAXUS</v>
+        <v>CZ 550 MAGNUM</v>
       </c>
       <c r="I269" t="str">
-        <v>115ZR07085</v>
+        <v>K5006</v>
       </c>
       <c r="J269" t="str">
-        <v>B 40513</v>
+        <v>A 3421657</v>
       </c>
       <c r="K269" t="str">
         <v>tiro</v>
@@ -10642,34 +10642,34 @@
     </row>
     <row r="270">
       <c r="A270">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B270" t="str">
-        <v>jorgedawn@prodigy.net.mx</v>
+        <v>jordan910@hotmail.com</v>
       </c>
       <c r="C270" t="str">
-        <v>JORGE ALFREDO DAWN MEDINA</v>
+        <v>JUAN CARLOS JORDAN LOPEZ</v>
       </c>
       <c r="D270" t="str">
-        <v>9999005153</v>
+        <v>9999258499</v>
       </c>
       <c r="E270" t="str">
         <v>RIFLE</v>
       </c>
       <c r="F270" t="str">
-        <v>0.243"</v>
+        <v>0.22" L.R.</v>
       </c>
       <c r="G270" t="str">
-        <v>REMINGTON</v>
+        <v>HK</v>
       </c>
       <c r="H270" t="str">
-        <v>700</v>
+        <v>HK416D</v>
       </c>
       <c r="I270" t="str">
-        <v>RR05700C</v>
+        <v>HK006250</v>
       </c>
       <c r="J270" t="str">
-        <v>B 439750</v>
+        <v>A 3421653</v>
       </c>
       <c r="K270" t="str">
         <v>tiro</v>
@@ -10692,22 +10692,22 @@
         <v>9999005153</v>
       </c>
       <c r="E271" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F271" t="str">
-        <v>0.22"</v>
+        <v>12 GA</v>
       </c>
       <c r="G271" t="str">
-        <v>GLENFIELD</v>
+        <v>BROWNING</v>
       </c>
       <c r="H271" t="str">
-        <v>22</v>
+        <v>MAXUS</v>
       </c>
       <c r="I271" t="str">
-        <v>20763084</v>
+        <v>115ZR07085</v>
       </c>
       <c r="J271" t="str">
-        <v>A 3060919</v>
+        <v>B 40513</v>
       </c>
       <c r="K271" t="str">
         <v>tiro</v>
@@ -10730,22 +10730,22 @@
         <v>9999005153</v>
       </c>
       <c r="E272" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F272" t="str">
-        <v>12 GA</v>
+        <v>0.243"</v>
       </c>
       <c r="G272" t="str">
-        <v>MOSSBERG</v>
+        <v>REMINGTON</v>
       </c>
       <c r="H272" t="str">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I272" t="str">
-        <v>U899313</v>
+        <v>RR05700C</v>
       </c>
       <c r="J272" t="str">
-        <v>A 3286632</v>
+        <v>B 439750</v>
       </c>
       <c r="K272" t="str">
         <v>tiro</v>
@@ -10768,22 +10768,22 @@
         <v>9999005153</v>
       </c>
       <c r="E273" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F273" t="str">
-        <v>.380" ACP</v>
+        <v>0.22"</v>
       </c>
       <c r="G273" t="str">
-        <v>TANFOGLIO</v>
+        <v>GLENFIELD</v>
       </c>
       <c r="H273" t="str">
-        <v>FT 9 FS SPORT</v>
+        <v>22</v>
       </c>
       <c r="I273" t="str">
-        <v>AA23335</v>
+        <v>20763084</v>
       </c>
       <c r="J273" t="str">
-        <v>F 266799</v>
+        <v>A 3060919</v>
       </c>
       <c r="K273" t="str">
         <v>tiro</v>
@@ -10809,19 +10809,19 @@
         <v>ESCOPETA</v>
       </c>
       <c r="F274" t="str">
-        <v>12</v>
+        <v>12 GA</v>
       </c>
       <c r="G274" t="str">
-        <v>BENELLI</v>
+        <v>MOSSBERG</v>
       </c>
       <c r="H274" t="str">
-        <v>VINCI</v>
+        <v>500</v>
       </c>
       <c r="I274" t="str">
-        <v>BG025907</v>
+        <v>U899313</v>
       </c>
       <c r="J274" t="str">
-        <v>D</v>
+        <v>A 3286632</v>
       </c>
       <c r="K274" t="str">
         <v>tiro</v>
@@ -10832,34 +10832,34 @@
     </row>
     <row r="275">
       <c r="A275">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B275" t="str">
-        <v>ssg@santinelli.com.mx</v>
+        <v>jorgedawn@prodigy.net.mx</v>
       </c>
       <c r="C275" t="str">
-        <v>SERGIO SANTINELLI GRAJALES</v>
+        <v>JORGE ALFREDO DAWN MEDINA</v>
       </c>
       <c r="D275" t="str">
-        <v>5554388308</v>
+        <v>9999005153</v>
       </c>
       <c r="E275" t="str">
-        <v>REVOLVER</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F275" t="str">
-        <v>.22" L.R.</v>
+        <v>.380" ACP</v>
       </c>
       <c r="G275" t="str">
-        <v>SMITH &amp; WESSON</v>
+        <v>TANFOGLIO</v>
       </c>
       <c r="H275" t="str">
-        <v>44618</v>
+        <v>FT 9 FS SPORT</v>
       </c>
       <c r="I275" t="str">
-        <v>K114603</v>
+        <v>AA23335</v>
       </c>
       <c r="J275" t="str">
-        <v>A 3422751</v>
+        <v>F 266799</v>
       </c>
       <c r="K275" t="str">
         <v>tiro</v>
@@ -10870,34 +10870,34 @@
     </row>
     <row r="276">
       <c r="A276">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B276" t="str">
-        <v>ssg@santinelli.com.mx</v>
+        <v>jorgedawn@prodigy.net.mx</v>
       </c>
       <c r="C276" t="str">
-        <v>SERGIO SANTINELLI GRAJALES</v>
+        <v>JORGE ALFREDO DAWN MEDINA</v>
       </c>
       <c r="D276" t="str">
-        <v>5554388308</v>
+        <v>9999005153</v>
       </c>
       <c r="E276" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F276" t="str">
-        <v>.22" L.R.</v>
+        <v>12</v>
       </c>
       <c r="G276" t="str">
-        <v>WINCHESTER</v>
+        <v>BENELLI</v>
       </c>
       <c r="H276" t="str">
-        <v>47</v>
+        <v>VINCI</v>
       </c>
       <c r="I276" t="str">
-        <v>700</v>
+        <v>BG025907</v>
       </c>
       <c r="J276" t="str">
-        <v>A 3422746</v>
+        <v>D</v>
       </c>
       <c r="K276" t="str">
         <v>tiro</v>
@@ -10923,19 +10923,19 @@
         <v>REVOLVER</v>
       </c>
       <c r="F277" t="str">
-        <v>.38" SPL.</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G277" t="str">
         <v>SMITH &amp; WESSON</v>
       </c>
       <c r="H277" t="str">
-        <v>SIN</v>
+        <v>44618</v>
       </c>
       <c r="I277" t="str">
-        <v>K 94403</v>
+        <v>K114603</v>
       </c>
       <c r="J277" t="str">
-        <v>A 3422750</v>
+        <v>A 3422751</v>
       </c>
       <c r="K277" t="str">
         <v>tiro</v>
@@ -10958,22 +10958,22 @@
         <v>5554388308</v>
       </c>
       <c r="E278" t="str">
-        <v>REVOLVER</v>
+        <v>RIFLE</v>
       </c>
       <c r="F278" t="str">
         <v>.22" L.R.</v>
       </c>
       <c r="G278" t="str">
-        <v>SMITH &amp; WESSON</v>
+        <v>WINCHESTER</v>
       </c>
       <c r="H278" t="str">
-        <v>34-1</v>
+        <v>47</v>
       </c>
       <c r="I278" t="str">
-        <v>92995</v>
+        <v>700</v>
       </c>
       <c r="J278" t="str">
-        <v>A 3422752</v>
+        <v>A 3422746</v>
       </c>
       <c r="K278" t="str">
         <v>tiro</v>
@@ -10996,22 +10996,22 @@
         <v>5554388308</v>
       </c>
       <c r="E279" t="str">
-        <v>RIFLE</v>
+        <v>REVOLVER</v>
       </c>
       <c r="F279" t="str">
-        <v>.22" L.R.</v>
+        <v>.38" SPL.</v>
       </c>
       <c r="G279" t="str">
-        <v>WINCHESTER</v>
+        <v>SMITH &amp; WESSON</v>
       </c>
       <c r="H279" t="str">
-        <v>63</v>
+        <v>SIN</v>
       </c>
       <c r="I279" t="str">
-        <v>149114A</v>
+        <v>K 94403</v>
       </c>
       <c r="J279" t="str">
-        <v>A 3422747</v>
+        <v>A 3422750</v>
       </c>
       <c r="K279" t="str">
         <v>tiro</v>
@@ -11034,22 +11034,22 @@
         <v>5554388308</v>
       </c>
       <c r="E280" t="str">
-        <v>PISTOLA</v>
+        <v>REVOLVER</v>
       </c>
       <c r="F280" t="str">
-        <v>.25"</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G280" t="str">
-        <v>BERETTA</v>
+        <v>SMITH &amp; WESSON</v>
       </c>
       <c r="H280" t="str">
-        <v>950 B</v>
+        <v>34-1</v>
       </c>
       <c r="I280" t="str">
-        <v>B63320</v>
+        <v>92995</v>
       </c>
       <c r="J280" t="str">
-        <v>A 3422748</v>
+        <v>A 3422752</v>
       </c>
       <c r="K280" t="str">
         <v>tiro</v>
@@ -11072,22 +11072,22 @@
         <v>5554388308</v>
       </c>
       <c r="E281" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F281" t="str">
-        <v>.380" (9mm CORTO)</v>
+        <v>.22" L.R.</v>
       </c>
       <c r="G281" t="str">
-        <v>WALTHER</v>
+        <v>WINCHESTER</v>
       </c>
       <c r="H281" t="str">
-        <v>PPK/S</v>
+        <v>63</v>
       </c>
       <c r="I281" t="str">
-        <v>S099225</v>
+        <v>149114A</v>
       </c>
       <c r="J281" t="str">
-        <v>A 3422755</v>
+        <v>A 3422747</v>
       </c>
       <c r="K281" t="str">
         <v>tiro</v>
@@ -11110,22 +11110,22 @@
         <v>5554388308</v>
       </c>
       <c r="E282" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F282" t="str">
-        <v>.308"</v>
+        <v>.25"</v>
       </c>
       <c r="G282" t="str">
-        <v>ANSCHUTZ</v>
+        <v>BERETTA</v>
       </c>
       <c r="H282" t="str">
-        <v>110</v>
+        <v>950 B</v>
       </c>
       <c r="I282" t="str">
-        <v>67995</v>
+        <v>B63320</v>
       </c>
       <c r="J282" t="str">
-        <v>A 3422745</v>
+        <v>A 3422748</v>
       </c>
       <c r="K282" t="str">
         <v>tiro</v>
@@ -11136,34 +11136,34 @@
     </row>
     <row r="283">
       <c r="A283">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B283" t="str">
-        <v>cc@secure.mx</v>
+        <v>ssg@santinelli.com.mx</v>
       </c>
       <c r="C283" t="str">
-        <v>CLAUDIO MAURICIO CANAVATI FARAH</v>
+        <v>SERGIO SANTINELLI GRAJALES</v>
       </c>
       <c r="D283" t="str">
-        <v>5554536965</v>
+        <v>5554388308</v>
       </c>
       <c r="E283" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F283" t="str">
-        <v>308 WIN</v>
+        <v>.380" (9mm CORTO)</v>
       </c>
       <c r="G283" t="str">
-        <v>BROWNING</v>
+        <v>WALTHER</v>
       </c>
       <c r="H283" t="str">
-        <v>X-BOLT</v>
+        <v>PPK/S</v>
       </c>
       <c r="I283" t="str">
-        <v>52761ZZ354</v>
+        <v>S099225</v>
       </c>
       <c r="J283" t="str">
-        <v>A 3392280</v>
+        <v>A 3422755</v>
       </c>
       <c r="K283" t="str">
         <v>tiro</v>
@@ -11174,34 +11174,34 @@
     </row>
     <row r="284">
       <c r="A284">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B284" t="str">
-        <v>cc@secure.mx</v>
+        <v>ssg@santinelli.com.mx</v>
       </c>
       <c r="C284" t="str">
-        <v>CLAUDIO MAURICIO CANAVATI FARAH</v>
+        <v>SERGIO SANTINELLI GRAJALES</v>
       </c>
       <c r="D284" t="str">
-        <v>5554536965</v>
+        <v>5554388308</v>
       </c>
       <c r="E284" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F284" t="str">
-        <v>.22"</v>
+        <v>.308"</v>
       </c>
       <c r="G284" t="str">
-        <v>ROCK ISLAND</v>
+        <v>ANSCHUTZ</v>
       </c>
       <c r="H284" t="str">
-        <v>M1911 A2 FS-MM</v>
+        <v>110</v>
       </c>
       <c r="I284" t="str">
-        <v>TCM03978</v>
+        <v>67995</v>
       </c>
       <c r="J284" t="str">
-        <v>A3469213</v>
+        <v>A 3422745</v>
       </c>
       <c r="K284" t="str">
         <v>tiro</v>
@@ -11224,22 +11224,22 @@
         <v>5554536965</v>
       </c>
       <c r="E285" t="str">
-        <v>ESCOPETA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F285" t="str">
-        <v>12 GA</v>
+        <v>308 WIN</v>
       </c>
       <c r="G285" t="str">
-        <v>BENELLI</v>
+        <v>BROWNING</v>
       </c>
       <c r="H285" t="str">
-        <v>VINCI</v>
+        <v>X-BOLT</v>
       </c>
       <c r="I285" t="str">
-        <v>BG051371D</v>
+        <v>52761ZZ354</v>
       </c>
       <c r="J285" t="str">
-        <v>A 3392279</v>
+        <v>A 3392280</v>
       </c>
       <c r="K285" t="str">
         <v>tiro</v>
@@ -11262,22 +11262,22 @@
         <v>5554536965</v>
       </c>
       <c r="E286" t="str">
-        <v>RIFLE</v>
+        <v>PISTOLA</v>
       </c>
       <c r="F286" t="str">
-        <v>0.223" REM</v>
+        <v>.22"</v>
       </c>
       <c r="G286" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>ROCK ISLAND</v>
       </c>
       <c r="H286" t="str">
-        <v>CZ 527 AMERICAN</v>
+        <v>M1911 A2 FS-MM</v>
       </c>
       <c r="I286" t="str">
-        <v>A801895</v>
+        <v>TCM03978</v>
       </c>
       <c r="J286" t="str">
-        <v>A 3392278</v>
+        <v>A3469213</v>
       </c>
       <c r="K286" t="str">
         <v>tiro</v>
@@ -11300,22 +11300,22 @@
         <v>5554536965</v>
       </c>
       <c r="E287" t="str">
-        <v>RIFLE</v>
+        <v>ESCOPETA</v>
       </c>
       <c r="F287" t="str">
-        <v>7 MM</v>
+        <v>12 GA</v>
       </c>
       <c r="G287" t="str">
-        <v>REMINGTON</v>
+        <v>BENELLI</v>
       </c>
       <c r="H287" t="str">
-        <v>700</v>
+        <v>VINCI</v>
       </c>
       <c r="I287" t="str">
-        <v>E6527940</v>
+        <v>BG051371D</v>
       </c>
       <c r="J287" t="str">
-        <v>A 3392284</v>
+        <v>A 3392279</v>
       </c>
       <c r="K287" t="str">
         <v>tiro</v>
@@ -11341,19 +11341,19 @@
         <v>RIFLE</v>
       </c>
       <c r="F288" t="str">
-        <v>30 - 06</v>
+        <v>0.223" REM</v>
       </c>
       <c r="G288" t="str">
-        <v>BROWNING</v>
+        <v>CESKA ZBROJOVKA</v>
       </c>
       <c r="H288" t="str">
-        <v>X-BOLT</v>
+        <v>CZ 527 AMERICAN</v>
       </c>
       <c r="I288" t="str">
-        <v>52729ZZ354</v>
+        <v>A801895</v>
       </c>
       <c r="J288" t="str">
-        <v>A 3392281</v>
+        <v>A 3392278</v>
       </c>
       <c r="K288" t="str">
         <v>tiro</v>
@@ -11379,19 +11379,19 @@
         <v>RIFLE</v>
       </c>
       <c r="F289" t="str">
-        <v>300 WIN MAG.</v>
+        <v>7 MM</v>
       </c>
       <c r="G289" t="str">
-        <v>BROWNING</v>
+        <v>REMINGTON</v>
       </c>
       <c r="H289" t="str">
-        <v>SAFARI</v>
+        <v>700</v>
       </c>
       <c r="I289" t="str">
-        <v>311ZY02998</v>
+        <v>E6527940</v>
       </c>
       <c r="J289" t="str">
-        <v>A 3392283</v>
+        <v>A 3392284</v>
       </c>
       <c r="K289" t="str">
         <v>tiro</v>
@@ -11417,19 +11417,19 @@
         <v>RIFLE</v>
       </c>
       <c r="F290" t="str">
-        <v>0.22" L.R.</v>
+        <v>30 - 06</v>
       </c>
       <c r="G290" t="str">
-        <v>ISSC</v>
+        <v>BROWNING</v>
       </c>
       <c r="H290" t="str">
-        <v>MK22</v>
+        <v>X-BOLT</v>
       </c>
       <c r="I290" t="str">
-        <v>A393550</v>
+        <v>52729ZZ354</v>
       </c>
       <c r="J290" t="str">
-        <v>A 3392282</v>
+        <v>A 3392281</v>
       </c>
       <c r="K290" t="str">
         <v>tiro</v>
@@ -11440,34 +11440,34 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B291" t="str">
-        <v>al3xrivas@gmail.com</v>
+        <v>cc@secure.mx</v>
       </c>
       <c r="C291" t="str">
-        <v>ALEJANDRO FRANCISCO RIVAS PINTADO</v>
+        <v>CLAUDIO MAURICIO CANAVATI FARAH</v>
       </c>
       <c r="D291" t="str">
-        <v>9997720959</v>
+        <v>5554536965</v>
       </c>
       <c r="E291" t="str">
-        <v>PISTOLA</v>
+        <v>RIFLE</v>
       </c>
       <c r="F291" t="str">
-        <v>.380" AUTO</v>
+        <v>300 WIN MAG.</v>
       </c>
       <c r="G291" t="str">
-        <v>SIG SAUER</v>
+        <v>BROWNING</v>
       </c>
       <c r="H291" t="str">
-        <v>P365</v>
+        <v>SAFARI</v>
       </c>
       <c r="I291" t="str">
-        <v>66FS277755</v>
+        <v>311ZY02998</v>
       </c>
       <c r="J291" t="str">
-        <v>B 540624</v>
+        <v>A 3392283</v>
       </c>
       <c r="K291" t="str">
         <v>tiro</v>
@@ -11478,34 +11478,34 @@
     </row>
     <row r="292">
       <c r="A292">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B292" t="str">
-        <v>al3xrivas@gmail.com</v>
+        <v>cc@secure.mx</v>
       </c>
       <c r="C292" t="str">
-        <v>ALEJANDRO FRANCISCO RIVAS PINTADO</v>
+        <v>CLAUDIO MAURICIO CANAVATI FARAH</v>
       </c>
       <c r="D292" t="str">
-        <v>9997720959</v>
+        <v>5554536965</v>
       </c>
       <c r="E292" t="str">
         <v>RIFLE</v>
       </c>
       <c r="F292" t="str">
-        <v>0.223" REM</v>
+        <v>0.22" L.R.</v>
       </c>
       <c r="G292" t="str">
-        <v>BENELLI</v>
+        <v>ISSC</v>
       </c>
       <c r="H292" t="str">
-        <v>MR1</v>
+        <v>MK22</v>
       </c>
       <c r="I292" t="str">
-        <v>BC008976Z</v>
+        <v>A393550</v>
       </c>
       <c r="J292" t="str">
-        <v>A 3420732</v>
+        <v>A 3392282</v>
       </c>
       <c r="K292" t="str">
         <v>tiro</v>
@@ -11534,13 +11534,13 @@
         <v>.380" AUTO</v>
       </c>
       <c r="G293" t="str">
-        <v>CESKA ZBROJOVKA</v>
+        <v>SIG SAUER</v>
       </c>
       <c r="H293" t="str">
-        <v>CZ P07</v>
+        <v>P365</v>
       </c>
       <c r="I293" t="str">
-        <v>C126830</v>
+        <v>66FS277755</v>
       </c>
       <c r="J293" t="str">
         <v>B 540624</v>
@@ -11569,95 +11569,95 @@
         <v>RIFLE</v>
       </c>
       <c r="F294" t="str">
+        <v>0.223" REM</v>
+      </c>
+      <c r="G294" t="str">
+        <v>BENELLI</v>
+      </c>
+      <c r="H294" t="str">
+        <v>MR1</v>
+      </c>
+      <c r="I294" t="str">
+        <v>BC008976Z</v>
+      </c>
+      <c r="J294" t="str">
+        <v>A 3420732</v>
+      </c>
+      <c r="K294" t="str">
+        <v>tiro</v>
+      </c>
+      <c r="L294" t="str">
+        <v>REGISTRADA</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>99</v>
+      </c>
+      <c r="B295" t="str">
+        <v>al3xrivas@gmail.com</v>
+      </c>
+      <c r="C295" t="str">
+        <v>ALEJANDRO FRANCISCO RIVAS PINTADO</v>
+      </c>
+      <c r="D295" t="str">
+        <v>9997720959</v>
+      </c>
+      <c r="E295" t="str">
+        <v>PISTOLA</v>
+      </c>
+      <c r="F295" t="str">
+        <v>.380" AUTO</v>
+      </c>
+      <c r="G295" t="str">
+        <v>CESKA ZBROJOVKA</v>
+      </c>
+      <c r="H295" t="str">
+        <v>CZ P07</v>
+      </c>
+      <c r="I295" t="str">
+        <v>C126830</v>
+      </c>
+      <c r="J295" t="str">
+        <v>B 540624</v>
+      </c>
+      <c r="K295" t="str">
+        <v>tiro</v>
+      </c>
+      <c r="L295" t="str">
+        <v>REGISTRADA</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>99</v>
+      </c>
+      <c r="B296" t="str">
+        <v>al3xrivas@gmail.com</v>
+      </c>
+      <c r="C296" t="str">
+        <v>ALEJANDRO FRANCISCO RIVAS PINTADO</v>
+      </c>
+      <c r="D296" t="str">
+        <v>9997720959</v>
+      </c>
+      <c r="E296" t="str">
+        <v>RIFLE</v>
+      </c>
+      <c r="F296" t="str">
         <v>30 - 06"</v>
       </c>
-      <c r="G294" t="str">
+      <c r="G296" t="str">
         <v>STEYR</v>
       </c>
-      <c r="H294" t="str">
+      <c r="H296" t="str">
         <v>SIN</v>
       </c>
-      <c r="I294" t="str">
+      <c r="I296" t="str">
         <v>B 4217</v>
       </c>
-      <c r="J294" t="str">
+      <c r="J296" t="str">
         <v>A 3061846</v>
-      </c>
-      <c r="K294" t="str">
-        <v>tiro</v>
-      </c>
-      <c r="L294" t="str">
-        <v>REGISTRADA</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="B295" t="str">
-        <v>rmadahuar@cotexsa.com.mx</v>
-      </c>
-      <c r="C295" t="str">
-        <v>ROBERTO JOSE MADAHUAR BOEHM</v>
-      </c>
-      <c r="D295" t="str">
-        <v>9999473478</v>
-      </c>
-      <c r="E295" t="str">
-        <v>ESCOPETA</v>
-      </c>
-      <c r="F295" t="str">
-        <v>12</v>
-      </c>
-      <c r="G295" t="str">
-        <v>BENELLI</v>
-      </c>
-      <c r="H295" t="str">
-        <v>VINCI</v>
-      </c>
-      <c r="I295" t="str">
-        <v>BGO45573P</v>
-      </c>
-      <c r="J295" t="str">
-        <v>A 3285623</v>
-      </c>
-      <c r="K295" t="str">
-        <v>tiro</v>
-      </c>
-      <c r="L295" t="str">
-        <v>REGISTRADA</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="B296" t="str">
-        <v>rmadahuar@cotexsa.com.mx</v>
-      </c>
-      <c r="C296" t="str">
-        <v>ROBERTO JOSE MADAHUAR BOEHM</v>
-      </c>
-      <c r="D296" t="str">
-        <v>9999473478</v>
-      </c>
-      <c r="E296" t="str">
-        <v>ESCOPETA</v>
-      </c>
-      <c r="F296" t="str">
-        <v>20</v>
-      </c>
-      <c r="G296" t="str">
-        <v>BENELLI</v>
-      </c>
-      <c r="H296" t="str">
-        <v>M2</v>
-      </c>
-      <c r="I296" t="str">
-        <v>N143004W</v>
-      </c>
-      <c r="J296" t="str">
-        <v>A 3285622</v>
       </c>
       <c r="K296" t="str">
         <v>tiro</v>
@@ -11710,7 +11710,7 @@
         <v>Fecha Generación:</v>
       </c>
       <c r="B5" t="str">
-        <v>23/1/2026, 10:54:34 a.m.</v>
+        <v>23/1/2026, 11:00:42 a.m.</v>
       </c>
     </row>
     <row r="6">

--- a/data/reportes-bimestrales/2026/02/RELACION_2026_02.xlsx
+++ b/data/reportes-bimestrales/2026/02/RELACION_2026_02.xlsx
@@ -11710,7 +11710,7 @@
         <v>Fecha Generación:</v>
       </c>
       <c r="B5" t="str">
-        <v>23/1/2026, 11:00:42 a.m.</v>
+        <v>23/1/2026, 11:16:43 a.m.</v>
       </c>
     </row>
     <row r="6">

--- a/data/reportes-bimestrales/2026/02/RELACION_2026_02.xlsx
+++ b/data/reportes-bimestrales/2026/02/RELACION_2026_02.xlsx
@@ -11710,7 +11710,7 @@
         <v>Fecha Generación:</v>
       </c>
       <c r="B5" t="str">
-        <v>23/1/2026, 11:16:43 a.m.</v>
+        <v>23/1/2026, 11:18:30 a.m.</v>
       </c>
     </row>
     <row r="6">
